--- a/Starbucks DCF.xlsx
+++ b/Starbucks DCF.xlsx
@@ -296,7 +296,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F187" authorId="1" shapeId="0">
+    <comment ref="F192" authorId="1" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -310,7 +310,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F191" authorId="1" shapeId="0">
+    <comment ref="F196" authorId="1" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -324,7 +324,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E311" authorId="0" shapeId="0">
+    <comment ref="E316" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -480,7 +480,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="382" uniqueCount="253">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="386" uniqueCount="255">
   <si>
     <t>$ mm except per share</t>
   </si>
@@ -1278,6 +1278,12 @@
   </si>
   <si>
     <t>Equity and costs investments</t>
+  </si>
+  <si>
+    <t>Insurance Reserves</t>
+  </si>
+  <si>
+    <t>End of Period</t>
   </si>
 </sst>
 </file>
@@ -4436,10 +4442,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K354"/>
+  <dimension ref="A1:K359"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A54" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F78" sqref="F78"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="K54" sqref="K54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4"/>
@@ -4925,11 +4931,11 @@
         <v>108</v>
       </c>
       <c r="F23" s="218">
-        <f ca="1">F297</f>
+        <f ca="1">F302</f>
         <v>104.58538341760034</v>
       </c>
       <c r="G23" s="218">
-        <f t="shared" ref="G23:J23" ca="1" si="5">G297</f>
+        <f t="shared" ref="G23:J23" ca="1" si="5">G302</f>
         <v>111.05683042716345</v>
       </c>
       <c r="H23" s="218">
@@ -5205,11 +5211,11 @@
         <v>1471.6</v>
       </c>
       <c r="F32" s="219">
-        <f>AVERAGE(F304,F307)</f>
+        <f>AVERAGE(F309,F312)</f>
         <v>1442.3938681600489</v>
       </c>
       <c r="G32" s="219">
-        <f t="shared" ref="G32:J32" si="16">AVERAGE(G304,G307)</f>
+        <f t="shared" ref="G32:J32" si="16">AVERAGE(G309,G312)</f>
         <v>1418.1014235664211</v>
       </c>
       <c r="H32" s="219">
@@ -5394,23 +5400,23 @@
         <v>0.11236412405349983</v>
       </c>
       <c r="F40" s="232">
-        <f ca="1">OFFSET(F$336,MATCH($E$329,$B$337:$B$339,0)+MATCH($B40,$B$336:$B$351,0)-1,0)</f>
+        <f ca="1">OFFSET(F$341,MATCH($E$334,$B$342:$B$344,0)+MATCH($B40,$B$341:$B$356,0)-1,0)</f>
         <v>6.5000000000000002E-2</v>
       </c>
       <c r="G40" s="232">
-        <f ca="1">OFFSET(G$336,MATCH($E$329,$B$337:$B$339,0)+MATCH($B40,$B$336:$B$351,0)-1,0)</f>
+        <f ca="1">OFFSET(G$341,MATCH($E$334,$B$342:$B$344,0)+MATCH($B40,$B$341:$B$356,0)-1,0)</f>
         <v>0.10199999999999999</v>
       </c>
       <c r="H40" s="232">
-        <f ca="1">OFFSET(H$336,MATCH($E$329,$B$337:$B$339,0)+MATCH($B40,$B$336:$B$351,0)-1,0)</f>
+        <f ca="1">OFFSET(H$341,MATCH($E$334,$B$342:$B$344,0)+MATCH($B40,$B$341:$B$356,0)-1,0)</f>
         <v>0.10199999999999999</v>
       </c>
       <c r="I40" s="232">
-        <f ca="1">OFFSET(I$336,MATCH($E$329,$B$337:$B$339,0)+MATCH($B40,$B$336:$B$351,0)-1,0)</f>
+        <f ca="1">OFFSET(I$341,MATCH($E$334,$B$342:$B$344,0)+MATCH($B40,$B$341:$B$356,0)-1,0)</f>
         <v>0.1</v>
       </c>
       <c r="J40" s="232">
-        <f ca="1">OFFSET(J$336,MATCH($E$329,$B$337:$B$339,0)+MATCH($B40,$B$336:$B$351,0)-1,0)</f>
+        <f ca="1">OFFSET(J$341,MATCH($E$334,$B$342:$B$344,0)+MATCH($B40,$B$341:$B$356,0)-1,0)</f>
         <v>0.1</v>
       </c>
       <c r="K40" s="50"/>
@@ -5432,23 +5438,23 @@
         <v>0.60071589752250665</v>
       </c>
       <c r="F41" s="232">
-        <f ca="1">OFFSET(F$336,MATCH($E$329,$B$337:$B$339,0)+MATCH($B41,$B$336:$B$351,0)-1,0)</f>
+        <f ca="1">OFFSET(F$341,MATCH($E$334,$B$342:$B$344,0)+MATCH($B41,$B$341:$B$356,0)-1,0)</f>
         <v>0.60799999999999998</v>
       </c>
       <c r="G41" s="232">
-        <f ca="1">OFFSET(G$336,MATCH($E$329,$B$337:$B$339,0)+MATCH($B41,$B$336:$B$351,0)-1,0)</f>
+        <f ca="1">OFFSET(G$341,MATCH($E$334,$B$342:$B$344,0)+MATCH($B41,$B$341:$B$356,0)-1,0)</f>
         <v>0.61599999999999999</v>
       </c>
       <c r="H41" s="232">
-        <f ca="1">OFFSET(H$336,MATCH($E$329,$B$337:$B$339,0)+MATCH($B41,$B$336:$B$351,0)-1,0)</f>
+        <f ca="1">OFFSET(H$341,MATCH($E$334,$B$342:$B$344,0)+MATCH($B41,$B$341:$B$356,0)-1,0)</f>
         <v>0.624</v>
       </c>
       <c r="I41" s="232">
-        <f ca="1">OFFSET(I$336,MATCH($E$329,$B$337:$B$339,0)+MATCH($B41,$B$336:$B$351,0)-1,0)</f>
+        <f ca="1">OFFSET(I$341,MATCH($E$334,$B$342:$B$344,0)+MATCH($B41,$B$341:$B$356,0)-1,0)</f>
         <v>0.63200000000000001</v>
       </c>
       <c r="J41" s="232">
-        <f ca="1">OFFSET(J$336,MATCH($E$329,$B$337:$B$339,0)+MATCH($B41,$B$336:$B$351,0)-1,0)</f>
+        <f ca="1">OFFSET(J$341,MATCH($E$334,$B$342:$B$344,0)+MATCH($B41,$B$341:$B$356,0)-1,0)</f>
         <v>0.64</v>
       </c>
       <c r="K41" s="216">
@@ -5472,23 +5478,23 @@
         <v>0</v>
       </c>
       <c r="F42" s="232">
-        <f ca="1">OFFSET(F$336,MATCH($E$329,$B$337:$B$339,0)+MATCH($B42,$B$336:$B$351,0)-1,0)</f>
+        <f ca="1">OFFSET(F$341,MATCH($E$334,$B$342:$B$344,0)+MATCH($B42,$B$341:$B$356,0)-1,0)</f>
         <v>0</v>
       </c>
       <c r="G42" s="232">
-        <f ca="1">OFFSET(G$336,MATCH($E$329,$B$337:$B$339,0)+MATCH($B42,$B$336:$B$351,0)-1,0)</f>
+        <f ca="1">OFFSET(G$341,MATCH($E$334,$B$342:$B$344,0)+MATCH($B42,$B$341:$B$356,0)-1,0)</f>
         <v>0</v>
       </c>
       <c r="H42" s="232">
-        <f ca="1">OFFSET(H$336,MATCH($E$329,$B$337:$B$339,0)+MATCH($B42,$B$336:$B$351,0)-1,0)</f>
+        <f ca="1">OFFSET(H$341,MATCH($E$334,$B$342:$B$344,0)+MATCH($B42,$B$341:$B$356,0)-1,0)</f>
         <v>0</v>
       </c>
       <c r="I42" s="232">
-        <f ca="1">OFFSET(I$336,MATCH($E$329,$B$337:$B$339,0)+MATCH($B42,$B$336:$B$351,0)-1,0)</f>
+        <f ca="1">OFFSET(I$341,MATCH($E$334,$B$342:$B$344,0)+MATCH($B42,$B$341:$B$356,0)-1,0)</f>
         <v>0</v>
       </c>
       <c r="J42" s="232">
-        <f ca="1">OFFSET(J$336,MATCH($E$329,$B$337:$B$339,0)+MATCH($B42,$B$336:$B$351,0)-1,0)</f>
+        <f ca="1">OFFSET(J$341,MATCH($E$334,$B$342:$B$344,0)+MATCH($B42,$B$341:$B$356,0)-1,0)</f>
         <v>0</v>
       </c>
     </row>
@@ -5509,23 +5515,23 @@
         <v>0.41992597075422572</v>
       </c>
       <c r="F43" s="232">
-        <f ca="1">OFFSET(F$336,MATCH($E$329,$B$337:$B$339,0)+MATCH($B43,$B$336:$B$351,0)-1,0)</f>
+        <f ca="1">OFFSET(F$341,MATCH($E$334,$B$342:$B$344,0)+MATCH($B43,$B$341:$B$356,0)-1,0)</f>
         <v>0.42</v>
       </c>
       <c r="G43" s="232">
-        <f ca="1">OFFSET(G$336,MATCH($E$329,$B$337:$B$339,0)+MATCH($B43,$B$336:$B$351,0)-1,0)</f>
+        <f ca="1">OFFSET(G$341,MATCH($E$334,$B$342:$B$344,0)+MATCH($B43,$B$341:$B$356,0)-1,0)</f>
         <v>0.41899999999999998</v>
       </c>
       <c r="H43" s="232">
-        <f ca="1">OFFSET(H$336,MATCH($E$329,$B$337:$B$339,0)+MATCH($B43,$B$336:$B$351,0)-1,0)</f>
+        <f ca="1">OFFSET(H$341,MATCH($E$334,$B$342:$B$344,0)+MATCH($B43,$B$341:$B$356,0)-1,0)</f>
         <v>0.44500000000000001</v>
       </c>
       <c r="I43" s="232">
-        <f ca="1">OFFSET(I$336,MATCH($E$329,$B$337:$B$339,0)+MATCH($B43,$B$336:$B$351,0)-1,0)</f>
+        <f ca="1">OFFSET(I$341,MATCH($E$334,$B$342:$B$344,0)+MATCH($B43,$B$341:$B$356,0)-1,0)</f>
         <v>0.42799999999999999</v>
       </c>
       <c r="J43" s="232">
-        <f ca="1">OFFSET(J$336,MATCH($E$329,$B$337:$B$339,0)+MATCH($B43,$B$336:$B$351,0)-1,0)</f>
+        <f ca="1">OFFSET(J$341,MATCH($E$334,$B$342:$B$344,0)+MATCH($B43,$B$341:$B$356,0)-1,0)</f>
         <v>0.43099999999999999</v>
       </c>
     </row>
@@ -5619,11 +5625,11 @@
         <v>218.1</v>
       </c>
       <c r="F48" s="41">
-        <f ca="1">F204</f>
+        <f ca="1">F209</f>
         <v>240.8319628560927</v>
       </c>
       <c r="G48" s="41">
-        <f t="shared" ref="G48:J48" ca="1" si="25">G204</f>
+        <f t="shared" ref="G48:J48" ca="1" si="25">G209</f>
         <v>262.45523266395764</v>
       </c>
       <c r="H48" s="41">
@@ -5786,23 +5792,23 @@
         <v>3404.9000000000005</v>
       </c>
       <c r="F55" s="38">
-        <f ca="1">E55+F267</f>
+        <f ca="1">E55+F272</f>
         <v>3189.5957777555664</v>
       </c>
       <c r="G55" s="38">
-        <f ca="1">F55+G267</f>
+        <f ca="1">F55+G272</f>
         <v>3812.9487021781251</v>
       </c>
       <c r="H55" s="38">
-        <f ca="1">G55+H267</f>
+        <f ca="1">G55+H272</f>
         <v>4305.6786696801646</v>
       </c>
       <c r="I55" s="38">
-        <f ca="1">H55+I267</f>
+        <f ca="1">H55+I272</f>
         <v>5922.7837196953105</v>
       </c>
       <c r="J55" s="38">
-        <f ca="1">I55+J267</f>
+        <f ca="1">I55+J272</f>
         <v>7263.2804234677933</v>
       </c>
     </row>
@@ -5882,23 +5888,23 @@
         <v>885.4</v>
       </c>
       <c r="F58" s="69">
-        <f>F169</f>
+        <f>F174</f>
         <v>885.4</v>
       </c>
       <c r="G58" s="69">
-        <f>G169</f>
+        <f>G174</f>
         <v>885.4</v>
       </c>
       <c r="H58" s="69">
-        <f>H169</f>
+        <f>H174</f>
         <v>885.4</v>
       </c>
       <c r="I58" s="69">
-        <f>I169</f>
+        <f>I174</f>
         <v>885.4</v>
       </c>
       <c r="J58" s="69">
-        <f>J169</f>
+        <f>J174</f>
         <v>885.4</v>
       </c>
     </row>
@@ -5914,23 +5920,23 @@
         <v>350</v>
       </c>
       <c r="F59" s="69">
-        <f>F164</f>
+        <f>F169</f>
         <v>350</v>
       </c>
       <c r="G59" s="69">
-        <f>G164</f>
+        <f>G169</f>
         <v>350</v>
       </c>
       <c r="H59" s="69">
-        <f>H164</f>
+        <f>H169</f>
         <v>350</v>
       </c>
       <c r="I59" s="69">
-        <f>I164</f>
+        <f>I169</f>
         <v>350</v>
       </c>
       <c r="J59" s="69">
-        <f>J164</f>
+        <f>J169</f>
         <v>350</v>
       </c>
     </row>
@@ -6012,24 +6018,24 @@
         <v>354.5</v>
       </c>
       <c r="F62" s="69">
-        <f>F158</f>
-        <v>0</v>
+        <f>F164</f>
+        <v>354.5</v>
       </c>
       <c r="G62" s="69">
-        <f t="shared" ref="G62:J62" si="29">G158</f>
-        <v>0</v>
+        <f t="shared" ref="G62:J62" si="29">G164</f>
+        <v>354.5</v>
       </c>
       <c r="H62" s="69">
         <f t="shared" si="29"/>
-        <v>0</v>
+        <v>354.5</v>
       </c>
       <c r="I62" s="69">
         <f t="shared" si="29"/>
-        <v>0</v>
+        <v>354.5</v>
       </c>
       <c r="J62" s="69">
         <f t="shared" si="29"/>
-        <v>0</v>
+        <v>354.5</v>
       </c>
     </row>
     <row r="63" spans="1:10">
@@ -6044,23 +6050,23 @@
         <v>417.7</v>
       </c>
       <c r="F63" s="69">
-        <f>F174</f>
+        <f>F179</f>
         <v>417.7</v>
       </c>
       <c r="G63" s="69">
-        <f>G174</f>
+        <f>G179</f>
         <v>417.7</v>
       </c>
       <c r="H63" s="69">
-        <f>H174</f>
+        <f>H179</f>
         <v>417.7</v>
       </c>
       <c r="I63" s="69">
-        <f>I174</f>
+        <f>I179</f>
         <v>417.7</v>
       </c>
       <c r="J63" s="69">
-        <f>J174</f>
+        <f>J179</f>
         <v>417.7</v>
       </c>
     </row>
@@ -6079,23 +6085,23 @@
       </c>
       <c r="F64" s="74">
         <f t="shared" ca="1" si="30"/>
-        <v>14401.782523345586</v>
+        <v>14756.282523345586</v>
       </c>
       <c r="G64" s="74">
         <f t="shared" ca="1" si="30"/>
-        <v>15752.735005405852</v>
+        <v>16107.235005405852</v>
       </c>
       <c r="H64" s="74">
         <f t="shared" ca="1" si="30"/>
-        <v>16839.241432777453</v>
+        <v>17193.741432777453</v>
       </c>
       <c r="I64" s="74">
         <f t="shared" ca="1" si="30"/>
-        <v>18879.464309136758</v>
+        <v>19233.964309136758</v>
       </c>
       <c r="J64" s="74">
         <f t="shared" ca="1" si="30"/>
-        <v>20607.75288505499</v>
+        <v>20962.25288505499</v>
       </c>
     </row>
     <row r="65" spans="2:10">
@@ -6182,23 +6188,23 @@
         <v>0</v>
       </c>
       <c r="F68" s="79">
-        <f ca="1">F276</f>
+        <f ca="1">F281</f>
         <v>0</v>
       </c>
       <c r="G68" s="79">
-        <f ca="1">G276</f>
+        <f ca="1">G281</f>
         <v>0</v>
       </c>
       <c r="H68" s="79">
-        <f ca="1">H276</f>
+        <f ca="1">H281</f>
         <v>0</v>
       </c>
       <c r="I68" s="79">
-        <f ca="1">I276</f>
+        <f ca="1">I281</f>
         <v>0</v>
       </c>
       <c r="J68" s="79">
-        <f ca="1">J276</f>
+        <f ca="1">J281</f>
         <v>0</v>
       </c>
     </row>
@@ -6213,11 +6219,26 @@
       <c r="E69" s="68">
         <v>246</v>
       </c>
-      <c r="F69" s="79"/>
-      <c r="G69" s="79"/>
-      <c r="H69" s="79"/>
-      <c r="I69" s="79"/>
-      <c r="J69" s="79"/>
+      <c r="F69" s="79">
+        <f>F159</f>
+        <v>246</v>
+      </c>
+      <c r="G69" s="79">
+        <f t="shared" ref="G69:J69" si="31">G159</f>
+        <v>246</v>
+      </c>
+      <c r="H69" s="79">
+        <f t="shared" si="31"/>
+        <v>246</v>
+      </c>
+      <c r="I69" s="79">
+        <f t="shared" si="31"/>
+        <v>246</v>
+      </c>
+      <c r="J69" s="79">
+        <f t="shared" si="31"/>
+        <v>246</v>
+      </c>
     </row>
     <row r="70" spans="2:10">
       <c r="B70" s="75" t="s">
@@ -6233,23 +6254,23 @@
         <v>3602.2</v>
       </c>
       <c r="F70" s="61">
-        <f>F189</f>
+        <f>F194</f>
         <v>3202.2</v>
       </c>
       <c r="G70" s="61">
-        <f>G189</f>
+        <f>G194</f>
         <v>3202.2</v>
       </c>
       <c r="H70" s="61">
-        <f>H189</f>
+        <f>H194</f>
         <v>2852.2</v>
       </c>
       <c r="I70" s="61">
-        <f>I189</f>
+        <f>I194</f>
         <v>2852.2</v>
       </c>
       <c r="J70" s="61">
-        <f>J189</f>
+        <f>J194</f>
         <v>2102.1999999999998</v>
       </c>
     </row>
@@ -6265,23 +6286,23 @@
         <v>689.7</v>
       </c>
       <c r="F71" s="61">
-        <f>F179</f>
+        <f>F184</f>
         <v>689.7</v>
       </c>
       <c r="G71" s="61">
-        <f>G179</f>
+        <f>G184</f>
         <v>689.7</v>
       </c>
       <c r="H71" s="61">
-        <f>H179</f>
+        <f>H184</f>
         <v>689.7</v>
       </c>
       <c r="I71" s="61">
-        <f>I179</f>
+        <f>I184</f>
         <v>689.7</v>
       </c>
       <c r="J71" s="61">
-        <f>J179</f>
+        <f>J184</f>
         <v>689.7</v>
       </c>
     </row>
@@ -6299,24 +6320,24 @@
         <v>8438.7999999999993</v>
       </c>
       <c r="F72" s="80">
-        <f t="shared" ref="F72:J72" ca="1" si="31">SUM(F66:F71)</f>
-        <v>7975.4195492191102</v>
+        <f t="shared" ref="F72:J72" ca="1" si="32">SUM(F66:F71)</f>
+        <v>8221.4195492191102</v>
       </c>
       <c r="G72" s="80">
         <f ca="1">SUM(G66:G71)</f>
-        <v>8374.5567866470756</v>
+        <v>8620.5567866470756</v>
       </c>
       <c r="H72" s="80">
-        <f t="shared" ca="1" si="31"/>
-        <v>8462.6330831202686</v>
+        <f t="shared" ca="1" si="32"/>
+        <v>8708.6330831202686</v>
       </c>
       <c r="I72" s="80">
-        <f t="shared" ca="1" si="31"/>
-        <v>8933.6362260910064</v>
+        <f t="shared" ca="1" si="32"/>
+        <v>9179.6362260910064</v>
       </c>
       <c r="J72" s="80">
-        <f t="shared" ca="1" si="31"/>
-        <v>8699.6326668246875</v>
+        <f t="shared" ca="1" si="32"/>
+        <v>8945.6326668246875</v>
       </c>
     </row>
     <row r="73" spans="2:10">
@@ -6339,23 +6360,23 @@
         <v>42.6</v>
       </c>
       <c r="F74" s="61">
-        <f ca="1">F205</f>
+        <f ca="1">F210</f>
         <v>447.49862952275936</v>
       </c>
       <c r="G74" s="61">
-        <f ca="1">G205</f>
+        <f ca="1">G210</f>
         <v>874.02052885338367</v>
       </c>
       <c r="H74" s="61">
-        <f ca="1">H205</f>
+        <f ca="1">H210</f>
         <v>1333.7961271649499</v>
       </c>
       <c r="I74" s="61">
-        <f ca="1">I205</f>
+        <f ca="1">I210</f>
         <v>1813.2376300658116</v>
       </c>
       <c r="J74" s="61">
-        <f ca="1">J205</f>
+        <f ca="1">J210</f>
         <v>2322.03751910355</v>
       </c>
     </row>
@@ -6367,23 +6388,23 @@
       <c r="D75" s="68"/>
       <c r="E75" s="68"/>
       <c r="F75" s="41">
-        <f>F214</f>
+        <f>F219</f>
         <v>-1715.85</v>
       </c>
       <c r="G75" s="41">
-        <f>G214</f>
+        <f>G219</f>
         <v>-3431.7</v>
       </c>
       <c r="H75" s="41">
-        <f>H214</f>
+        <f>H219</f>
         <v>-5147.5499999999993</v>
       </c>
       <c r="I75" s="41">
-        <f>I214</f>
+        <f>I219</f>
         <v>-6863.4</v>
       </c>
       <c r="J75" s="41">
-        <f>J214</f>
+        <f>J219</f>
         <v>-8579.25</v>
       </c>
     </row>
@@ -6399,23 +6420,23 @@
         <v>5949.8</v>
       </c>
       <c r="F76" s="61">
-        <f ca="1">F226</f>
+        <f ca="1">F231</f>
         <v>7904.9143446025482</v>
       </c>
       <c r="G76" s="61">
-        <f ca="1">G226</f>
+        <f ca="1">G231</f>
         <v>10146.057689940128</v>
       </c>
       <c r="H76" s="61">
-        <f ca="1">H226</f>
+        <f ca="1">H231</f>
         <v>12400.562222263929</v>
       </c>
       <c r="I76" s="61">
-        <f ca="1">I226</f>
+        <f ca="1">I231</f>
         <v>15206.190453840678</v>
       </c>
       <c r="J76" s="61">
-        <f ca="1">J226</f>
+        <f ca="1">J231</f>
         <v>18375.532693585043</v>
       </c>
     </row>
@@ -6431,23 +6452,23 @@
         <v>-108.4</v>
       </c>
       <c r="F77" s="61">
-        <f>F235</f>
+        <f>F240</f>
         <v>-108.4</v>
       </c>
       <c r="G77" s="61">
-        <f>G235</f>
+        <f>G240</f>
         <v>-108.4</v>
       </c>
       <c r="H77" s="61">
-        <f>H235</f>
+        <f>H240</f>
         <v>-108.4</v>
       </c>
       <c r="I77" s="61">
-        <f>I235</f>
+        <f>I240</f>
         <v>-108.4</v>
       </c>
       <c r="J77" s="61">
-        <f>J235</f>
+        <f>J240</f>
         <v>-108.4</v>
       </c>
     </row>
@@ -6465,23 +6486,23 @@
         <v>5884.0000000000009</v>
       </c>
       <c r="F78" s="82">
-        <f t="shared" ref="F78:J78" ca="1" si="32">SUM(F74:F77)</f>
+        <f t="shared" ref="F78:J78" ca="1" si="33">SUM(F74:F77)</f>
         <v>6528.1629741253082</v>
       </c>
       <c r="G78" s="82">
-        <f t="shared" ca="1" si="32"/>
+        <f t="shared" ca="1" si="33"/>
         <v>7479.9782187935116</v>
       </c>
       <c r="H78" s="82">
-        <f t="shared" ca="1" si="32"/>
+        <f t="shared" ca="1" si="33"/>
         <v>8478.4083494288807</v>
       </c>
       <c r="I78" s="82">
-        <f t="shared" ca="1" si="32"/>
+        <f t="shared" ca="1" si="33"/>
         <v>10047.628083906491</v>
       </c>
       <c r="J78" s="82">
-        <f t="shared" ca="1" si="32"/>
+        <f t="shared" ca="1" si="33"/>
         <v>12009.920212688592</v>
       </c>
     </row>
@@ -6507,6 +6528,21 @@
       <c r="E80" s="215">
         <v>6.7</v>
       </c>
+      <c r="F80" s="215">
+        <v>6.7</v>
+      </c>
+      <c r="G80" s="215">
+        <v>6.7</v>
+      </c>
+      <c r="H80" s="215">
+        <v>6.7</v>
+      </c>
+      <c r="I80" s="215">
+        <v>6.7</v>
+      </c>
+      <c r="J80" s="215">
+        <v>6.7</v>
+      </c>
     </row>
     <row r="81" spans="1:10">
       <c r="B81" s="103"/>
@@ -6524,28 +6560,28 @@
         <v>0</v>
       </c>
       <c r="E82" s="86">
-        <f t="shared" ref="E82:J82" si="33">ROUND(E64-E72-E78-E80,3)</f>
+        <f t="shared" ref="E82:J82" si="34">ROUND(E64-E72-E78-E80,3)</f>
         <v>0</v>
       </c>
       <c r="F82" s="86">
-        <f t="shared" ca="1" si="33"/>
-        <v>-101.8</v>
+        <f t="shared" ca="1" si="34"/>
+        <v>0</v>
       </c>
       <c r="G82" s="86">
-        <f t="shared" ca="1" si="33"/>
-        <v>-101.8</v>
+        <f t="shared" ca="1" si="34"/>
+        <v>0</v>
       </c>
       <c r="H82" s="86">
-        <f t="shared" ca="1" si="33"/>
-        <v>-101.8</v>
+        <f t="shared" ca="1" si="34"/>
+        <v>0</v>
       </c>
       <c r="I82" s="86">
-        <f t="shared" ca="1" si="33"/>
-        <v>-101.8</v>
+        <f t="shared" ca="1" si="34"/>
+        <v>0</v>
       </c>
       <c r="J82" s="86">
-        <f t="shared" ca="1" si="33"/>
-        <v>-101.8</v>
+        <f t="shared" ca="1" si="34"/>
+        <v>0</v>
       </c>
     </row>
     <row r="83" spans="1:10">
@@ -6571,27 +6607,27 @@
         <v>423.60000000000014</v>
       </c>
       <c r="E85" s="61">
-        <f t="shared" ref="E85:J85" si="34">E70+E68-E55</f>
+        <f t="shared" ref="E85:J85" si="35">E70+E68-E55</f>
         <v>197.29999999999927</v>
       </c>
       <c r="F85" s="61">
-        <f t="shared" ca="1" si="34"/>
+        <f t="shared" ca="1" si="35"/>
         <v>12.604222244433458</v>
       </c>
       <c r="G85" s="61">
-        <f t="shared" ca="1" si="34"/>
+        <f t="shared" ca="1" si="35"/>
         <v>-610.74870217812531</v>
       </c>
       <c r="H85" s="61">
-        <f t="shared" ca="1" si="34"/>
+        <f t="shared" ca="1" si="35"/>
         <v>-1453.4786696801648</v>
       </c>
       <c r="I85" s="61">
-        <f t="shared" ca="1" si="34"/>
+        <f t="shared" ca="1" si="35"/>
         <v>-3070.5837196953107</v>
       </c>
       <c r="J85" s="61">
-        <f t="shared" ca="1" si="34"/>
+        <f t="shared" ca="1" si="35"/>
         <v>-5161.0804234677935</v>
       </c>
     </row>
@@ -6601,32 +6637,32 @@
       </c>
       <c r="C86" s="14"/>
       <c r="D86" s="87">
-        <f t="shared" ref="D86:J86" si="35">D16/D64</f>
+        <f t="shared" ref="D86:J86" si="36">D16/D64</f>
         <v>1.5433502734308937</v>
       </c>
       <c r="E86" s="87">
-        <f t="shared" si="35"/>
+        <f t="shared" si="36"/>
         <v>1.4875536480686695</v>
       </c>
       <c r="F86" s="87">
-        <f t="shared" ca="1" si="35"/>
-        <v>1.5762933139144761</v>
+        <f t="shared" ca="1" si="36"/>
+        <v>1.5384249701159196</v>
       </c>
       <c r="G86" s="87">
-        <f t="shared" ca="1" si="35"/>
-        <v>1.5881038885257035</v>
+        <f t="shared" ca="1" si="36"/>
+        <v>1.553151717759373</v>
       </c>
       <c r="H86" s="87">
-        <f t="shared" ca="1" si="35"/>
-        <v>1.6371706384868216</v>
+        <f t="shared" ca="1" si="36"/>
+        <v>1.603415507667117</v>
       </c>
       <c r="I86" s="87">
-        <f t="shared" ca="1" si="35"/>
-        <v>1.6062734787592079</v>
+        <f t="shared" ca="1" si="36"/>
+        <v>1.5766683521681368</v>
       </c>
       <c r="J86" s="87">
-        <f t="shared" ca="1" si="35"/>
-        <v>1.6187180271573378</v>
+        <f t="shared" ca="1" si="36"/>
+        <v>1.5913433196879707</v>
       </c>
     </row>
     <row r="87" spans="1:10">
@@ -6635,31 +6671,31 @@
       </c>
       <c r="C87" s="14"/>
       <c r="D87" s="14">
-        <f t="shared" ref="D87:J87" si="36">D28/D16</f>
+        <f t="shared" ref="D87:J87" si="37">D28/D16</f>
         <v>0.14399327860896435</v>
       </c>
       <c r="E87" s="14">
-        <f t="shared" si="36"/>
+        <f t="shared" si="37"/>
         <v>0.1322440056483658</v>
       </c>
       <c r="F87" s="14">
-        <f t="shared" ca="1" si="36"/>
+        <f t="shared" ca="1" si="37"/>
         <v>0.13839888792280061</v>
       </c>
       <c r="G87" s="14">
-        <f t="shared" ca="1" si="36"/>
+        <f t="shared" ca="1" si="37"/>
         <v>0.14396220139804203</v>
       </c>
       <c r="H87" s="14">
-        <f t="shared" ca="1" si="36"/>
+        <f t="shared" ca="1" si="37"/>
         <v>0.13141603567884491</v>
       </c>
       <c r="I87" s="14">
-        <f t="shared" ca="1" si="36"/>
+        <f t="shared" ca="1" si="37"/>
         <v>0.14867388390721972</v>
       </c>
       <c r="J87" s="14">
-        <f t="shared" ca="1" si="36"/>
+        <f t="shared" ca="1" si="37"/>
         <v>0.1526796018224964</v>
       </c>
     </row>
@@ -6669,32 +6705,32 @@
       </c>
       <c r="C88" s="14"/>
       <c r="D88" s="14">
-        <f t="shared" ref="D88:J88" si="37">D28/D64</f>
+        <f t="shared" ref="D88:J88" si="38">D28/D64</f>
         <v>0.22223206591335595</v>
       </c>
       <c r="E88" s="14">
-        <f t="shared" si="37"/>
+        <f t="shared" si="38"/>
         <v>0.19672005303744025</v>
       </c>
       <c r="F88" s="14">
-        <f t="shared" ca="1" si="37"/>
-        <v>0.21815724168590953</v>
+        <f t="shared" ca="1" si="38"/>
+        <v>0.21291630501671102</v>
       </c>
       <c r="G88" s="14">
-        <f t="shared" ca="1" si="37"/>
-        <v>0.22862693184095104</v>
+        <f t="shared" ca="1" si="38"/>
+        <v>0.2235951403937898</v>
       </c>
       <c r="H88" s="14">
-        <f t="shared" ca="1" si="37"/>
-        <v>0.21515047503974147</v>
+        <f t="shared" ca="1" si="38"/>
+        <v>0.21071450956359508</v>
       </c>
       <c r="I88" s="14">
-        <f t="shared" ca="1" si="37"/>
-        <v>0.23881091670429244</v>
+        <f t="shared" ca="1" si="38"/>
+        <v>0.23440940755043299</v>
       </c>
       <c r="J88" s="14">
-        <f t="shared" ca="1" si="37"/>
-        <v>0.24714522384927926</v>
+        <f t="shared" ca="1" si="38"/>
+        <v>0.24296566441284898</v>
       </c>
     </row>
     <row r="89" spans="1:10">
@@ -6703,31 +6739,31 @@
       </c>
       <c r="C89" s="14"/>
       <c r="D89" s="14">
-        <f t="shared" ref="D89:J89" si="38">D28/D78</f>
+        <f t="shared" ref="D89:J89" si="39">D28/D78</f>
         <v>0.47426950842213833</v>
       </c>
       <c r="E89" s="14">
-        <f t="shared" si="38"/>
+        <f t="shared" si="39"/>
         <v>0.4790788579197825</v>
       </c>
       <c r="F89" s="14">
-        <f t="shared" ca="1" si="38"/>
+        <f t="shared" ca="1" si="39"/>
         <v>0.48127676393899765</v>
       </c>
       <c r="G89" s="14">
-        <f t="shared" ca="1" si="38"/>
+        <f t="shared" ca="1" si="39"/>
         <v>0.48148528873261792</v>
       </c>
       <c r="H89" s="14">
-        <f t="shared" ca="1" si="38"/>
+        <f t="shared" ca="1" si="39"/>
         <v>0.42731732705644154</v>
       </c>
       <c r="I89" s="14">
-        <f t="shared" ca="1" si="38"/>
+        <f t="shared" ca="1" si="39"/>
         <v>0.44872502653362345</v>
       </c>
       <c r="J89" s="14">
-        <f t="shared" ca="1" si="38"/>
+        <f t="shared" ca="1" si="39"/>
         <v>0.42407506541355955</v>
       </c>
     </row>
@@ -6754,31 +6790,31 @@
       </c>
       <c r="C92" s="57"/>
       <c r="D92" s="57">
-        <f t="shared" ref="D92:J93" si="39">D13</f>
+        <f t="shared" ref="D92:J93" si="40">D13</f>
         <v>2015</v>
       </c>
       <c r="E92" s="57">
-        <f t="shared" si="39"/>
+        <f t="shared" si="40"/>
         <v>2016</v>
       </c>
       <c r="F92" s="58">
-        <f t="shared" si="39"/>
+        <f t="shared" si="40"/>
         <v>2017</v>
       </c>
       <c r="G92" s="58">
-        <f t="shared" si="39"/>
+        <f t="shared" si="40"/>
         <v>2018</v>
       </c>
       <c r="H92" s="58">
-        <f t="shared" si="39"/>
+        <f t="shared" si="40"/>
         <v>2019</v>
       </c>
       <c r="I92" s="58">
-        <f t="shared" si="39"/>
+        <f t="shared" si="40"/>
         <v>2020</v>
       </c>
       <c r="J92" s="58">
-        <f t="shared" si="39"/>
+        <f t="shared" si="40"/>
         <v>2021</v>
       </c>
     </row>
@@ -6789,31 +6825,31 @@
       </c>
       <c r="C93" s="59"/>
       <c r="D93" s="59">
-        <f t="shared" si="39"/>
+        <f t="shared" si="40"/>
         <v>42274</v>
       </c>
       <c r="E93" s="59">
-        <f t="shared" si="39"/>
+        <f t="shared" si="40"/>
         <v>42645</v>
       </c>
       <c r="F93" s="59">
-        <f t="shared" si="39"/>
+        <f t="shared" si="40"/>
         <v>43039</v>
       </c>
       <c r="G93" s="59">
-        <f t="shared" si="39"/>
+        <f t="shared" si="40"/>
         <v>43404</v>
       </c>
       <c r="H93" s="59">
-        <f t="shared" si="39"/>
+        <f t="shared" si="40"/>
         <v>43769</v>
       </c>
       <c r="I93" s="59">
-        <f t="shared" si="39"/>
+        <f t="shared" si="40"/>
         <v>44135</v>
       </c>
       <c r="J93" s="59">
-        <f t="shared" si="39"/>
+        <f t="shared" si="40"/>
         <v>44500</v>
       </c>
     </row>
@@ -6947,15 +6983,15 @@
         <v>3.6793891067101694E-2</v>
       </c>
       <c r="H100" s="62">
-        <f t="shared" ref="H100:J100" si="40">G100</f>
+        <f t="shared" ref="H100:J100" si="41">G100</f>
         <v>3.6793891067101694E-2</v>
       </c>
       <c r="I100" s="62">
-        <f t="shared" si="40"/>
+        <f t="shared" si="41"/>
         <v>3.6793891067101694E-2</v>
       </c>
       <c r="J100" s="62">
-        <f t="shared" si="40"/>
+        <f t="shared" si="41"/>
         <v>3.6793891067101694E-2</v>
       </c>
     </row>
@@ -6965,31 +7001,31 @@
       </c>
       <c r="C101" s="93"/>
       <c r="D101" s="94">
-        <f t="shared" ref="D101:J101" si="41">D100*365</f>
+        <f t="shared" ref="D101:J101" si="42">D100*365</f>
         <v>13.695095158824172</v>
       </c>
       <c r="E101" s="94">
-        <f t="shared" si="41"/>
+        <f t="shared" si="42"/>
         <v>13.164445320160066</v>
       </c>
       <c r="F101" s="95">
-        <f t="shared" si="41"/>
+        <f t="shared" si="42"/>
         <v>13.429770239492118</v>
       </c>
       <c r="G101" s="95">
-        <f t="shared" si="41"/>
+        <f t="shared" si="42"/>
         <v>13.429770239492118</v>
       </c>
       <c r="H101" s="95">
-        <f t="shared" si="41"/>
+        <f t="shared" si="42"/>
         <v>13.429770239492118</v>
       </c>
       <c r="I101" s="95">
-        <f t="shared" si="41"/>
+        <f t="shared" si="42"/>
         <v>13.429770239492118</v>
       </c>
       <c r="J101" s="95">
-        <f t="shared" si="41"/>
+        <f t="shared" si="42"/>
         <v>13.429770239492118</v>
       </c>
     </row>
@@ -7115,15 +7151,15 @@
         <v>0.16486049133118635</v>
       </c>
       <c r="H108" s="62">
-        <f t="shared" ref="H108:J108" si="42">G108</f>
+        <f t="shared" ref="H108:J108" si="43">G108</f>
         <v>0.16486049133118635</v>
       </c>
       <c r="I108" s="62">
-        <f t="shared" si="42"/>
+        <f t="shared" si="43"/>
         <v>0.16486049133118635</v>
       </c>
       <c r="J108" s="62">
-        <f t="shared" si="42"/>
+        <f t="shared" si="43"/>
         <v>0.16486049133118635</v>
       </c>
     </row>
@@ -7133,31 +7169,31 @@
       </c>
       <c r="C109" s="93"/>
       <c r="D109" s="12">
-        <f t="shared" ref="D109:J109" si="43">-(D17/D106)</f>
+        <f t="shared" ref="D109:J109" si="44">-(D17/D106)</f>
         <v>5.9610379669320261</v>
       </c>
       <c r="E109" s="12">
-        <f t="shared" si="43"/>
+        <f t="shared" si="44"/>
         <v>6.1741748277112807</v>
       </c>
       <c r="F109" s="13">
-        <f t="shared" ca="1" si="43"/>
+        <f t="shared" ca="1" si="44"/>
         <v>6.0657346822478617</v>
       </c>
       <c r="G109" s="13">
-        <f t="shared" ca="1" si="43"/>
+        <f t="shared" ca="1" si="44"/>
         <v>6.0657346822478617</v>
       </c>
       <c r="H109" s="13">
-        <f t="shared" ca="1" si="43"/>
+        <f t="shared" ca="1" si="44"/>
         <v>6.0657346822478617</v>
       </c>
       <c r="I109" s="13">
-        <f t="shared" ca="1" si="43"/>
+        <f t="shared" ca="1" si="44"/>
         <v>6.0657346822478617</v>
       </c>
       <c r="J109" s="13">
-        <f t="shared" ca="1" si="43"/>
+        <f t="shared" ca="1" si="44"/>
         <v>6.0657346822478617</v>
       </c>
     </row>
@@ -7283,15 +7319,15 @@
         <v>8.684979556391971E-2</v>
       </c>
       <c r="H116" s="62">
-        <f t="shared" ref="H116:J116" si="44">G116</f>
+        <f t="shared" ref="H116:J116" si="45">G116</f>
         <v>8.684979556391971E-2</v>
       </c>
       <c r="I116" s="62">
-        <f t="shared" si="44"/>
+        <f t="shared" si="45"/>
         <v>8.684979556391971E-2</v>
       </c>
       <c r="J116" s="62">
-        <f t="shared" si="44"/>
+        <f t="shared" si="45"/>
         <v>8.684979556391971E-2</v>
       </c>
     </row>
@@ -7301,31 +7337,31 @@
       </c>
       <c r="C117" s="93"/>
       <c r="D117" s="94">
-        <f t="shared" ref="D117:J117" si="45">D116*365</f>
+        <f t="shared" ref="D117:J117" si="46">D116*365</f>
         <v>32.068443017656499</v>
       </c>
       <c r="E117" s="94">
-        <f t="shared" si="45"/>
+        <f t="shared" si="46"/>
         <v>31.331907744004887</v>
       </c>
       <c r="F117" s="15">
-        <f t="shared" si="45"/>
+        <f t="shared" si="46"/>
         <v>31.700175380830693</v>
       </c>
       <c r="G117" s="15">
-        <f t="shared" si="45"/>
+        <f t="shared" si="46"/>
         <v>31.700175380830693</v>
       </c>
       <c r="H117" s="15">
-        <f t="shared" si="45"/>
+        <f t="shared" si="46"/>
         <v>31.700175380830693</v>
       </c>
       <c r="I117" s="15">
-        <f t="shared" si="45"/>
+        <f t="shared" si="46"/>
         <v>31.700175380830693</v>
       </c>
       <c r="J117" s="15">
-        <f t="shared" si="45"/>
+        <f t="shared" si="46"/>
         <v>31.700175380830693</v>
       </c>
     </row>
@@ -7451,15 +7487,15 @@
         <v>0.1458342498368575</v>
       </c>
       <c r="H124" s="62">
-        <f t="shared" ref="H124:J124" si="46">G124</f>
+        <f t="shared" ref="H124:J124" si="47">G124</f>
         <v>0.1458342498368575</v>
       </c>
       <c r="I124" s="62">
-        <f t="shared" si="46"/>
+        <f t="shared" si="47"/>
         <v>0.1458342498368575</v>
       </c>
       <c r="J124" s="62">
-        <f t="shared" si="46"/>
+        <f t="shared" si="47"/>
         <v>0.1458342498368575</v>
       </c>
     </row>
@@ -7481,77 +7517,77 @@
         <v>195</v>
       </c>
       <c r="B127" s="64" t="str">
-        <f t="shared" ref="B127:J127" si="47">B13</f>
+        <f t="shared" ref="B127:J127" si="48">B13</f>
         <v xml:space="preserve">Fiscal year  </v>
       </c>
       <c r="C127" s="57">
-        <f t="shared" si="47"/>
+        <f t="shared" si="48"/>
         <v>2014</v>
       </c>
       <c r="D127" s="57">
-        <f t="shared" si="47"/>
+        <f t="shared" si="48"/>
         <v>2015</v>
       </c>
       <c r="E127" s="57">
-        <f t="shared" si="47"/>
+        <f t="shared" si="48"/>
         <v>2016</v>
       </c>
       <c r="F127" s="58">
-        <f t="shared" si="47"/>
+        <f t="shared" si="48"/>
         <v>2017</v>
       </c>
       <c r="G127" s="58">
-        <f t="shared" si="47"/>
+        <f t="shared" si="48"/>
         <v>2018</v>
       </c>
       <c r="H127" s="58">
-        <f t="shared" si="47"/>
+        <f t="shared" si="48"/>
         <v>2019</v>
       </c>
       <c r="I127" s="58">
-        <f t="shared" si="47"/>
+        <f t="shared" si="48"/>
         <v>2020</v>
       </c>
       <c r="J127" s="58">
-        <f t="shared" si="47"/>
+        <f t="shared" si="48"/>
         <v>2021</v>
       </c>
     </row>
     <row r="128" spans="1:10">
       <c r="B128" s="24" t="str">
-        <f t="shared" ref="B128:J128" si="48">B14</f>
+        <f t="shared" ref="B128:J128" si="49">B14</f>
         <v>Fiscal year end date</v>
       </c>
       <c r="C128" s="59">
-        <f t="shared" si="48"/>
+        <f t="shared" si="49"/>
         <v>41910</v>
       </c>
       <c r="D128" s="59">
-        <f t="shared" si="48"/>
+        <f t="shared" si="49"/>
         <v>42274</v>
       </c>
       <c r="E128" s="59">
-        <f t="shared" si="48"/>
+        <f t="shared" si="49"/>
         <v>42645</v>
       </c>
       <c r="F128" s="59">
-        <f t="shared" si="48"/>
+        <f t="shared" si="49"/>
         <v>43039</v>
       </c>
       <c r="G128" s="59">
-        <f t="shared" si="48"/>
+        <f t="shared" si="49"/>
         <v>43404</v>
       </c>
       <c r="H128" s="59">
-        <f t="shared" si="48"/>
+        <f t="shared" si="49"/>
         <v>43769</v>
       </c>
       <c r="I128" s="59">
-        <f t="shared" si="48"/>
+        <f t="shared" si="49"/>
         <v>44135</v>
       </c>
       <c r="J128" s="59">
-        <f t="shared" si="48"/>
+        <f t="shared" si="49"/>
         <v>44500</v>
       </c>
     </row>
@@ -7592,19 +7628,19 @@
         <v>0</v>
       </c>
       <c r="G131" s="61">
-        <f t="shared" ref="G131:J132" si="49">G135</f>
+        <f t="shared" ref="G131:J132" si="50">G135</f>
         <v>0</v>
       </c>
       <c r="H131" s="61">
-        <f t="shared" si="49"/>
+        <f t="shared" si="50"/>
         <v>0</v>
       </c>
       <c r="I131" s="61">
-        <f t="shared" si="49"/>
+        <f t="shared" si="50"/>
         <v>0</v>
       </c>
       <c r="J131" s="61">
-        <f t="shared" si="49"/>
+        <f t="shared" si="50"/>
         <v>0</v>
       </c>
     </row>
@@ -7619,19 +7655,19 @@
         <v>-62</v>
       </c>
       <c r="G132" s="61">
-        <f t="shared" si="49"/>
+        <f t="shared" si="50"/>
         <v>-60.6</v>
       </c>
       <c r="H132" s="61">
-        <f t="shared" si="49"/>
+        <f t="shared" si="50"/>
         <v>-59.5</v>
       </c>
       <c r="I132" s="61">
-        <f t="shared" si="49"/>
+        <f t="shared" si="50"/>
         <v>-59.4</v>
       </c>
       <c r="J132" s="61">
-        <f t="shared" si="49"/>
+        <f t="shared" si="50"/>
         <v>-33.9</v>
       </c>
     </row>
@@ -7743,77 +7779,77 @@
     </row>
     <row r="139" spans="2:10">
       <c r="B139" s="64" t="str">
-        <f t="shared" ref="B139:J139" si="50">B13</f>
+        <f t="shared" ref="B139:J139" si="51">B13</f>
         <v xml:space="preserve">Fiscal year  </v>
       </c>
       <c r="C139" s="57">
-        <f t="shared" si="50"/>
+        <f t="shared" si="51"/>
         <v>2014</v>
       </c>
       <c r="D139" s="57">
-        <f t="shared" si="50"/>
+        <f t="shared" si="51"/>
         <v>2015</v>
       </c>
       <c r="E139" s="57">
-        <f t="shared" si="50"/>
+        <f t="shared" si="51"/>
         <v>2016</v>
       </c>
       <c r="F139" s="58">
-        <f t="shared" si="50"/>
+        <f t="shared" si="51"/>
         <v>2017</v>
       </c>
       <c r="G139" s="58">
-        <f t="shared" si="50"/>
+        <f t="shared" si="51"/>
         <v>2018</v>
       </c>
       <c r="H139" s="58">
-        <f t="shared" si="50"/>
+        <f t="shared" si="51"/>
         <v>2019</v>
       </c>
       <c r="I139" s="58">
-        <f t="shared" si="50"/>
+        <f t="shared" si="51"/>
         <v>2020</v>
       </c>
       <c r="J139" s="58">
-        <f t="shared" si="50"/>
+        <f t="shared" si="51"/>
         <v>2021</v>
       </c>
     </row>
     <row r="140" spans="2:10">
       <c r="B140" s="24" t="str">
-        <f t="shared" ref="B140:J140" si="51">B14</f>
+        <f t="shared" ref="B140:J140" si="52">B14</f>
         <v>Fiscal year end date</v>
       </c>
       <c r="C140" s="59">
-        <f t="shared" si="51"/>
+        <f t="shared" si="52"/>
         <v>41910</v>
       </c>
       <c r="D140" s="59">
-        <f t="shared" si="51"/>
+        <f t="shared" si="52"/>
         <v>42274</v>
       </c>
       <c r="E140" s="59">
-        <f t="shared" si="51"/>
+        <f t="shared" si="52"/>
         <v>42645</v>
       </c>
       <c r="F140" s="59">
-        <f t="shared" si="51"/>
+        <f t="shared" si="52"/>
         <v>43039</v>
       </c>
       <c r="G140" s="59">
-        <f t="shared" si="51"/>
+        <f t="shared" si="52"/>
         <v>43404</v>
       </c>
       <c r="H140" s="59">
-        <f t="shared" si="51"/>
+        <f t="shared" si="52"/>
         <v>43769</v>
       </c>
       <c r="I140" s="59">
-        <f t="shared" si="51"/>
+        <f t="shared" si="52"/>
         <v>44135</v>
       </c>
       <c r="J140" s="59">
-        <f t="shared" si="51"/>
+        <f t="shared" si="52"/>
         <v>44500</v>
       </c>
     </row>
@@ -8074,77 +8110,77 @@
         <v>195</v>
       </c>
       <c r="B153" s="64" t="str">
-        <f t="shared" ref="B153:J153" si="52">B13</f>
+        <f t="shared" ref="B153:J153" si="53">B13</f>
         <v xml:space="preserve">Fiscal year  </v>
       </c>
       <c r="C153" s="57">
-        <f t="shared" si="52"/>
+        <f t="shared" si="53"/>
         <v>2014</v>
       </c>
       <c r="D153" s="57">
-        <f t="shared" si="52"/>
+        <f t="shared" si="53"/>
         <v>2015</v>
       </c>
       <c r="E153" s="57">
-        <f t="shared" si="52"/>
+        <f t="shared" si="53"/>
         <v>2016</v>
       </c>
       <c r="F153" s="58">
-        <f t="shared" si="52"/>
+        <f t="shared" si="53"/>
         <v>2017</v>
       </c>
       <c r="G153" s="58">
-        <f t="shared" si="52"/>
+        <f t="shared" si="53"/>
         <v>2018</v>
       </c>
       <c r="H153" s="58">
-        <f t="shared" si="52"/>
+        <f t="shared" si="53"/>
         <v>2019</v>
       </c>
       <c r="I153" s="58">
-        <f t="shared" si="52"/>
+        <f t="shared" si="53"/>
         <v>2020</v>
       </c>
       <c r="J153" s="58">
-        <f t="shared" si="52"/>
+        <f t="shared" si="53"/>
         <v>2021</v>
       </c>
     </row>
     <row r="154" spans="1:10">
       <c r="B154" s="24" t="str">
-        <f t="shared" ref="B154:J154" si="53">B14</f>
+        <f t="shared" ref="B154:J154" si="54">B14</f>
         <v>Fiscal year end date</v>
       </c>
       <c r="C154" s="59">
-        <f t="shared" si="53"/>
+        <f t="shared" si="54"/>
         <v>41910</v>
       </c>
       <c r="D154" s="59">
-        <f t="shared" si="53"/>
+        <f t="shared" si="54"/>
         <v>42274</v>
       </c>
       <c r="E154" s="59">
-        <f t="shared" si="53"/>
+        <f t="shared" si="54"/>
         <v>42645</v>
       </c>
       <c r="F154" s="59">
-        <f t="shared" si="53"/>
+        <f t="shared" si="54"/>
         <v>43039</v>
       </c>
       <c r="G154" s="59">
-        <f t="shared" si="53"/>
+        <f t="shared" si="54"/>
         <v>43404</v>
       </c>
       <c r="H154" s="59">
-        <f t="shared" si="53"/>
+        <f t="shared" si="54"/>
         <v>43769</v>
       </c>
       <c r="I154" s="59">
-        <f t="shared" si="53"/>
+        <f t="shared" si="54"/>
         <v>44135</v>
       </c>
       <c r="J154" s="59">
-        <f t="shared" si="53"/>
+        <f t="shared" si="54"/>
         <v>44500</v>
       </c>
     </row>
@@ -8161,7 +8197,7 @@
     </row>
     <row r="156" spans="1:10">
       <c r="B156" s="35" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="C156" s="89"/>
       <c r="D156" s="89"/>
@@ -8181,23 +8217,23 @@
       <c r="E157" s="89"/>
       <c r="F157" s="234">
         <f>E159</f>
-        <v>354.5</v>
+        <v>246</v>
       </c>
       <c r="G157" s="234">
-        <f t="shared" ref="G157:J157" si="54">F159</f>
-        <v>354.5</v>
+        <f t="shared" ref="G157:J157" si="55">F159</f>
+        <v>246</v>
       </c>
       <c r="H157" s="234">
-        <f t="shared" si="54"/>
-        <v>354.5</v>
+        <f t="shared" si="55"/>
+        <v>246</v>
       </c>
       <c r="I157" s="234">
-        <f t="shared" si="54"/>
-        <v>354.5</v>
+        <f t="shared" si="55"/>
+        <v>246</v>
       </c>
       <c r="J157" s="234">
-        <f t="shared" si="54"/>
-        <v>354.5</v>
+        <f t="shared" si="55"/>
+        <v>246</v>
       </c>
     </row>
     <row r="158" spans="1:10">
@@ -8225,130 +8261,153 @@
     </row>
     <row r="159" spans="1:10">
       <c r="B159" s="37" t="s">
-        <v>71</v>
+        <v>254</v>
       </c>
       <c r="C159" s="89"/>
       <c r="D159" s="234">
+        <f>D69</f>
+        <v>224.8</v>
+      </c>
+      <c r="E159" s="234">
+        <f>E69</f>
+        <v>246</v>
+      </c>
+      <c r="F159" s="234">
+        <f>SUM(F157:F158)</f>
+        <v>246</v>
+      </c>
+      <c r="G159" s="234">
+        <f t="shared" ref="G159:J159" si="56">SUM(G157:G158)</f>
+        <v>246</v>
+      </c>
+      <c r="H159" s="234">
+        <f t="shared" si="56"/>
+        <v>246</v>
+      </c>
+      <c r="I159" s="234">
+        <f t="shared" si="56"/>
+        <v>246</v>
+      </c>
+      <c r="J159" s="234">
+        <f t="shared" si="56"/>
+        <v>246</v>
+      </c>
+    </row>
+    <row r="160" spans="1:10">
+      <c r="B160" s="20"/>
+      <c r="C160" s="89"/>
+      <c r="D160" s="89"/>
+      <c r="E160" s="89"/>
+      <c r="F160" s="89"/>
+      <c r="G160" s="89"/>
+      <c r="H160" s="89"/>
+      <c r="I160" s="89"/>
+      <c r="J160" s="89"/>
+    </row>
+    <row r="161" spans="2:10">
+      <c r="B161" s="35" t="s">
+        <v>252</v>
+      </c>
+      <c r="C161" s="89"/>
+      <c r="D161" s="89"/>
+      <c r="E161" s="89"/>
+      <c r="F161" s="89"/>
+      <c r="G161" s="89"/>
+      <c r="H161" s="89"/>
+      <c r="I161" s="89"/>
+      <c r="J161" s="89"/>
+    </row>
+    <row r="162" spans="2:10">
+      <c r="B162" s="20" t="s">
+        <v>69</v>
+      </c>
+      <c r="C162" s="89"/>
+      <c r="D162" s="89"/>
+      <c r="E162" s="89"/>
+      <c r="F162" s="234">
+        <f>E164</f>
+        <v>354.5</v>
+      </c>
+      <c r="G162" s="234">
+        <f t="shared" ref="G162:J162" si="57">F164</f>
+        <v>354.5</v>
+      </c>
+      <c r="H162" s="234">
+        <f t="shared" si="57"/>
+        <v>354.5</v>
+      </c>
+      <c r="I162" s="234">
+        <f t="shared" si="57"/>
+        <v>354.5</v>
+      </c>
+      <c r="J162" s="234">
+        <f t="shared" si="57"/>
+        <v>354.5</v>
+      </c>
+    </row>
+    <row r="163" spans="2:10">
+      <c r="B163" s="20" t="s">
+        <v>70</v>
+      </c>
+      <c r="C163" s="89"/>
+      <c r="D163" s="89"/>
+      <c r="E163" s="89"/>
+      <c r="F163" s="235">
+        <v>0</v>
+      </c>
+      <c r="G163" s="235">
+        <v>0</v>
+      </c>
+      <c r="H163" s="235">
+        <v>0</v>
+      </c>
+      <c r="I163" s="235">
+        <v>0</v>
+      </c>
+      <c r="J163" s="235">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="164" spans="2:10">
+      <c r="B164" s="37" t="s">
+        <v>71</v>
+      </c>
+      <c r="C164" s="89"/>
+      <c r="D164" s="234">
         <f>D62</f>
         <v>352</v>
       </c>
-      <c r="E159" s="234">
-        <f t="shared" ref="E159:J159" si="55">E62</f>
+      <c r="E164" s="234">
+        <f t="shared" ref="E164" si="58">E62</f>
         <v>354.5</v>
       </c>
-      <c r="F159" s="234">
-        <f>SUM(F157:F158)</f>
+      <c r="F164" s="234">
+        <f>SUM(F162:F163)</f>
         <v>354.5</v>
       </c>
-      <c r="G159" s="234">
-        <f t="shared" ref="G159:J159" si="56">SUM(G157:G158)</f>
+      <c r="G164" s="234">
+        <f t="shared" ref="G164:J164" si="59">SUM(G162:G163)</f>
         <v>354.5</v>
       </c>
-      <c r="H159" s="234">
-        <f t="shared" si="56"/>
+      <c r="H164" s="234">
+        <f t="shared" si="59"/>
         <v>354.5</v>
       </c>
-      <c r="I159" s="234">
-        <f t="shared" si="56"/>
+      <c r="I164" s="234">
+        <f t="shared" si="59"/>
         <v>354.5</v>
       </c>
-      <c r="J159" s="234">
-        <f t="shared" si="56"/>
+      <c r="J164" s="234">
+        <f t="shared" si="59"/>
         <v>354.5</v>
       </c>
     </row>
-    <row r="160" spans="1:10">
-      <c r="B160" s="35"/>
-    </row>
-    <row r="161" spans="2:10">
-      <c r="B161" s="35" t="s">
+    <row r="165" spans="2:10">
+      <c r="B165" s="35"/>
+    </row>
+    <row r="166" spans="2:10">
+      <c r="B166" s="35" t="s">
         <v>45</v>
-      </c>
-    </row>
-    <row r="162" spans="2:10">
-      <c r="B162" s="47" t="s">
-        <v>69</v>
-      </c>
-      <c r="F162" s="61">
-        <f>E164</f>
-        <v>350</v>
-      </c>
-      <c r="G162" s="61">
-        <f>F164</f>
-        <v>350</v>
-      </c>
-      <c r="H162" s="61">
-        <f>G164</f>
-        <v>350</v>
-      </c>
-      <c r="I162" s="61">
-        <f>H164</f>
-        <v>350</v>
-      </c>
-      <c r="J162" s="61">
-        <f>I164</f>
-        <v>350</v>
-      </c>
-    </row>
-    <row r="163" spans="2:10">
-      <c r="B163" s="90" t="s">
-        <v>70</v>
-      </c>
-      <c r="F163" s="96">
-        <v>0</v>
-      </c>
-      <c r="G163" s="96">
-        <v>0</v>
-      </c>
-      <c r="H163" s="96">
-        <v>0</v>
-      </c>
-      <c r="I163" s="96">
-        <v>0</v>
-      </c>
-      <c r="J163" s="96">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="164" spans="2:10">
-      <c r="B164" s="47" t="s">
-        <v>71</v>
-      </c>
-      <c r="D164" s="61">
-        <f>D59</f>
-        <v>334.2</v>
-      </c>
-      <c r="E164" s="61">
-        <f>E59</f>
-        <v>350</v>
-      </c>
-      <c r="F164" s="61">
-        <f>SUM(F162:F163)</f>
-        <v>350</v>
-      </c>
-      <c r="G164" s="61">
-        <f>SUM(G162:G163)</f>
-        <v>350</v>
-      </c>
-      <c r="H164" s="61">
-        <f>SUM(H162:H163)</f>
-        <v>350</v>
-      </c>
-      <c r="I164" s="61">
-        <f>SUM(I162:I163)</f>
-        <v>350</v>
-      </c>
-      <c r="J164" s="61">
-        <f>SUM(J162:J163)</f>
-        <v>350</v>
-      </c>
-    </row>
-    <row r="165" spans="2:10">
-      <c r="B165" s="20"/>
-    </row>
-    <row r="166" spans="2:10">
-      <c r="B166" s="97" t="s">
-        <v>94</v>
       </c>
     </row>
     <row r="167" spans="2:10">
@@ -8357,23 +8416,23 @@
       </c>
       <c r="F167" s="61">
         <f>E169</f>
-        <v>885.4</v>
+        <v>350</v>
       </c>
       <c r="G167" s="61">
         <f>F169</f>
-        <v>885.4</v>
+        <v>350</v>
       </c>
       <c r="H167" s="61">
         <f>G169</f>
-        <v>885.4</v>
+        <v>350</v>
       </c>
       <c r="I167" s="61">
         <f>H169</f>
-        <v>885.4</v>
+        <v>350</v>
       </c>
       <c r="J167" s="61">
         <f>I169</f>
-        <v>885.4</v>
+        <v>350</v>
       </c>
     </row>
     <row r="168" spans="2:10">
@@ -8401,32 +8460,32 @@
         <v>71</v>
       </c>
       <c r="D169" s="61">
-        <f>D58</f>
-        <v>1180.8</v>
+        <f>D59</f>
+        <v>334.2</v>
       </c>
       <c r="E169" s="61">
-        <f>E58</f>
-        <v>885.4</v>
+        <f>E59</f>
+        <v>350</v>
       </c>
       <c r="F169" s="61">
         <f>SUM(F167:F168)</f>
-        <v>885.4</v>
+        <v>350</v>
       </c>
       <c r="G169" s="61">
         <f>SUM(G167:G168)</f>
-        <v>885.4</v>
+        <v>350</v>
       </c>
       <c r="H169" s="61">
         <f>SUM(H167:H168)</f>
-        <v>885.4</v>
+        <v>350</v>
       </c>
       <c r="I169" s="61">
         <f>SUM(I167:I168)</f>
-        <v>885.4</v>
+        <v>350</v>
       </c>
       <c r="J169" s="61">
         <f>SUM(J167:J168)</f>
-        <v>885.4</v>
+        <v>350</v>
       </c>
     </row>
     <row r="170" spans="2:10">
@@ -8434,7 +8493,7 @@
     </row>
     <row r="171" spans="2:10">
       <c r="B171" s="97" t="s">
-        <v>48</v>
+        <v>94</v>
       </c>
     </row>
     <row r="172" spans="2:10">
@@ -8443,23 +8502,23 @@
       </c>
       <c r="F172" s="61">
         <f>E174</f>
-        <v>417.7</v>
+        <v>885.4</v>
       </c>
       <c r="G172" s="61">
         <f>F174</f>
-        <v>417.7</v>
+        <v>885.4</v>
       </c>
       <c r="H172" s="61">
         <f>G174</f>
-        <v>417.7</v>
+        <v>885.4</v>
       </c>
       <c r="I172" s="61">
         <f>H174</f>
-        <v>417.7</v>
+        <v>885.4</v>
       </c>
       <c r="J172" s="61">
         <f>I174</f>
-        <v>417.7</v>
+        <v>885.4</v>
       </c>
     </row>
     <row r="173" spans="2:10">
@@ -8487,40 +8546,40 @@
         <v>71</v>
       </c>
       <c r="D174" s="61">
-        <f>D63</f>
-        <v>415.9</v>
+        <f>D58</f>
+        <v>1180.8</v>
       </c>
       <c r="E174" s="61">
-        <f>E63</f>
-        <v>417.7</v>
+        <f>E58</f>
+        <v>885.4</v>
       </c>
       <c r="F174" s="61">
         <f>SUM(F172:F173)</f>
-        <v>417.7</v>
+        <v>885.4</v>
       </c>
       <c r="G174" s="61">
         <f>SUM(G172:G173)</f>
-        <v>417.7</v>
+        <v>885.4</v>
       </c>
       <c r="H174" s="61">
         <f>SUM(H172:H173)</f>
-        <v>417.7</v>
+        <v>885.4</v>
       </c>
       <c r="I174" s="61">
         <f>SUM(I172:I173)</f>
-        <v>417.7</v>
+        <v>885.4</v>
       </c>
       <c r="J174" s="61">
         <f>SUM(J172:J173)</f>
-        <v>417.7</v>
+        <v>885.4</v>
       </c>
     </row>
     <row r="175" spans="2:10">
       <c r="B175" s="20"/>
     </row>
     <row r="176" spans="2:10">
-      <c r="B176" s="35" t="s">
-        <v>95</v>
+      <c r="B176" s="97" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="177" spans="1:10">
@@ -8529,23 +8588,23 @@
       </c>
       <c r="F177" s="61">
         <f>E179</f>
-        <v>689.7</v>
+        <v>417.7</v>
       </c>
       <c r="G177" s="61">
         <f>F179</f>
-        <v>689.7</v>
+        <v>417.7</v>
       </c>
       <c r="H177" s="61">
         <f>G179</f>
-        <v>689.7</v>
+        <v>417.7</v>
       </c>
       <c r="I177" s="61">
         <f>H179</f>
-        <v>689.7</v>
+        <v>417.7</v>
       </c>
       <c r="J177" s="61">
         <f>I179</f>
-        <v>689.7</v>
+        <v>417.7</v>
       </c>
     </row>
     <row r="178" spans="1:10">
@@ -8573,3406 +8632,3492 @@
         <v>71</v>
       </c>
       <c r="D179" s="61">
+        <f>D63</f>
+        <v>415.9</v>
+      </c>
+      <c r="E179" s="61">
+        <f>E63</f>
+        <v>417.7</v>
+      </c>
+      <c r="F179" s="61">
+        <f>SUM(F177:F178)</f>
+        <v>417.7</v>
+      </c>
+      <c r="G179" s="61">
+        <f>SUM(G177:G178)</f>
+        <v>417.7</v>
+      </c>
+      <c r="H179" s="61">
+        <f>SUM(H177:H178)</f>
+        <v>417.7</v>
+      </c>
+      <c r="I179" s="61">
+        <f>SUM(I177:I178)</f>
+        <v>417.7</v>
+      </c>
+      <c r="J179" s="61">
+        <f>SUM(J177:J178)</f>
+        <v>417.7</v>
+      </c>
+    </row>
+    <row r="180" spans="1:10">
+      <c r="B180" s="20"/>
+    </row>
+    <row r="181" spans="1:10">
+      <c r="B181" s="35" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="182" spans="1:10">
+      <c r="B182" s="47" t="s">
+        <v>69</v>
+      </c>
+      <c r="F182" s="61">
+        <f>E184</f>
+        <v>689.7</v>
+      </c>
+      <c r="G182" s="61">
+        <f>F184</f>
+        <v>689.7</v>
+      </c>
+      <c r="H182" s="61">
+        <f>G184</f>
+        <v>689.7</v>
+      </c>
+      <c r="I182" s="61">
+        <f>H184</f>
+        <v>689.7</v>
+      </c>
+      <c r="J182" s="61">
+        <f>I184</f>
+        <v>689.7</v>
+      </c>
+    </row>
+    <row r="183" spans="1:10">
+      <c r="B183" s="90" t="s">
+        <v>70</v>
+      </c>
+      <c r="F183" s="96">
+        <v>0</v>
+      </c>
+      <c r="G183" s="96">
+        <v>0</v>
+      </c>
+      <c r="H183" s="96">
+        <v>0</v>
+      </c>
+      <c r="I183" s="96">
+        <v>0</v>
+      </c>
+      <c r="J183" s="96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="184" spans="1:10">
+      <c r="B184" s="47" t="s">
+        <v>71</v>
+      </c>
+      <c r="D184" s="61">
         <f>D71</f>
         <v>600.9</v>
       </c>
-      <c r="E179" s="61">
+      <c r="E184" s="61">
         <f>E71</f>
         <v>689.7</v>
       </c>
-      <c r="F179" s="61">
-        <f>SUM(F177:F178)</f>
+      <c r="F184" s="61">
+        <f>SUM(F182:F183)</f>
         <v>689.7</v>
       </c>
-      <c r="G179" s="61">
-        <f>SUM(G177:G178)</f>
+      <c r="G184" s="61">
+        <f>SUM(G182:G183)</f>
         <v>689.7</v>
       </c>
-      <c r="H179" s="61">
-        <f>SUM(H177:H178)</f>
+      <c r="H184" s="61">
+        <f>SUM(H182:H183)</f>
         <v>689.7</v>
       </c>
-      <c r="I179" s="61">
-        <f>SUM(I177:I178)</f>
+      <c r="I184" s="61">
+        <f>SUM(I182:I183)</f>
         <v>689.7</v>
       </c>
-      <c r="J179" s="61">
-        <f>SUM(J177:J178)</f>
+      <c r="J184" s="61">
+        <f>SUM(J182:J183)</f>
         <v>689.7</v>
       </c>
     </row>
-    <row r="181" spans="1:10">
-      <c r="B181" s="22" t="s">
+    <row r="186" spans="1:10">
+      <c r="B186" s="22" t="s">
         <v>96</v>
       </c>
-      <c r="C181" s="98"/>
-      <c r="D181" s="98"/>
-      <c r="E181" s="98"/>
-      <c r="F181" s="99"/>
-      <c r="G181" s="99"/>
-      <c r="H181" s="99"/>
-      <c r="I181" s="99"/>
-      <c r="J181" s="99"/>
-    </row>
-    <row r="182" spans="1:10">
-      <c r="A182" s="17" t="s">
+      <c r="C186" s="98"/>
+      <c r="D186" s="98"/>
+      <c r="E186" s="98"/>
+      <c r="F186" s="99"/>
+      <c r="G186" s="99"/>
+      <c r="H186" s="99"/>
+      <c r="I186" s="99"/>
+      <c r="J186" s="99"/>
+    </row>
+    <row r="187" spans="1:10">
+      <c r="A187" s="17" t="s">
         <v>195</v>
       </c>
-      <c r="B182" s="64" t="str">
+      <c r="B187" s="64" t="str">
         <f>B13</f>
         <v xml:space="preserve">Fiscal year  </v>
       </c>
-      <c r="C182" s="57"/>
-      <c r="D182" s="57">
-        <f>D13</f>
+      <c r="C187" s="57"/>
+      <c r="D187" s="57">
+        <f t="shared" ref="D187:J188" si="60">D13</f>
         <v>2015</v>
       </c>
-      <c r="E182" s="57">
-        <f>E13</f>
+      <c r="E187" s="57">
+        <f t="shared" si="60"/>
         <v>2016</v>
       </c>
-      <c r="F182" s="58">
-        <f>F13</f>
+      <c r="F187" s="58">
+        <f t="shared" si="60"/>
         <v>2017</v>
       </c>
-      <c r="G182" s="58">
-        <f>G13</f>
+      <c r="G187" s="58">
+        <f t="shared" si="60"/>
         <v>2018</v>
       </c>
-      <c r="H182" s="58">
-        <f>H13</f>
+      <c r="H187" s="58">
+        <f t="shared" si="60"/>
         <v>2019</v>
       </c>
-      <c r="I182" s="58">
-        <f>I13</f>
+      <c r="I187" s="58">
+        <f t="shared" si="60"/>
         <v>2020</v>
       </c>
-      <c r="J182" s="58">
-        <f>J13</f>
+      <c r="J187" s="58">
+        <f t="shared" si="60"/>
         <v>2021</v>
       </c>
     </row>
-    <row r="183" spans="1:10">
-      <c r="B183" s="24" t="str">
+    <row r="188" spans="1:10">
+      <c r="B188" s="24" t="str">
         <f>B14</f>
         <v>Fiscal year end date</v>
       </c>
-      <c r="C183" s="59"/>
-      <c r="D183" s="59">
-        <f>D14</f>
+      <c r="C188" s="59"/>
+      <c r="D188" s="59">
+        <f t="shared" si="60"/>
         <v>42274</v>
       </c>
-      <c r="E183" s="59">
-        <f>E14</f>
+      <c r="E188" s="59">
+        <f t="shared" si="60"/>
         <v>42645</v>
       </c>
-      <c r="F183" s="59">
-        <f>F14</f>
+      <c r="F188" s="59">
+        <f t="shared" si="60"/>
         <v>43039</v>
       </c>
-      <c r="G183" s="59">
-        <f>G14</f>
+      <c r="G188" s="59">
+        <f t="shared" si="60"/>
         <v>43404</v>
       </c>
-      <c r="H183" s="59">
-        <f>H14</f>
+      <c r="H188" s="59">
+        <f t="shared" si="60"/>
         <v>43769</v>
       </c>
-      <c r="I183" s="59">
-        <f>I14</f>
+      <c r="I188" s="59">
+        <f t="shared" si="60"/>
         <v>44135</v>
       </c>
-      <c r="J183" s="59">
-        <f>J14</f>
+      <c r="J188" s="59">
+        <f t="shared" si="60"/>
         <v>44500</v>
       </c>
     </row>
-    <row r="184" spans="1:10">
-      <c r="B184" s="20"/>
-    </row>
-    <row r="185" spans="1:10">
-      <c r="B185" s="72" t="s">
+    <row r="189" spans="1:10">
+      <c r="B189" s="20"/>
+    </row>
+    <row r="190" spans="1:10">
+      <c r="B190" s="72" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="186" spans="1:10">
-      <c r="B186" s="47" t="s">
+    <row r="191" spans="1:10">
+      <c r="B191" s="47" t="s">
         <v>69</v>
       </c>
-      <c r="F186" s="61">
-        <f>E189</f>
+      <c r="F191" s="61">
+        <f>E194</f>
         <v>3602.2</v>
       </c>
-      <c r="G186" s="61">
-        <f>F189</f>
+      <c r="G191" s="61">
+        <f>F194</f>
         <v>3202.2</v>
       </c>
-      <c r="H186" s="61">
-        <f>G189</f>
+      <c r="H191" s="61">
+        <f>G194</f>
         <v>3202.2</v>
       </c>
-      <c r="I186" s="61">
-        <f>H189</f>
+      <c r="I191" s="61">
+        <f>H194</f>
         <v>2852.2</v>
       </c>
-      <c r="J186" s="61">
-        <f>I189</f>
+      <c r="J191" s="61">
+        <f>I194</f>
         <v>2852.2</v>
       </c>
     </row>
-    <row r="187" spans="1:10">
-      <c r="B187" s="47" t="s">
+    <row r="192" spans="1:10">
+      <c r="B192" s="47" t="s">
         <v>98</v>
       </c>
-      <c r="F187" s="96">
+      <c r="F192" s="96">
         <v>-400</v>
       </c>
-      <c r="G187" s="96">
-        <v>0</v>
-      </c>
-      <c r="H187" s="96">
+      <c r="G192" s="96">
+        <v>0</v>
+      </c>
+      <c r="H192" s="96">
         <v>-350</v>
       </c>
-      <c r="I187" s="96">
-        <v>0</v>
-      </c>
-      <c r="J187" s="96">
+      <c r="I192" s="96">
+        <v>0</v>
+      </c>
+      <c r="J192" s="96">
         <v>-750</v>
       </c>
     </row>
-    <row r="188" spans="1:10">
-      <c r="B188" s="47" t="s">
+    <row r="193" spans="1:10">
+      <c r="B193" s="47" t="s">
         <v>99</v>
       </c>
-      <c r="F188" s="61">
-        <f>F195*F191</f>
-        <v>0</v>
-      </c>
-      <c r="G188" s="61">
-        <f>G195*G191</f>
-        <v>0</v>
-      </c>
-      <c r="H188" s="61">
-        <f>H195*H191</f>
-        <v>0</v>
-      </c>
-      <c r="I188" s="61">
-        <f>I195*I191</f>
-        <v>0</v>
-      </c>
-      <c r="J188" s="61">
-        <f>J195*J191</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="189" spans="1:10">
-      <c r="B189" s="47" t="s">
+      <c r="F193" s="61">
+        <f>F200*F196</f>
+        <v>0</v>
+      </c>
+      <c r="G193" s="61">
+        <f>G200*G196</f>
+        <v>0</v>
+      </c>
+      <c r="H193" s="61">
+        <f>H200*H196</f>
+        <v>0</v>
+      </c>
+      <c r="I193" s="61">
+        <f>I200*I196</f>
+        <v>0</v>
+      </c>
+      <c r="J193" s="61">
+        <f>J200*J196</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="194" spans="1:10">
+      <c r="B194" s="47" t="s">
         <v>71</v>
       </c>
-      <c r="D189" s="61">
+      <c r="D194" s="61">
         <f>D70</f>
         <v>2347.5</v>
       </c>
-      <c r="E189" s="61">
+      <c r="E194" s="61">
         <f>E70</f>
         <v>3602.2</v>
       </c>
-      <c r="F189" s="61">
-        <f>SUM(F186:F188)</f>
+      <c r="F194" s="61">
+        <f>SUM(F191:F193)</f>
         <v>3202.2</v>
       </c>
-      <c r="G189" s="61">
-        <f>SUM(G186:G188)</f>
+      <c r="G194" s="61">
+        <f>SUM(G191:G193)</f>
         <v>3202.2</v>
       </c>
-      <c r="H189" s="61">
-        <f>SUM(H186:H188)</f>
+      <c r="H194" s="61">
+        <f>SUM(H191:H193)</f>
         <v>2852.2</v>
       </c>
-      <c r="I189" s="61">
-        <f>SUM(I186:I188)</f>
+      <c r="I194" s="61">
+        <f>SUM(I191:I193)</f>
         <v>2852.2</v>
       </c>
-      <c r="J189" s="61">
-        <f>SUM(J186:J188)</f>
+      <c r="J194" s="61">
+        <f>SUM(J191:J193)</f>
         <v>2102.1999999999998</v>
       </c>
     </row>
-    <row r="190" spans="1:10">
-      <c r="B190" s="20"/>
-    </row>
-    <row r="191" spans="1:10">
-      <c r="B191" s="47" t="s">
+    <row r="195" spans="1:10">
+      <c r="B195" s="20"/>
+    </row>
+    <row r="196" spans="1:10">
+      <c r="B196" s="47" t="s">
         <v>100</v>
       </c>
-      <c r="F191" s="96">
+      <c r="F196" s="96">
         <f>350*0.02+500*0.021+250*0.021+500*0.027+750*0.0385+500*0.0245+350*0.043</f>
         <v>92.424999999999997</v>
       </c>
-      <c r="G191" s="96">
-        <f t="shared" ref="G191" si="57">350*0.02+500*0.021+250*0.021+500*0.027+750*0.0385+500*0.0245+350*0.043</f>
+      <c r="G196" s="96">
+        <f t="shared" ref="G196" si="61">350*0.02+500*0.021+250*0.021+500*0.027+750*0.0385+500*0.0245+350*0.043</f>
         <v>92.424999999999997</v>
       </c>
-      <c r="H191" s="96">
+      <c r="H196" s="96">
         <f>500*0.021+250*0.021+500*0.027+750*0.0385+500*0.0245+350*0.043</f>
         <v>85.424999999999997</v>
       </c>
-      <c r="I191" s="96">
-        <f t="shared" ref="I191" si="58">500*0.021+250*0.021+500*0.027+750*0.0385+500*0.0245+350*0.043</f>
+      <c r="I196" s="96">
+        <f t="shared" ref="I196" si="62">500*0.021+250*0.021+500*0.027+750*0.0385+500*0.0245+350*0.043</f>
         <v>85.424999999999997</v>
       </c>
-      <c r="J191" s="96">
+      <c r="J196" s="96">
         <f>500*0.027+750*0.0385+500*0.0245+350*0.043</f>
         <v>69.674999999999997</v>
       </c>
     </row>
-    <row r="192" spans="1:10">
-      <c r="B192" s="47" t="s">
+    <row r="197" spans="1:10">
+      <c r="B197" s="47" t="s">
         <v>101</v>
       </c>
-      <c r="F192" s="14">
-        <f>F191/AVERAGE(E189:F189)</f>
+      <c r="F197" s="14">
+        <f>F196/AVERAGE(E194:F194)</f>
         <v>2.7166245370642526E-2</v>
       </c>
-      <c r="G192" s="14">
-        <f>G191/AVERAGE(F189:G189)</f>
+      <c r="G197" s="14">
+        <f>G196/AVERAGE(F194:G194)</f>
         <v>2.8862969208669039E-2</v>
       </c>
-      <c r="H192" s="14">
-        <f>H191/AVERAGE(G189:H189)</f>
+      <c r="H197" s="14">
+        <f>H196/AVERAGE(G194:H194)</f>
         <v>2.8219146405919663E-2</v>
       </c>
-      <c r="I192" s="14">
-        <f>I191/AVERAGE(H189:I189)</f>
+      <c r="I197" s="14">
+        <f>I196/AVERAGE(H194:I194)</f>
         <v>2.9950564476544424E-2</v>
       </c>
-      <c r="J192" s="14">
-        <f>J191/AVERAGE(I189:J189)</f>
+      <c r="J197" s="14">
+        <f>J196/AVERAGE(I194:J194)</f>
         <v>2.81265138059099E-2</v>
       </c>
     </row>
-    <row r="193" spans="1:10">
-      <c r="B193" s="47"/>
-    </row>
-    <row r="194" spans="1:10">
-      <c r="B194" s="47" t="s">
+    <row r="198" spans="1:10">
+      <c r="B198" s="47"/>
+    </row>
+    <row r="199" spans="1:10">
+      <c r="B199" s="47" t="s">
         <v>102</v>
       </c>
-      <c r="F194" s="100">
+      <c r="F199" s="100">
         <v>1</v>
       </c>
-      <c r="G194" s="100">
+      <c r="G199" s="100">
         <v>1</v>
       </c>
-      <c r="H194" s="100">
+      <c r="H199" s="100">
         <v>1</v>
       </c>
-      <c r="I194" s="100">
+      <c r="I199" s="100">
         <v>1</v>
       </c>
-      <c r="J194" s="100">
+      <c r="J199" s="100">
         <v>1</v>
       </c>
     </row>
-    <row r="195" spans="1:10">
-      <c r="B195" s="47" t="s">
+    <row r="200" spans="1:10">
+      <c r="B200" s="47" t="s">
         <v>103</v>
       </c>
-      <c r="F195" s="101">
-        <f>1-F194</f>
-        <v>0</v>
-      </c>
-      <c r="G195" s="101">
-        <f>1-G194</f>
-        <v>0</v>
-      </c>
-      <c r="H195" s="101">
-        <f>1-H194</f>
-        <v>0</v>
-      </c>
-      <c r="I195" s="101">
-        <f>1-I194</f>
-        <v>0</v>
-      </c>
-      <c r="J195" s="101">
-        <f>1-J194</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="197" spans="1:10">
-      <c r="B197" s="22" t="s">
+      <c r="F200" s="101">
+        <f>1-F199</f>
+        <v>0</v>
+      </c>
+      <c r="G200" s="101">
+        <f>1-G199</f>
+        <v>0</v>
+      </c>
+      <c r="H200" s="101">
+        <f>1-H199</f>
+        <v>0</v>
+      </c>
+      <c r="I200" s="101">
+        <f>1-I199</f>
+        <v>0</v>
+      </c>
+      <c r="J200" s="101">
+        <f>1-J199</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="202" spans="1:10">
+      <c r="B202" s="22" t="s">
         <v>104</v>
       </c>
-      <c r="C197" s="24"/>
-      <c r="D197" s="24"/>
-      <c r="E197" s="24"/>
-      <c r="F197" s="24"/>
-      <c r="G197" s="24"/>
-      <c r="H197" s="24"/>
-      <c r="I197" s="24"/>
-      <c r="J197" s="24"/>
-    </row>
-    <row r="198" spans="1:10">
-      <c r="A198" s="17" t="s">
+      <c r="C202" s="24"/>
+      <c r="D202" s="24"/>
+      <c r="E202" s="24"/>
+      <c r="F202" s="24"/>
+      <c r="G202" s="24"/>
+      <c r="H202" s="24"/>
+      <c r="I202" s="24"/>
+      <c r="J202" s="24"/>
+    </row>
+    <row r="203" spans="1:10">
+      <c r="A203" s="17" t="s">
         <v>195</v>
       </c>
-      <c r="B198" s="64" t="str">
+      <c r="B203" s="64" t="str">
         <f>B13</f>
         <v xml:space="preserve">Fiscal year  </v>
       </c>
-      <c r="C198" s="57"/>
-      <c r="D198" s="57">
-        <f>D13</f>
+      <c r="C203" s="57"/>
+      <c r="D203" s="57">
+        <f t="shared" ref="D203:J204" si="63">D13</f>
         <v>2015</v>
       </c>
-      <c r="E198" s="57">
-        <f>E13</f>
+      <c r="E203" s="57">
+        <f t="shared" si="63"/>
         <v>2016</v>
       </c>
-      <c r="F198" s="58">
-        <f>F13</f>
+      <c r="F203" s="58">
+        <f t="shared" si="63"/>
         <v>2017</v>
       </c>
-      <c r="G198" s="58">
-        <f>G13</f>
+      <c r="G203" s="58">
+        <f t="shared" si="63"/>
         <v>2018</v>
       </c>
-      <c r="H198" s="58">
-        <f>H13</f>
+      <c r="H203" s="58">
+        <f t="shared" si="63"/>
         <v>2019</v>
       </c>
-      <c r="I198" s="58">
-        <f>I13</f>
+      <c r="I203" s="58">
+        <f t="shared" si="63"/>
         <v>2020</v>
       </c>
-      <c r="J198" s="58">
-        <f>J13</f>
+      <c r="J203" s="58">
+        <f t="shared" si="63"/>
         <v>2021</v>
       </c>
     </row>
-    <row r="199" spans="1:10">
-      <c r="B199" s="24" t="str">
+    <row r="204" spans="1:10">
+      <c r="B204" s="24" t="str">
         <f>B14</f>
         <v>Fiscal year end date</v>
       </c>
-      <c r="C199" s="59"/>
-      <c r="D199" s="59">
-        <f>D14</f>
+      <c r="C204" s="59"/>
+      <c r="D204" s="59">
+        <f t="shared" si="63"/>
         <v>42274</v>
       </c>
-      <c r="E199" s="59">
-        <f>E14</f>
+      <c r="E204" s="59">
+        <f t="shared" si="63"/>
         <v>42645</v>
       </c>
-      <c r="F199" s="59">
-        <f>F14</f>
+      <c r="F204" s="59">
+        <f t="shared" si="63"/>
         <v>43039</v>
       </c>
-      <c r="G199" s="59">
-        <f>G14</f>
+      <c r="G204" s="59">
+        <f t="shared" si="63"/>
         <v>43404</v>
       </c>
-      <c r="H199" s="59">
-        <f>H14</f>
+      <c r="H204" s="59">
+        <f t="shared" si="63"/>
         <v>43769</v>
       </c>
-      <c r="I199" s="59">
-        <f>I14</f>
+      <c r="I204" s="59">
+        <f t="shared" si="63"/>
         <v>44135</v>
       </c>
-      <c r="J199" s="59">
-        <f>J14</f>
+      <c r="J204" s="59">
+        <f t="shared" si="63"/>
         <v>44500</v>
       </c>
     </row>
-    <row r="200" spans="1:10">
-      <c r="B200" s="20"/>
-    </row>
-    <row r="201" spans="1:10">
-      <c r="B201" s="35" t="s">
+    <row r="205" spans="1:10">
+      <c r="B205" s="20"/>
+    </row>
+    <row r="206" spans="1:10">
+      <c r="B206" s="35" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="202" spans="1:10">
-      <c r="B202" s="47" t="s">
+    <row r="207" spans="1:10">
+      <c r="B207" s="47" t="s">
         <v>69</v>
       </c>
-      <c r="F202" s="61">
-        <f>E205</f>
+      <c r="F207" s="61">
+        <f>E210</f>
         <v>42.6</v>
       </c>
-      <c r="G202" s="61">
-        <f ca="1">F205</f>
+      <c r="G207" s="61">
+        <f ca="1">F210</f>
         <v>447.49862952275936</v>
       </c>
-      <c r="H202" s="61">
-        <f ca="1">G205</f>
+      <c r="H207" s="61">
+        <f ca="1">G210</f>
         <v>874.02052885338367</v>
       </c>
-      <c r="I202" s="61">
-        <f ca="1">H205</f>
+      <c r="I207" s="61">
+        <f ca="1">H210</f>
         <v>1333.7961271649499</v>
       </c>
-      <c r="J202" s="61">
-        <f ca="1">I205</f>
+      <c r="J207" s="61">
+        <f ca="1">I210</f>
         <v>1813.2376300658116</v>
       </c>
     </row>
-    <row r="203" spans="1:10">
-      <c r="B203" s="90" t="s">
+    <row r="208" spans="1:10">
+      <c r="B208" s="90" t="s">
         <v>106</v>
       </c>
-      <c r="F203" s="61">
-        <f>F207</f>
+      <c r="F208" s="61">
+        <f>F212</f>
         <v>164.06666666666666</v>
       </c>
-      <c r="G203" s="61">
-        <f t="shared" ref="G203:J204" si="59">G207</f>
+      <c r="G208" s="61">
+        <f t="shared" ref="G208:J209" si="64">G212</f>
         <v>164.06666666666666</v>
       </c>
-      <c r="H203" s="61">
-        <f t="shared" si="59"/>
+      <c r="H208" s="61">
+        <f t="shared" si="64"/>
         <v>164.06666666666666</v>
       </c>
-      <c r="I203" s="61">
-        <f t="shared" si="59"/>
+      <c r="I208" s="61">
+        <f t="shared" si="64"/>
         <v>164.06666666666666</v>
       </c>
-      <c r="J203" s="61">
-        <f t="shared" si="59"/>
+      <c r="J208" s="61">
+        <f t="shared" si="64"/>
         <v>164.06666666666666</v>
       </c>
     </row>
-    <row r="204" spans="1:10">
-      <c r="B204" s="90" t="s">
+    <row r="209" spans="2:10">
+      <c r="B209" s="90" t="s">
         <v>107</v>
       </c>
-      <c r="F204" s="61">
-        <f ca="1">F208</f>
+      <c r="F209" s="61">
+        <f ca="1">F213</f>
         <v>240.8319628560927</v>
       </c>
-      <c r="G204" s="61">
-        <f t="shared" ca="1" si="59"/>
+      <c r="G209" s="61">
+        <f t="shared" ca="1" si="64"/>
         <v>262.45523266395764</v>
       </c>
-      <c r="H204" s="61">
-        <f t="shared" ca="1" si="59"/>
+      <c r="H209" s="61">
+        <f t="shared" ca="1" si="64"/>
         <v>295.70893164489956</v>
       </c>
-      <c r="I204" s="61">
-        <f t="shared" ca="1" si="59"/>
+      <c r="I209" s="61">
+        <f t="shared" ca="1" si="64"/>
         <v>315.37483623419502</v>
       </c>
-      <c r="J204" s="61">
-        <f t="shared" ca="1" si="59"/>
+      <c r="J209" s="61">
+        <f t="shared" ca="1" si="64"/>
         <v>344.73322237107175</v>
       </c>
     </row>
-    <row r="205" spans="1:10">
-      <c r="B205" s="47" t="s">
+    <row r="210" spans="2:10">
+      <c r="B210" s="47" t="s">
         <v>71</v>
       </c>
-      <c r="D205" s="61">
+      <c r="D210" s="61">
         <f>D74</f>
         <v>42.6</v>
       </c>
-      <c r="E205" s="61">
+      <c r="E210" s="61">
         <f>E74</f>
         <v>42.6</v>
       </c>
-      <c r="F205" s="61">
-        <f ca="1">SUM(F202:F204)</f>
+      <c r="F210" s="61">
+        <f ca="1">SUM(F207:F209)</f>
         <v>447.49862952275936</v>
       </c>
-      <c r="G205" s="61">
-        <f ca="1">SUM(G202:G204)</f>
+      <c r="G210" s="61">
+        <f ca="1">SUM(G207:G209)</f>
         <v>874.02052885338367</v>
       </c>
-      <c r="H205" s="61">
-        <f ca="1">SUM(H202:H204)</f>
+      <c r="H210" s="61">
+        <f ca="1">SUM(H207:H209)</f>
         <v>1333.7961271649499</v>
       </c>
-      <c r="I205" s="61">
-        <f ca="1">SUM(I202:I204)</f>
+      <c r="I210" s="61">
+        <f ca="1">SUM(I207:I209)</f>
         <v>1813.2376300658116</v>
       </c>
-      <c r="J205" s="61">
-        <f ca="1">SUM(J202:J204)</f>
+      <c r="J210" s="61">
+        <f ca="1">SUM(J207:J209)</f>
         <v>2322.03751910355</v>
       </c>
     </row>
-    <row r="206" spans="1:10">
-      <c r="B206" s="47"/>
-    </row>
-    <row r="207" spans="1:10">
-      <c r="B207" s="47" t="s">
+    <row r="211" spans="2:10">
+      <c r="B211" s="47"/>
+    </row>
+    <row r="212" spans="2:10">
+      <c r="B212" s="47" t="s">
         <v>108</v>
       </c>
-      <c r="C207" s="102">
+      <c r="C212" s="102">
         <v>139.69999999999999</v>
       </c>
-      <c r="D207" s="102">
+      <c r="D212" s="102">
         <v>191.8</v>
       </c>
-      <c r="E207" s="102">
+      <c r="E212" s="102">
         <v>160.69999999999999</v>
       </c>
-      <c r="F207" s="203">
-        <f>AVERAGE(C207:E207)</f>
+      <c r="F212" s="203">
+        <f>AVERAGE(C212:E212)</f>
         <v>164.06666666666666</v>
       </c>
-      <c r="G207" s="203">
-        <f>F207</f>
+      <c r="G212" s="203">
+        <f>F212</f>
         <v>164.06666666666666</v>
       </c>
-      <c r="H207" s="203">
-        <f t="shared" ref="H207:J207" si="60">G207</f>
+      <c r="H212" s="203">
+        <f t="shared" ref="H212:J212" si="65">G212</f>
         <v>164.06666666666666</v>
       </c>
-      <c r="I207" s="203">
-        <f t="shared" si="60"/>
+      <c r="I212" s="203">
+        <f t="shared" si="65"/>
         <v>164.06666666666666</v>
       </c>
-      <c r="J207" s="203">
-        <f t="shared" si="60"/>
+      <c r="J212" s="203">
+        <f t="shared" si="65"/>
         <v>164.06666666666666</v>
       </c>
     </row>
-    <row r="208" spans="1:10">
-      <c r="B208" s="47" t="s">
+    <row r="213" spans="2:10">
+      <c r="B213" s="47" t="s">
         <v>37</v>
       </c>
-      <c r="C208" s="56">
+      <c r="C213" s="56">
         <f>C48</f>
         <v>183.2</v>
       </c>
-      <c r="D208" s="56">
+      <c r="D213" s="56">
         <f>D48</f>
         <v>209.8</v>
       </c>
-      <c r="E208" s="56">
+      <c r="E213" s="56">
         <f>E48</f>
         <v>218.1</v>
       </c>
-      <c r="F208" s="61">
-        <f ca="1">-(F209*SUM(F17,F19,F20))</f>
+      <c r="F213" s="61">
+        <f ca="1">-(F214*SUM(F17,F19,F20))</f>
         <v>240.8319628560927</v>
       </c>
-      <c r="G208" s="61">
-        <f ca="1">-(G209*SUM(G17,G19,G20))</f>
+      <c r="G213" s="61">
+        <f ca="1">-(G214*SUM(G17,G19,G20))</f>
         <v>262.45523266395764</v>
       </c>
-      <c r="H208" s="61">
-        <f ca="1">-(H209*SUM(H17,H19,H20))</f>
+      <c r="H213" s="61">
+        <f ca="1">-(H214*SUM(H17,H19,H20))</f>
         <v>295.70893164489956</v>
       </c>
-      <c r="I208" s="61">
-        <f ca="1">-(I209*SUM(I17,I19,I20))</f>
+      <c r="I213" s="61">
+        <f ca="1">-(I214*SUM(I17,I19,I20))</f>
         <v>315.37483623419502</v>
       </c>
-      <c r="J208" s="61">
-        <f ca="1">-(J209*SUM(J17,J19,J20))</f>
+      <c r="J213" s="61">
+        <f ca="1">-(J214*SUM(J17,J19,J20))</f>
         <v>344.73322237107175</v>
-      </c>
-    </row>
-    <row r="209" spans="2:10">
-      <c r="B209" s="47" t="s">
-        <v>109</v>
-      </c>
-      <c r="C209" s="14">
-        <f>-(C208/SUM(C17,C19,C20))</f>
-        <v>1.3436010267693435E-2</v>
-      </c>
-      <c r="D209" s="14">
-        <f>-(D208/SUM(D17,D19,D20))</f>
-        <v>1.3268739406511677E-2</v>
-      </c>
-      <c r="E209" s="14">
-        <f>-(E208/SUM(E17,E19,E20))</f>
-        <v>1.2489835186860761E-2</v>
-      </c>
-      <c r="F209" s="62">
-        <f>AVERAGE(C209:E209)</f>
-        <v>1.3064861620355292E-2</v>
-      </c>
-      <c r="G209" s="62">
-        <f>F209</f>
-        <v>1.3064861620355292E-2</v>
-      </c>
-      <c r="H209" s="62">
-        <f t="shared" ref="H209:J209" si="61">G209</f>
-        <v>1.3064861620355292E-2</v>
-      </c>
-      <c r="I209" s="62">
-        <f t="shared" si="61"/>
-        <v>1.3064861620355292E-2</v>
-      </c>
-      <c r="J209" s="62">
-        <f t="shared" si="61"/>
-        <v>1.3064861620355292E-2</v>
-      </c>
-    </row>
-    <row r="210" spans="2:10">
-      <c r="B210" s="47"/>
-    </row>
-    <row r="211" spans="2:10">
-      <c r="B211" s="35" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="212" spans="2:10">
-      <c r="B212" s="47" t="s">
-        <v>69</v>
-      </c>
-      <c r="F212" s="41">
-        <f>E214</f>
-        <v>0</v>
-      </c>
-      <c r="G212" s="41">
-        <f>F214</f>
-        <v>-1715.85</v>
-      </c>
-      <c r="H212" s="41">
-        <f>G214</f>
-        <v>-3431.7</v>
-      </c>
-      <c r="I212" s="41">
-        <f>H214</f>
-        <v>-5147.5499999999993</v>
-      </c>
-      <c r="J212" s="41">
-        <f>I214</f>
-        <v>-6863.4</v>
-      </c>
-    </row>
-    <row r="213" spans="2:10">
-      <c r="B213" s="90" t="s">
-        <v>110</v>
-      </c>
-      <c r="F213" s="41">
-        <f>F216</f>
-        <v>-1715.85</v>
-      </c>
-      <c r="G213" s="41">
-        <f>G216</f>
-        <v>-1715.85</v>
-      </c>
-      <c r="H213" s="41">
-        <f>H216</f>
-        <v>-1715.85</v>
-      </c>
-      <c r="I213" s="41">
-        <f>I216</f>
-        <v>-1715.85</v>
-      </c>
-      <c r="J213" s="41">
-        <f>J216</f>
-        <v>-1715.85</v>
       </c>
     </row>
     <row r="214" spans="2:10">
       <c r="B214" s="47" t="s">
+        <v>109</v>
+      </c>
+      <c r="C214" s="14">
+        <f>-(C213/SUM(C17,C19,C20))</f>
+        <v>1.3436010267693435E-2</v>
+      </c>
+      <c r="D214" s="14">
+        <f>-(D213/SUM(D17,D19,D20))</f>
+        <v>1.3268739406511677E-2</v>
+      </c>
+      <c r="E214" s="14">
+        <f>-(E213/SUM(E17,E19,E20))</f>
+        <v>1.2489835186860761E-2</v>
+      </c>
+      <c r="F214" s="62">
+        <f>AVERAGE(C214:E214)</f>
+        <v>1.3064861620355292E-2</v>
+      </c>
+      <c r="G214" s="62">
+        <f>F214</f>
+        <v>1.3064861620355292E-2</v>
+      </c>
+      <c r="H214" s="62">
+        <f t="shared" ref="H214:J214" si="66">G214</f>
+        <v>1.3064861620355292E-2</v>
+      </c>
+      <c r="I214" s="62">
+        <f t="shared" si="66"/>
+        <v>1.3064861620355292E-2</v>
+      </c>
+      <c r="J214" s="62">
+        <f t="shared" si="66"/>
+        <v>1.3064861620355292E-2</v>
+      </c>
+    </row>
+    <row r="215" spans="2:10">
+      <c r="B215" s="47"/>
+    </row>
+    <row r="216" spans="2:10">
+      <c r="B216" s="35" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="217" spans="2:10">
+      <c r="B217" s="47" t="s">
+        <v>69</v>
+      </c>
+      <c r="F217" s="41">
+        <f>E219</f>
+        <v>0</v>
+      </c>
+      <c r="G217" s="41">
+        <f>F219</f>
+        <v>-1715.85</v>
+      </c>
+      <c r="H217" s="41">
+        <f>G219</f>
+        <v>-3431.7</v>
+      </c>
+      <c r="I217" s="41">
+        <f>H219</f>
+        <v>-5147.5499999999993</v>
+      </c>
+      <c r="J217" s="41">
+        <f>I219</f>
+        <v>-6863.4</v>
+      </c>
+    </row>
+    <row r="218" spans="2:10">
+      <c r="B218" s="90" t="s">
+        <v>110</v>
+      </c>
+      <c r="F218" s="41">
+        <f>F221</f>
+        <v>-1715.85</v>
+      </c>
+      <c r="G218" s="41">
+        <f>G221</f>
+        <v>-1715.85</v>
+      </c>
+      <c r="H218" s="41">
+        <f>H221</f>
+        <v>-1715.85</v>
+      </c>
+      <c r="I218" s="41">
+        <f>I221</f>
+        <v>-1715.85</v>
+      </c>
+      <c r="J218" s="41">
+        <f>J221</f>
+        <v>-1715.85</v>
+      </c>
+    </row>
+    <row r="219" spans="2:10">
+      <c r="B219" s="47" t="s">
         <v>71</v>
       </c>
-      <c r="D214" s="61">
+      <c r="D219" s="61">
         <f>D75</f>
         <v>0</v>
       </c>
-      <c r="E214" s="61">
+      <c r="E219" s="61">
         <f>E75</f>
         <v>0</v>
       </c>
-      <c r="F214" s="41">
-        <f>SUM(F212:F213)</f>
+      <c r="F219" s="41">
+        <f>SUM(F217:F218)</f>
         <v>-1715.85</v>
       </c>
-      <c r="G214" s="41">
-        <f>SUM(G212:G213)</f>
+      <c r="G219" s="41">
+        <f>SUM(G217:G218)</f>
         <v>-3431.7</v>
       </c>
-      <c r="H214" s="41">
-        <f>SUM(H212:H213)</f>
+      <c r="H219" s="41">
+        <f>SUM(H217:H218)</f>
         <v>-5147.5499999999993</v>
       </c>
-      <c r="I214" s="41">
-        <f>SUM(I212:I213)</f>
+      <c r="I219" s="41">
+        <f>SUM(I217:I218)</f>
         <v>-6863.4</v>
       </c>
-      <c r="J214" s="41">
-        <f>SUM(J212:J213)</f>
+      <c r="J219" s="41">
+        <f>SUM(J217:J218)</f>
         <v>-8579.25</v>
       </c>
     </row>
-    <row r="215" spans="2:10">
-      <c r="B215" s="20"/>
-    </row>
-    <row r="216" spans="2:10">
-      <c r="B216" s="90" t="s">
+    <row r="220" spans="2:10">
+      <c r="B220" s="20"/>
+    </row>
+    <row r="221" spans="2:10">
+      <c r="B221" s="90" t="s">
         <v>111</v>
       </c>
-      <c r="C216" s="96">
+      <c r="C221" s="96">
         <v>-758.6</v>
       </c>
-      <c r="D216" s="96">
+      <c r="D221" s="96">
         <v>-1436.1</v>
       </c>
-      <c r="E216" s="217">
+      <c r="E221" s="217">
         <v>-1995.6</v>
       </c>
-      <c r="F216" s="96">
-        <f>AVERAGE(D216:E216)</f>
+      <c r="F221" s="96">
+        <f>AVERAGE(D221:E221)</f>
         <v>-1715.85</v>
       </c>
-      <c r="G216" s="96">
-        <f>F216</f>
+      <c r="G221" s="96">
+        <f>F221</f>
         <v>-1715.85</v>
       </c>
-      <c r="H216" s="96">
-        <f t="shared" ref="H216:J216" si="62">G216</f>
+      <c r="H221" s="96">
+        <f t="shared" ref="H221:J221" si="67">G221</f>
         <v>-1715.85</v>
       </c>
-      <c r="I216" s="96">
-        <f t="shared" si="62"/>
+      <c r="I221" s="96">
+        <f t="shared" si="67"/>
         <v>-1715.85</v>
       </c>
-      <c r="J216" s="96">
-        <f t="shared" si="62"/>
+      <c r="J221" s="96">
+        <f t="shared" si="67"/>
         <v>-1715.85</v>
       </c>
     </row>
-    <row r="218" spans="2:10">
-      <c r="B218" s="22" t="s">
+    <row r="223" spans="2:10">
+      <c r="B223" s="22" t="s">
         <v>112</v>
       </c>
-      <c r="C218" s="24"/>
-      <c r="D218" s="24"/>
-      <c r="E218" s="24"/>
-      <c r="F218" s="24"/>
-      <c r="G218" s="24"/>
-      <c r="H218" s="24"/>
-      <c r="I218" s="24"/>
-      <c r="J218" s="24"/>
-    </row>
-    <row r="219" spans="2:10">
-      <c r="B219" s="64" t="str">
+      <c r="C223" s="24"/>
+      <c r="D223" s="24"/>
+      <c r="E223" s="24"/>
+      <c r="F223" s="24"/>
+      <c r="G223" s="24"/>
+      <c r="H223" s="24"/>
+      <c r="I223" s="24"/>
+      <c r="J223" s="24"/>
+    </row>
+    <row r="224" spans="2:10">
+      <c r="B224" s="64" t="str">
         <f>B13</f>
         <v xml:space="preserve">Fiscal year  </v>
       </c>
-      <c r="C219" s="57">
-        <f>C13</f>
+      <c r="C224" s="57">
+        <f t="shared" ref="C224:J224" si="68">C13</f>
         <v>2014</v>
       </c>
-      <c r="D219" s="57">
-        <f>D13</f>
+      <c r="D224" s="57">
+        <f t="shared" si="68"/>
         <v>2015</v>
       </c>
-      <c r="E219" s="57">
-        <f>E13</f>
+      <c r="E224" s="57">
+        <f t="shared" si="68"/>
         <v>2016</v>
       </c>
-      <c r="F219" s="58">
-        <f>F13</f>
+      <c r="F224" s="58">
+        <f t="shared" si="68"/>
         <v>2017</v>
       </c>
-      <c r="G219" s="58">
-        <f>G13</f>
+      <c r="G224" s="58">
+        <f t="shared" si="68"/>
         <v>2018</v>
       </c>
-      <c r="H219" s="58">
-        <f>H13</f>
+      <c r="H224" s="58">
+        <f t="shared" si="68"/>
         <v>2019</v>
       </c>
-      <c r="I219" s="58">
-        <f>I13</f>
+      <c r="I224" s="58">
+        <f t="shared" si="68"/>
         <v>2020</v>
       </c>
-      <c r="J219" s="58">
-        <f>J13</f>
+      <c r="J224" s="58">
+        <f t="shared" si="68"/>
         <v>2021</v>
       </c>
     </row>
-    <row r="220" spans="2:10">
-      <c r="B220" s="24" t="str">
+    <row r="225" spans="2:10">
+      <c r="B225" s="24" t="str">
         <f>B14</f>
         <v>Fiscal year end date</v>
       </c>
-      <c r="C220" s="59">
-        <f>C14</f>
+      <c r="C225" s="59">
+        <f t="shared" ref="C225:J225" si="69">C14</f>
         <v>41910</v>
       </c>
-      <c r="D220" s="59">
-        <f>D14</f>
+      <c r="D225" s="59">
+        <f t="shared" si="69"/>
         <v>42274</v>
       </c>
-      <c r="E220" s="59">
-        <f>E14</f>
+      <c r="E225" s="59">
+        <f t="shared" si="69"/>
         <v>42645</v>
       </c>
-      <c r="F220" s="59">
-        <f>F14</f>
+      <c r="F225" s="59">
+        <f t="shared" si="69"/>
         <v>43039</v>
       </c>
-      <c r="G220" s="59">
-        <f>G14</f>
+      <c r="G225" s="59">
+        <f t="shared" si="69"/>
         <v>43404</v>
       </c>
-      <c r="H220" s="59">
-        <f>H14</f>
+      <c r="H225" s="59">
+        <f t="shared" si="69"/>
         <v>43769</v>
       </c>
-      <c r="I220" s="59">
-        <f>I14</f>
+      <c r="I225" s="59">
+        <f t="shared" si="69"/>
         <v>44135</v>
       </c>
-      <c r="J220" s="59">
-        <f>J14</f>
+      <c r="J225" s="59">
+        <f t="shared" si="69"/>
         <v>44500</v>
       </c>
     </row>
-    <row r="221" spans="2:10">
-      <c r="B221" s="20"/>
-    </row>
-    <row r="222" spans="2:10">
-      <c r="B222" s="35" t="s">
+    <row r="226" spans="2:10">
+      <c r="B226" s="20"/>
+    </row>
+    <row r="227" spans="2:10">
+      <c r="B227" s="35" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="223" spans="2:10">
-      <c r="B223" s="47" t="s">
+    <row r="228" spans="2:10">
+      <c r="B228" s="47" t="s">
         <v>69</v>
       </c>
-      <c r="F223" s="61">
-        <f>E226</f>
+      <c r="F228" s="61">
+        <f>E231</f>
         <v>5949.8</v>
       </c>
-      <c r="G223" s="61">
-        <f ca="1">F226</f>
+      <c r="G228" s="61">
+        <f ca="1">F231</f>
         <v>7904.9143446025482</v>
       </c>
-      <c r="H223" s="61">
-        <f ca="1">G226</f>
+      <c r="H228" s="61">
+        <f ca="1">G231</f>
         <v>10146.057689940128</v>
       </c>
-      <c r="I223" s="61">
-        <f ca="1">H226</f>
+      <c r="I228" s="61">
+        <f ca="1">H231</f>
         <v>12400.562222263929</v>
       </c>
-      <c r="J223" s="61">
-        <f ca="1">I226</f>
+      <c r="J228" s="61">
+        <f ca="1">I231</f>
         <v>15206.190453840678</v>
       </c>
     </row>
-    <row r="224" spans="2:10">
-      <c r="B224" s="90" t="s">
+    <row r="229" spans="2:10">
+      <c r="B229" s="90" t="s">
         <v>114</v>
       </c>
-      <c r="F224" s="61">
-        <f ca="1">F228</f>
+      <c r="F229" s="61">
+        <f ca="1">F233</f>
         <v>3141.8531506536319</v>
       </c>
-      <c r="G224" s="61">
-        <f ca="1">G228</f>
+      <c r="G229" s="61">
+        <f ca="1">G233</f>
         <v>3601.4994723842992</v>
       </c>
-      <c r="H224" s="61">
-        <f ca="1">H228</f>
+      <c r="H229" s="61">
+        <f ca="1">H233</f>
         <v>3622.9707936176628</v>
       </c>
-      <c r="I224" s="61">
-        <f ca="1">I228</f>
+      <c r="I229" s="61">
+        <f ca="1">I233</f>
         <v>4508.6221785220878</v>
       </c>
-      <c r="J224" s="61">
-        <f ca="1">J228</f>
+      <c r="J229" s="61">
+        <f ca="1">J233</f>
         <v>5093.1076996131596</v>
       </c>
     </row>
-    <row r="225" spans="2:10">
-      <c r="B225" s="90" t="s">
+    <row r="230" spans="2:10">
+      <c r="B230" s="90" t="s">
         <v>115</v>
       </c>
-      <c r="F225" s="61">
+      <c r="F230" s="61">
+        <f ca="1">F235</f>
+        <v>-1186.7388060503572</v>
+      </c>
+      <c r="G230" s="61">
+        <f ca="1">G235</f>
+        <v>-1360.3561270707901</v>
+      </c>
+      <c r="H230" s="61">
+        <f ca="1">H235</f>
+        <v>-1368.4662610913774</v>
+      </c>
+      <c r="I230" s="61">
+        <f ca="1">I235</f>
+        <v>-1702.9939480011442</v>
+      </c>
+      <c r="J230" s="61">
+        <f ca="1">J235</f>
+        <v>-1923.7654532858633</v>
+      </c>
+    </row>
+    <row r="231" spans="2:10">
+      <c r="B231" s="47" t="s">
+        <v>71</v>
+      </c>
+      <c r="D231" s="61">
+        <f>D76</f>
+        <v>5974.8</v>
+      </c>
+      <c r="E231" s="61">
+        <f>E76</f>
+        <v>5949.8</v>
+      </c>
+      <c r="F231" s="61">
+        <f ca="1">SUM(F228:F230)</f>
+        <v>7904.9143446032749</v>
+      </c>
+      <c r="G231" s="61">
+        <f ca="1">SUM(G228:G230)</f>
+        <v>10146.057689916057</v>
+      </c>
+      <c r="H231" s="61">
+        <f ca="1">SUM(H228:H230)</f>
+        <v>12400.562222466415</v>
+      </c>
+      <c r="I231" s="61">
+        <f ca="1">SUM(I228:I230)</f>
+        <v>15206.190452784873</v>
+      </c>
+      <c r="J231" s="61">
+        <f ca="1">SUM(J228:J230)</f>
+        <v>18375.532700167976</v>
+      </c>
+    </row>
+    <row r="232" spans="2:10">
+      <c r="B232" s="20"/>
+    </row>
+    <row r="233" spans="2:10">
+      <c r="B233" s="51" t="s">
+        <v>22</v>
+      </c>
+      <c r="C233" s="61">
+        <f t="shared" ref="C233:J233" si="70">C28</f>
+        <v>2067.6999999999994</v>
+      </c>
+      <c r="D233" s="61">
+        <f t="shared" si="70"/>
+        <v>2759.3000000000011</v>
+      </c>
+      <c r="E233" s="61">
+        <f t="shared" si="70"/>
+        <v>2818.9000000000005</v>
+      </c>
+      <c r="F233" s="61">
+        <f t="shared" ca="1" si="70"/>
+        <v>3141.8531506534109</v>
+      </c>
+      <c r="G233" s="61">
+        <f t="shared" ca="1" si="70"/>
+        <v>3601.499472389487</v>
+      </c>
+      <c r="H233" s="61">
+        <f t="shared" ca="1" si="70"/>
+        <v>3622.9707935709657</v>
+      </c>
+      <c r="I233" s="61">
+        <f t="shared" ca="1" si="70"/>
+        <v>4508.6221785509206</v>
+      </c>
+      <c r="J233" s="61">
+        <f t="shared" ca="1" si="70"/>
+        <v>5093.1076998075459</v>
+      </c>
+    </row>
+    <row r="234" spans="2:10">
+      <c r="B234" s="47" t="s">
+        <v>116</v>
+      </c>
+      <c r="C234" s="14">
+        <f>-(C235/C233)</f>
+        <v>0.37872998984378792</v>
+      </c>
+      <c r="D234" s="14">
+        <f>-(D235/D233)</f>
+        <v>0.33653462834776926</v>
+      </c>
+      <c r="E234" s="14">
+        <f>-(E235/E233)</f>
+        <v>0.41789350455851565</v>
+      </c>
+      <c r="F234" s="62">
+        <f>AVERAGE(C234:E234)</f>
+        <v>0.37771937425002428</v>
+      </c>
+      <c r="G234" s="62">
+        <f>F234</f>
+        <v>0.37771937425002428</v>
+      </c>
+      <c r="H234" s="62">
+        <f t="shared" ref="H234:J234" si="71">G234</f>
+        <v>0.37771937425002428</v>
+      </c>
+      <c r="I234" s="62">
+        <f t="shared" si="71"/>
+        <v>0.37771937425002428</v>
+      </c>
+      <c r="J234" s="62">
+        <f t="shared" si="71"/>
+        <v>0.37771937425002428</v>
+      </c>
+    </row>
+    <row r="235" spans="2:10">
+      <c r="B235" s="51" t="s">
+        <v>117</v>
+      </c>
+      <c r="C235" s="96">
+        <v>-783.1</v>
+      </c>
+      <c r="D235" s="96">
+        <v>-928.6</v>
+      </c>
+      <c r="E235" s="96">
+        <v>-1178</v>
+      </c>
+      <c r="F235" s="61">
+        <f ca="1">-(F234*F233)</f>
+        <v>-1186.7388060502735</v>
+      </c>
+      <c r="G235" s="61">
+        <f ca="1">-(G234*G233)</f>
+        <v>-1360.3561270727496</v>
+      </c>
+      <c r="H235" s="61">
+        <f ca="1">-(H234*H233)</f>
+        <v>-1368.4662610737391</v>
+      </c>
+      <c r="I235" s="61">
+        <f ca="1">-(I234*I233)</f>
+        <v>-1702.9939480120349</v>
+      </c>
+      <c r="J235" s="61">
+        <f ca="1">-(J234*J233)</f>
+        <v>-1923.7654533592868</v>
+      </c>
+    </row>
+    <row r="236" spans="2:10">
+      <c r="B236" s="20"/>
+    </row>
+    <row r="237" spans="2:10">
+      <c r="B237" s="103" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="238" spans="2:10">
+      <c r="B238" s="47" t="s">
+        <v>69</v>
+      </c>
+      <c r="F238" s="61">
+        <f>E240</f>
+        <v>-108.4</v>
+      </c>
+      <c r="G238" s="61">
+        <f>F240</f>
+        <v>-108.4</v>
+      </c>
+      <c r="H238" s="61">
+        <f>G240</f>
+        <v>-108.4</v>
+      </c>
+      <c r="I238" s="61">
+        <f>H240</f>
+        <v>-108.4</v>
+      </c>
+      <c r="J238" s="61">
+        <f>I240</f>
+        <v>-108.4</v>
+      </c>
+    </row>
+    <row r="239" spans="2:10">
+      <c r="B239" s="90" t="s">
+        <v>118</v>
+      </c>
+      <c r="F239" s="96">
+        <v>0</v>
+      </c>
+      <c r="G239" s="96">
+        <v>0</v>
+      </c>
+      <c r="H239" s="96">
+        <v>0</v>
+      </c>
+      <c r="I239" s="96">
+        <v>0</v>
+      </c>
+      <c r="J239" s="96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="240" spans="2:10">
+      <c r="B240" s="47" t="s">
+        <v>71</v>
+      </c>
+      <c r="D240" s="61">
+        <f>D77</f>
+        <v>-199.4</v>
+      </c>
+      <c r="E240" s="61">
+        <f>E77</f>
+        <v>-108.4</v>
+      </c>
+      <c r="F240" s="61">
+        <f>SUM(F238:F239)</f>
+        <v>-108.4</v>
+      </c>
+      <c r="G240" s="61">
+        <f>SUM(G238:G239)</f>
+        <v>-108.4</v>
+      </c>
+      <c r="H240" s="61">
+        <f>SUM(H238:H239)</f>
+        <v>-108.4</v>
+      </c>
+      <c r="I240" s="61">
+        <f>SUM(I238:I239)</f>
+        <v>-108.4</v>
+      </c>
+      <c r="J240" s="61">
+        <f>SUM(J238:J239)</f>
+        <v>-108.4</v>
+      </c>
+    </row>
+    <row r="241" spans="2:10">
+      <c r="E241" s="61"/>
+    </row>
+    <row r="242" spans="2:10">
+      <c r="B242" s="22" t="s">
+        <v>119</v>
+      </c>
+      <c r="C242" s="29"/>
+      <c r="D242" s="29"/>
+      <c r="E242" s="29"/>
+      <c r="F242" s="29"/>
+      <c r="G242" s="29"/>
+      <c r="H242" s="29"/>
+      <c r="I242" s="29"/>
+      <c r="J242" s="29"/>
+    </row>
+    <row r="243" spans="2:10">
+      <c r="B243" s="64" t="str">
+        <f>B13</f>
+        <v xml:space="preserve">Fiscal year  </v>
+      </c>
+      <c r="C243" s="57"/>
+      <c r="D243" s="57">
+        <f t="shared" ref="D243:J244" si="72">D13</f>
+        <v>2015</v>
+      </c>
+      <c r="E243" s="57">
+        <f t="shared" si="72"/>
+        <v>2016</v>
+      </c>
+      <c r="F243" s="58">
+        <f t="shared" si="72"/>
+        <v>2017</v>
+      </c>
+      <c r="G243" s="58">
+        <f t="shared" si="72"/>
+        <v>2018</v>
+      </c>
+      <c r="H243" s="58">
+        <f t="shared" si="72"/>
+        <v>2019</v>
+      </c>
+      <c r="I243" s="58">
+        <f t="shared" si="72"/>
+        <v>2020</v>
+      </c>
+      <c r="J243" s="58">
+        <f t="shared" si="72"/>
+        <v>2021</v>
+      </c>
+    </row>
+    <row r="244" spans="2:10">
+      <c r="B244" s="24" t="str">
+        <f>B14</f>
+        <v>Fiscal year end date</v>
+      </c>
+      <c r="C244" s="59"/>
+      <c r="D244" s="59">
+        <f t="shared" si="72"/>
+        <v>42274</v>
+      </c>
+      <c r="E244" s="59">
+        <f t="shared" si="72"/>
+        <v>42645</v>
+      </c>
+      <c r="F244" s="59">
+        <f t="shared" si="72"/>
+        <v>43039</v>
+      </c>
+      <c r="G244" s="59">
+        <f t="shared" si="72"/>
+        <v>43404</v>
+      </c>
+      <c r="H244" s="59">
+        <f t="shared" si="72"/>
+        <v>43769</v>
+      </c>
+      <c r="I244" s="59">
+        <f t="shared" si="72"/>
+        <v>44135</v>
+      </c>
+      <c r="J244" s="59">
+        <f t="shared" si="72"/>
+        <v>44500</v>
+      </c>
+    </row>
+    <row r="246" spans="2:10">
+      <c r="B246" s="20" t="s">
+        <v>22</v>
+      </c>
+      <c r="C246" s="104"/>
+      <c r="D246" s="104"/>
+      <c r="E246" s="104"/>
+      <c r="F246" s="38">
+        <f ca="1">F28</f>
+        <v>3141.8531506534109</v>
+      </c>
+      <c r="G246" s="38">
+        <f ca="1">G28</f>
+        <v>3601.499472389487</v>
+      </c>
+      <c r="H246" s="38">
+        <f ca="1">H28</f>
+        <v>3622.9707935709657</v>
+      </c>
+      <c r="I246" s="38">
+        <f ca="1">I28</f>
+        <v>4508.6221785509206</v>
+      </c>
+      <c r="J246" s="38">
+        <f ca="1">J28</f>
+        <v>5093.1076998075459</v>
+      </c>
+    </row>
+    <row r="247" spans="2:10">
+      <c r="B247" s="20" t="s">
+        <v>120</v>
+      </c>
+      <c r="C247" s="104"/>
+      <c r="D247" s="104"/>
+      <c r="E247" s="104"/>
+      <c r="F247" s="79">
+        <f ca="1">F47</f>
+        <v>1102.0749071230769</v>
+      </c>
+      <c r="G247" s="79">
+        <f ca="1">G47</f>
+        <v>1171.3886895991541</v>
+      </c>
+      <c r="H247" s="79">
+        <f ca="1">H47</f>
+        <v>1362.1216253743319</v>
+      </c>
+      <c r="I247" s="79">
+        <f ca="1">I47</f>
+        <v>1477.1209965052913</v>
+      </c>
+      <c r="J247" s="79">
+        <f ca="1">J47</f>
+        <v>1565.0386762257147</v>
+      </c>
+    </row>
+    <row r="248" spans="2:10">
+      <c r="B248" s="20" t="s">
+        <v>37</v>
+      </c>
+      <c r="C248" s="104"/>
+      <c r="D248" s="104"/>
+      <c r="E248" s="104"/>
+      <c r="F248" s="38">
+        <f ca="1">F209</f>
+        <v>240.8319628560927</v>
+      </c>
+      <c r="G248" s="38">
+        <f ca="1">G209</f>
+        <v>262.45523266395764</v>
+      </c>
+      <c r="H248" s="38">
+        <f ca="1">H209</f>
+        <v>295.70893164489956</v>
+      </c>
+      <c r="I248" s="38">
+        <f ca="1">I209</f>
+        <v>315.37483623419502</v>
+      </c>
+      <c r="J248" s="38">
+        <f ca="1">J209</f>
+        <v>344.73322237107175</v>
+      </c>
+    </row>
+    <row r="249" spans="2:10">
+      <c r="B249" s="20" t="s">
+        <v>42</v>
+      </c>
+      <c r="C249" s="38"/>
+      <c r="D249" s="38"/>
+      <c r="E249" s="38"/>
+      <c r="F249" s="38">
+        <f ca="1">-(F97)</f>
+        <v>-66.474071266053215</v>
+      </c>
+      <c r="G249" s="38">
+        <f ca="1">-(G97)</f>
+        <v>-85.197955269137424</v>
+      </c>
+      <c r="H249" s="38">
+        <f ca="1">-(H97)</f>
+        <v>-93.888146706589623</v>
+      </c>
+      <c r="I249" s="38">
+        <f ca="1">-(I97)</f>
+        <v>-101.43601732417812</v>
+      </c>
+      <c r="J249" s="38">
+        <f ca="1">-(J97)</f>
+        <v>-111.5796190565959</v>
+      </c>
+    </row>
+    <row r="250" spans="2:10">
+      <c r="B250" s="20" t="s">
+        <v>43</v>
+      </c>
+      <c r="E250" s="61"/>
+      <c r="F250" s="38">
+        <f ca="1">-(F105)</f>
+        <v>-88.587236447043324</v>
+      </c>
+      <c r="G250" s="38">
+        <f ca="1">-(G105)</f>
+        <v>-116.64840557546313</v>
+      </c>
+      <c r="H250" s="38">
+        <f ca="1">-(H105)</f>
+        <v>-125.18110470486226</v>
+      </c>
+      <c r="I250" s="38">
+        <f ca="1">-(I105)</f>
+        <v>-130.89575081316048</v>
+      </c>
+      <c r="J250" s="38">
+        <f ca="1">-(J105)</f>
+        <v>-139.98573350851871</v>
+      </c>
+    </row>
+    <row r="251" spans="2:10">
+      <c r="B251" s="20" t="s">
+        <v>50</v>
+      </c>
+      <c r="F251" s="38">
+        <f ca="1">F113</f>
+        <v>42.273024525303981</v>
+      </c>
+      <c r="G251" s="38">
+        <f ca="1">G113</f>
+        <v>61.451291909195675</v>
+      </c>
+      <c r="H251" s="38">
+        <f ca="1">H113</f>
+        <v>65.946384511510246</v>
+      </c>
+      <c r="I251" s="38">
+        <f ca="1">I113</f>
+        <v>68.956904753311619</v>
+      </c>
+      <c r="J251" s="38">
+        <f ca="1">J113</f>
+        <v>73.745578694513711</v>
+      </c>
+    </row>
+    <row r="252" spans="2:10">
+      <c r="B252" s="20" t="s">
+        <v>79</v>
+      </c>
+      <c r="F252" s="38">
+        <f ca="1">F121</f>
+        <v>140.34652469380626</v>
+      </c>
+      <c r="G252" s="38">
+        <f ca="1">G121</f>
+        <v>337.68594551876868</v>
+      </c>
+      <c r="H252" s="38">
+        <f ca="1">H121</f>
+        <v>372.12991196168286</v>
+      </c>
+      <c r="I252" s="38">
+        <f ca="1">I121</f>
+        <v>402.04623821742553</v>
+      </c>
+      <c r="J252" s="38">
+        <f ca="1">J121</f>
+        <v>442.25086203916908</v>
+      </c>
+    </row>
+    <row r="253" spans="2:10">
+      <c r="B253" s="20" t="s">
+        <v>45</v>
+      </c>
+      <c r="F253" s="38">
+        <f>-(F168)</f>
+        <v>0</v>
+      </c>
+      <c r="G253" s="38">
+        <f>-(G168)</f>
+        <v>0</v>
+      </c>
+      <c r="H253" s="38">
+        <f>-(H168)</f>
+        <v>0</v>
+      </c>
+      <c r="I253" s="38">
+        <f>-(I168)</f>
+        <v>0</v>
+      </c>
+      <c r="J253" s="38">
+        <f>-(J168)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="254" spans="2:10">
+      <c r="B254" s="37" t="s">
+        <v>94</v>
+      </c>
+      <c r="F254" s="38">
+        <f>-(F173)</f>
+        <v>0</v>
+      </c>
+      <c r="G254" s="38">
+        <f>-(G173)</f>
+        <v>0</v>
+      </c>
+      <c r="H254" s="38">
+        <f>-(H173)</f>
+        <v>0</v>
+      </c>
+      <c r="I254" s="38">
+        <f>-(I173)</f>
+        <v>0</v>
+      </c>
+      <c r="J254" s="38">
+        <f>-(J173)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="255" spans="2:10">
+      <c r="B255" s="37" t="s">
+        <v>48</v>
+      </c>
+      <c r="F255" s="38">
+        <f>-(F178)</f>
+        <v>0</v>
+      </c>
+      <c r="G255" s="38">
+        <f>-(G178)</f>
+        <v>0</v>
+      </c>
+      <c r="H255" s="38">
+        <f>-(H178)</f>
+        <v>0</v>
+      </c>
+      <c r="I255" s="38">
+        <f>-(I178)</f>
+        <v>0</v>
+      </c>
+      <c r="J255" s="38">
+        <f>-(J178)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="256" spans="2:10">
+      <c r="B256" s="20" t="s">
+        <v>95</v>
+      </c>
+      <c r="F256" s="38">
+        <f>F183</f>
+        <v>0</v>
+      </c>
+      <c r="G256" s="38">
+        <f>G183</f>
+        <v>0</v>
+      </c>
+      <c r="H256" s="38">
+        <f>H183</f>
+        <v>0</v>
+      </c>
+      <c r="I256" s="38">
+        <f>I183</f>
+        <v>0</v>
+      </c>
+      <c r="J256" s="38">
+        <f>J183</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="257" spans="2:10">
+      <c r="B257" s="20" t="s">
+        <v>121</v>
+      </c>
+      <c r="F257" s="38">
+        <f>F193</f>
+        <v>0</v>
+      </c>
+      <c r="G257" s="38">
+        <f>G193</f>
+        <v>0</v>
+      </c>
+      <c r="H257" s="38">
+        <f>H193</f>
+        <v>0</v>
+      </c>
+      <c r="I257" s="38">
+        <f>I193</f>
+        <v>0</v>
+      </c>
+      <c r="J257" s="38">
+        <f>J193</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="258" spans="2:10">
+      <c r="B258" s="35" t="s">
+        <v>122</v>
+      </c>
+      <c r="F258" s="105">
+        <f ca="1">SUM(F246:F257)</f>
+        <v>4512.3182621385949</v>
+      </c>
+      <c r="G258" s="105">
+        <f ca="1">SUM(G246:G257)</f>
+        <v>5232.6342712359628</v>
+      </c>
+      <c r="H258" s="105">
+        <f ca="1">SUM(H246:H257)</f>
+        <v>5499.8083956519386</v>
+      </c>
+      <c r="I258" s="105">
+        <f ca="1">SUM(I246:I257)</f>
+        <v>6539.7893861238044</v>
+      </c>
+      <c r="J258" s="105">
+        <f ca="1">SUM(J246:J257)</f>
+        <v>7267.3106865729005</v>
+      </c>
+    </row>
+    <row r="259" spans="2:10">
+      <c r="B259" s="20"/>
+    </row>
+    <row r="260" spans="2:10">
+      <c r="B260" s="20" t="s">
+        <v>123</v>
+      </c>
+      <c r="F260" s="61">
+        <f ca="1">-(F143)</f>
+        <v>-1589.1003450000001</v>
+      </c>
+      <c r="G260" s="61">
+        <f ca="1">-(G143)</f>
+        <v>-1697.1418863922606</v>
+      </c>
+      <c r="H260" s="61">
+        <f ca="1">-(H143)</f>
+        <v>-1736.8288338324423</v>
+      </c>
+      <c r="I260" s="61">
+        <f ca="1">-(I143)</f>
+        <v>-1667.9070547121073</v>
+      </c>
+      <c r="J260" s="61">
+        <f ca="1">-(J143)</f>
+        <v>-1701.2651958063495</v>
+      </c>
+    </row>
+    <row r="261" spans="2:10">
+      <c r="B261" s="20" t="s">
+        <v>124</v>
+      </c>
+      <c r="F261" s="61">
+        <f>-(F131)</f>
+        <v>0</v>
+      </c>
+      <c r="G261" s="61">
+        <f>-(G131)</f>
+        <v>0</v>
+      </c>
+      <c r="H261" s="61">
+        <f>-(H131)</f>
+        <v>0</v>
+      </c>
+      <c r="I261" s="61">
+        <f>-(I131)</f>
+        <v>0</v>
+      </c>
+      <c r="J261" s="61">
+        <f>-(J131)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="262" spans="2:10">
+      <c r="B262" s="35" t="s">
+        <v>125</v>
+      </c>
+      <c r="F262" s="106">
+        <f ca="1">SUM(F260:F261)</f>
+        <v>-1589.1003450000001</v>
+      </c>
+      <c r="G262" s="106">
+        <f ca="1">SUM(G260:G261)</f>
+        <v>-1697.1418863922606</v>
+      </c>
+      <c r="H262" s="106">
+        <f ca="1">SUM(H260:H261)</f>
+        <v>-1736.8288338324423</v>
+      </c>
+      <c r="I262" s="106">
+        <f ca="1">SUM(I260:I261)</f>
+        <v>-1667.9070547121073</v>
+      </c>
+      <c r="J262" s="106">
+        <f ca="1">SUM(J260:J261)</f>
+        <v>-1701.2651958063495</v>
+      </c>
+    </row>
+    <row r="263" spans="2:10">
+      <c r="B263" s="20"/>
+    </row>
+    <row r="264" spans="2:10">
+      <c r="B264" s="20" t="s">
+        <v>53</v>
+      </c>
+      <c r="F264" s="61">
+        <f>F192</f>
+        <v>-400</v>
+      </c>
+      <c r="G264" s="61">
+        <f>G192</f>
+        <v>0</v>
+      </c>
+      <c r="H264" s="61">
+        <f>H192</f>
+        <v>-350</v>
+      </c>
+      <c r="I264" s="61">
+        <f>I192</f>
+        <v>0</v>
+      </c>
+      <c r="J264" s="61">
+        <f>J192</f>
+        <v>-750</v>
+      </c>
+    </row>
+    <row r="265" spans="2:10">
+      <c r="B265" s="20" t="s">
+        <v>117</v>
+      </c>
+      <c r="F265" s="61">
         <f ca="1">F230</f>
         <v>-1186.7388060503572</v>
       </c>
-      <c r="G225" s="61">
+      <c r="G265" s="61">
         <f ca="1">G230</f>
         <v>-1360.3561270707901</v>
       </c>
-      <c r="H225" s="61">
+      <c r="H265" s="61">
         <f ca="1">H230</f>
         <v>-1368.4662610913774</v>
       </c>
-      <c r="I225" s="61">
+      <c r="I265" s="61">
         <f ca="1">I230</f>
         <v>-1702.9939480011442</v>
       </c>
-      <c r="J225" s="61">
+      <c r="J265" s="61">
         <f ca="1">J230</f>
         <v>-1923.7654532858633</v>
       </c>
     </row>
-    <row r="226" spans="2:10">
-      <c r="B226" s="47" t="s">
-        <v>71</v>
-      </c>
-      <c r="D226" s="61">
-        <f>D76</f>
-        <v>5974.8</v>
-      </c>
-      <c r="E226" s="61">
-        <f>E76</f>
-        <v>5949.8</v>
-      </c>
-      <c r="F226" s="61">
-        <f ca="1">SUM(F223:F225)</f>
-        <v>7904.9143446032749</v>
-      </c>
-      <c r="G226" s="61">
-        <f ca="1">SUM(G223:G225)</f>
-        <v>10146.057689916057</v>
-      </c>
-      <c r="H226" s="61">
-        <f ca="1">SUM(H223:H225)</f>
-        <v>12400.562222466415</v>
-      </c>
-      <c r="I226" s="61">
-        <f ca="1">SUM(I223:I225)</f>
-        <v>15206.190452784873</v>
-      </c>
-      <c r="J226" s="61">
-        <f ca="1">SUM(J223:J225)</f>
-        <v>18375.532700167976</v>
-      </c>
-    </row>
-    <row r="227" spans="2:10">
-      <c r="B227" s="20"/>
-    </row>
-    <row r="228" spans="2:10">
-      <c r="B228" s="51" t="s">
-        <v>22</v>
-      </c>
-      <c r="C228" s="61">
-        <f>C28</f>
-        <v>2067.6999999999994</v>
-      </c>
-      <c r="D228" s="61">
-        <f>D28</f>
-        <v>2759.3000000000011</v>
-      </c>
-      <c r="E228" s="61">
-        <f>E28</f>
-        <v>2818.9000000000005</v>
-      </c>
-      <c r="F228" s="61">
-        <f ca="1">F28</f>
-        <v>3141.8531506534109</v>
-      </c>
-      <c r="G228" s="61">
-        <f ca="1">G28</f>
-        <v>3601.499472389487</v>
-      </c>
-      <c r="H228" s="61">
-        <f ca="1">H28</f>
-        <v>3622.9707935709657</v>
-      </c>
-      <c r="I228" s="61">
-        <f ca="1">I28</f>
-        <v>4508.6221785509206</v>
-      </c>
-      <c r="J228" s="61">
-        <f ca="1">J28</f>
-        <v>5093.1076998075459</v>
-      </c>
-    </row>
-    <row r="229" spans="2:10">
-      <c r="B229" s="47" t="s">
-        <v>116</v>
-      </c>
-      <c r="C229" s="14">
-        <f>-(C230/C228)</f>
-        <v>0.37872998984378792</v>
-      </c>
-      <c r="D229" s="14">
-        <f>-(D230/D228)</f>
-        <v>0.33653462834776926</v>
-      </c>
-      <c r="E229" s="14">
-        <f>-(E230/E228)</f>
-        <v>0.41789350455851565</v>
-      </c>
-      <c r="F229" s="62">
-        <f>AVERAGE(C229:E229)</f>
-        <v>0.37771937425002428</v>
-      </c>
-      <c r="G229" s="62">
-        <f>F229</f>
-        <v>0.37771937425002428</v>
-      </c>
-      <c r="H229" s="62">
-        <f t="shared" ref="H229:J229" si="63">G229</f>
-        <v>0.37771937425002428</v>
-      </c>
-      <c r="I229" s="62">
-        <f t="shared" si="63"/>
-        <v>0.37771937425002428</v>
-      </c>
-      <c r="J229" s="62">
-        <f t="shared" si="63"/>
-        <v>0.37771937425002428</v>
-      </c>
-    </row>
-    <row r="230" spans="2:10">
-      <c r="B230" s="51" t="s">
-        <v>117</v>
-      </c>
-      <c r="C230" s="96">
-        <v>-783.1</v>
-      </c>
-      <c r="D230" s="96">
-        <v>-928.6</v>
-      </c>
-      <c r="E230" s="96">
-        <v>-1178</v>
-      </c>
-      <c r="F230" s="61">
-        <f ca="1">-(F229*F228)</f>
-        <v>-1186.7388060502735</v>
-      </c>
-      <c r="G230" s="61">
-        <f ca="1">-(G229*G228)</f>
-        <v>-1360.3561270727496</v>
-      </c>
-      <c r="H230" s="61">
-        <f ca="1">-(H229*H228)</f>
-        <v>-1368.4662610737391</v>
-      </c>
-      <c r="I230" s="61">
-        <f ca="1">-(I229*I228)</f>
-        <v>-1702.9939480120349</v>
-      </c>
-      <c r="J230" s="61">
-        <f ca="1">-(J229*J228)</f>
-        <v>-1923.7654533592868</v>
-      </c>
-    </row>
-    <row r="231" spans="2:10">
-      <c r="B231" s="20"/>
-    </row>
-    <row r="232" spans="2:10">
-      <c r="B232" s="103" t="s">
+    <row r="266" spans="2:10">
+      <c r="B266" s="37" t="s">
+        <v>126</v>
+      </c>
+      <c r="F266" s="61">
+        <f>F208</f>
+        <v>164.06666666666666</v>
+      </c>
+      <c r="G266" s="61">
+        <f>G208</f>
+        <v>164.06666666666666</v>
+      </c>
+      <c r="H266" s="61">
+        <f>H208</f>
+        <v>164.06666666666666</v>
+      </c>
+      <c r="I266" s="61">
+        <f>I208</f>
+        <v>164.06666666666666</v>
+      </c>
+      <c r="J266" s="61">
+        <f>J208</f>
+        <v>164.06666666666666</v>
+      </c>
+    </row>
+    <row r="267" spans="2:10">
+      <c r="B267" s="37" t="s">
+        <v>127</v>
+      </c>
+      <c r="F267" s="41">
+        <f>F218</f>
+        <v>-1715.85</v>
+      </c>
+      <c r="G267" s="41">
+        <f>G218</f>
+        <v>-1715.85</v>
+      </c>
+      <c r="H267" s="41">
+        <f>H218</f>
+        <v>-1715.85</v>
+      </c>
+      <c r="I267" s="41">
+        <f>I218</f>
+        <v>-1715.85</v>
+      </c>
+      <c r="J267" s="41">
+        <f>J218</f>
+        <v>-1715.85</v>
+      </c>
+    </row>
+    <row r="268" spans="2:10">
+      <c r="B268" s="37" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="233" spans="2:10">
-      <c r="B233" s="47" t="s">
-        <v>69</v>
-      </c>
-      <c r="F233" s="61">
-        <f>E235</f>
-        <v>-108.4</v>
-      </c>
-      <c r="G233" s="61">
-        <f>F235</f>
-        <v>-108.4</v>
-      </c>
-      <c r="H233" s="61">
-        <f>G235</f>
-        <v>-108.4</v>
-      </c>
-      <c r="I233" s="61">
-        <f>H235</f>
-        <v>-108.4</v>
-      </c>
-      <c r="J233" s="61">
-        <f>I235</f>
-        <v>-108.4</v>
-      </c>
-    </row>
-    <row r="234" spans="2:10">
-      <c r="B234" s="90" t="s">
-        <v>118</v>
-      </c>
-      <c r="F234" s="96">
-        <v>0</v>
-      </c>
-      <c r="G234" s="96">
-        <v>0</v>
-      </c>
-      <c r="H234" s="96">
-        <v>0</v>
-      </c>
-      <c r="I234" s="96">
-        <v>0</v>
-      </c>
-      <c r="J234" s="96">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="235" spans="2:10">
-      <c r="B235" s="47" t="s">
-        <v>71</v>
-      </c>
-      <c r="D235" s="61">
-        <f>D77</f>
-        <v>-199.4</v>
-      </c>
-      <c r="E235" s="61">
-        <f>E77</f>
-        <v>-108.4</v>
-      </c>
-      <c r="F235" s="61">
-        <f>SUM(F233:F234)</f>
-        <v>-108.4</v>
-      </c>
-      <c r="G235" s="61">
-        <f>SUM(G233:G234)</f>
-        <v>-108.4</v>
-      </c>
-      <c r="H235" s="61">
-        <f>SUM(H233:H234)</f>
-        <v>-108.4</v>
-      </c>
-      <c r="I235" s="61">
-        <f>SUM(I233:I234)</f>
-        <v>-108.4</v>
-      </c>
-      <c r="J235" s="61">
-        <f>SUM(J233:J234)</f>
-        <v>-108.4</v>
-      </c>
-    </row>
-    <row r="236" spans="2:10">
-      <c r="E236" s="61"/>
-    </row>
-    <row r="237" spans="2:10">
-      <c r="B237" s="22" t="s">
-        <v>119</v>
-      </c>
-      <c r="C237" s="29"/>
-      <c r="D237" s="29"/>
-      <c r="E237" s="29"/>
-      <c r="F237" s="29"/>
-      <c r="G237" s="29"/>
-      <c r="H237" s="29"/>
-      <c r="I237" s="29"/>
-      <c r="J237" s="29"/>
-    </row>
-    <row r="238" spans="2:10">
-      <c r="B238" s="64" t="str">
+      <c r="F268" s="61">
+        <f>F239</f>
+        <v>0</v>
+      </c>
+      <c r="G268" s="61">
+        <f>G239</f>
+        <v>0</v>
+      </c>
+      <c r="H268" s="61">
+        <f>H239</f>
+        <v>0</v>
+      </c>
+      <c r="I268" s="61">
+        <f>I239</f>
+        <v>0</v>
+      </c>
+      <c r="J268" s="61">
+        <f>J239</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="269" spans="2:10">
+      <c r="B269" s="20" t="s">
+        <v>52</v>
+      </c>
+      <c r="F269" s="38">
+        <f ca="1">F280</f>
+        <v>0</v>
+      </c>
+      <c r="G269" s="38">
+        <f ca="1">G280</f>
+        <v>0</v>
+      </c>
+      <c r="H269" s="38">
+        <f ca="1">H280</f>
+        <v>0</v>
+      </c>
+      <c r="I269" s="38">
+        <f ca="1">I280</f>
+        <v>0</v>
+      </c>
+      <c r="J269" s="38">
+        <f ca="1">J280</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="270" spans="2:10">
+      <c r="B270" s="35" t="s">
+        <v>128</v>
+      </c>
+      <c r="F270" s="106">
+        <f ca="1">SUM(F264:F269)</f>
+        <v>-3138.5221393836905</v>
+      </c>
+      <c r="G270" s="106">
+        <f ca="1">SUM(G264:G269)</f>
+        <v>-2912.1394604041234</v>
+      </c>
+      <c r="H270" s="106">
+        <f ca="1">SUM(H264:H269)</f>
+        <v>-3270.2495944247107</v>
+      </c>
+      <c r="I270" s="106">
+        <f ca="1">SUM(I264:I269)</f>
+        <v>-3254.7772813344773</v>
+      </c>
+      <c r="J270" s="106">
+        <f ca="1">SUM(J264:J269)</f>
+        <v>-4225.5487866191961</v>
+      </c>
+    </row>
+    <row r="272" spans="2:10">
+      <c r="B272" s="44" t="s">
+        <v>129</v>
+      </c>
+      <c r="F272" s="106">
+        <f ca="1">F258+F262+F270</f>
+        <v>-215.30422224509539</v>
+      </c>
+      <c r="G272" s="106">
+        <f ca="1">G258+G262+G270</f>
+        <v>623.3529244395786</v>
+      </c>
+      <c r="H272" s="106">
+        <f ca="1">H258+H262+H270</f>
+        <v>492.72996739478549</v>
+      </c>
+      <c r="I272" s="106">
+        <f ca="1">I258+I262+I270</f>
+        <v>1617.1050500772199</v>
+      </c>
+      <c r="J272" s="106">
+        <f ca="1">J258+J262+J270</f>
+        <v>1340.4967041473546</v>
+      </c>
+    </row>
+    <row r="274" spans="2:10">
+      <c r="B274" s="22" t="s">
+        <v>130</v>
+      </c>
+      <c r="C274" s="24"/>
+      <c r="D274" s="24"/>
+      <c r="E274" s="24"/>
+      <c r="F274" s="24"/>
+      <c r="G274" s="24"/>
+      <c r="H274" s="24"/>
+      <c r="I274" s="24"/>
+      <c r="J274" s="24"/>
+    </row>
+    <row r="275" spans="2:10">
+      <c r="B275" s="64" t="str">
         <f>B13</f>
         <v xml:space="preserve">Fiscal year  </v>
       </c>
-      <c r="C238" s="57"/>
-      <c r="D238" s="57">
-        <f>D13</f>
+      <c r="C275" s="57"/>
+      <c r="D275" s="57">
+        <f t="shared" ref="D275:J276" si="73">D13</f>
         <v>2015</v>
       </c>
-      <c r="E238" s="57">
-        <f>E13</f>
+      <c r="E275" s="57">
+        <f t="shared" si="73"/>
         <v>2016</v>
       </c>
-      <c r="F238" s="58">
-        <f>F13</f>
+      <c r="F275" s="58">
+        <f t="shared" si="73"/>
         <v>2017</v>
       </c>
-      <c r="G238" s="58">
-        <f>G13</f>
+      <c r="G275" s="58">
+        <f t="shared" si="73"/>
         <v>2018</v>
       </c>
-      <c r="H238" s="58">
-        <f>H13</f>
+      <c r="H275" s="58">
+        <f t="shared" si="73"/>
         <v>2019</v>
       </c>
-      <c r="I238" s="58">
-        <f>I13</f>
+      <c r="I275" s="58">
+        <f t="shared" si="73"/>
         <v>2020</v>
       </c>
-      <c r="J238" s="58">
-        <f>J13</f>
+      <c r="J275" s="58">
+        <f t="shared" si="73"/>
         <v>2021</v>
       </c>
     </row>
-    <row r="239" spans="2:10">
-      <c r="B239" s="24" t="str">
+    <row r="276" spans="2:10">
+      <c r="B276" s="24" t="str">
         <f>B14</f>
         <v>Fiscal year end date</v>
       </c>
-      <c r="C239" s="59"/>
-      <c r="D239" s="59">
-        <f>D14</f>
+      <c r="C276" s="59"/>
+      <c r="D276" s="59">
+        <f t="shared" si="73"/>
         <v>42274</v>
       </c>
-      <c r="E239" s="59">
-        <f>E14</f>
+      <c r="E276" s="59">
+        <f t="shared" si="73"/>
         <v>42645</v>
       </c>
-      <c r="F239" s="59">
-        <f>F14</f>
+      <c r="F276" s="59">
+        <f t="shared" si="73"/>
         <v>43039</v>
       </c>
-      <c r="G239" s="59">
-        <f>G14</f>
+      <c r="G276" s="59">
+        <f t="shared" si="73"/>
         <v>43404</v>
       </c>
-      <c r="H239" s="59">
-        <f>H14</f>
+      <c r="H276" s="59">
+        <f t="shared" si="73"/>
         <v>43769</v>
       </c>
-      <c r="I239" s="59">
-        <f>I14</f>
+      <c r="I276" s="59">
+        <f t="shared" si="73"/>
         <v>44135</v>
       </c>
-      <c r="J239" s="59">
-        <f>J14</f>
+      <c r="J276" s="59">
+        <f t="shared" si="73"/>
         <v>44500</v>
       </c>
     </row>
-    <row r="241" spans="2:10">
-      <c r="B241" s="20" t="s">
-        <v>22</v>
-      </c>
-      <c r="C241" s="104"/>
-      <c r="D241" s="104"/>
-      <c r="E241" s="104"/>
-      <c r="F241" s="38">
-        <f ca="1">F28</f>
-        <v>3141.8531506534109</v>
-      </c>
-      <c r="G241" s="38">
-        <f ca="1">G28</f>
-        <v>3601.499472389487</v>
-      </c>
-      <c r="H241" s="38">
-        <f ca="1">H28</f>
-        <v>3622.9707935709657</v>
-      </c>
-      <c r="I241" s="38">
-        <f ca="1">I28</f>
-        <v>4508.6221785509206</v>
-      </c>
-      <c r="J241" s="38">
-        <f ca="1">J28</f>
-        <v>5093.1076998075459</v>
-      </c>
-    </row>
-    <row r="242" spans="2:10">
-      <c r="B242" s="20" t="s">
-        <v>120</v>
-      </c>
-      <c r="C242" s="104"/>
-      <c r="D242" s="104"/>
-      <c r="E242" s="104"/>
-      <c r="F242" s="79">
-        <f ca="1">F47</f>
-        <v>1102.0749071230769</v>
-      </c>
-      <c r="G242" s="79">
-        <f ca="1">G47</f>
-        <v>1171.3886895991541</v>
-      </c>
-      <c r="H242" s="79">
-        <f ca="1">H47</f>
-        <v>1362.1216253743319</v>
-      </c>
-      <c r="I242" s="79">
-        <f ca="1">I47</f>
-        <v>1477.1209965052913</v>
-      </c>
-      <c r="J242" s="79">
-        <f ca="1">J47</f>
-        <v>1565.0386762257147</v>
-      </c>
-    </row>
-    <row r="243" spans="2:10">
-      <c r="B243" s="20" t="s">
-        <v>37</v>
-      </c>
-      <c r="C243" s="104"/>
-      <c r="D243" s="104"/>
-      <c r="E243" s="104"/>
-      <c r="F243" s="38">
-        <f ca="1">F204</f>
-        <v>240.8319628560927</v>
-      </c>
-      <c r="G243" s="38">
-        <f ca="1">G204</f>
-        <v>262.45523266395764</v>
-      </c>
-      <c r="H243" s="38">
-        <f ca="1">H204</f>
-        <v>295.70893164489956</v>
-      </c>
-      <c r="I243" s="38">
-        <f ca="1">I204</f>
-        <v>315.37483623419502</v>
-      </c>
-      <c r="J243" s="38">
-        <f ca="1">J204</f>
-        <v>344.73322237107175</v>
-      </c>
-    </row>
-    <row r="244" spans="2:10">
-      <c r="B244" s="20" t="s">
-        <v>42</v>
-      </c>
-      <c r="C244" s="38"/>
-      <c r="D244" s="38"/>
-      <c r="E244" s="38"/>
-      <c r="F244" s="38">
-        <f ca="1">-(F97)</f>
-        <v>-66.474071266053215</v>
-      </c>
-      <c r="G244" s="38">
-        <f ca="1">-(G97)</f>
-        <v>-85.197955269137424</v>
-      </c>
-      <c r="H244" s="38">
-        <f ca="1">-(H97)</f>
-        <v>-93.888146706589623</v>
-      </c>
-      <c r="I244" s="38">
-        <f ca="1">-(I97)</f>
-        <v>-101.43601732417812</v>
-      </c>
-      <c r="J244" s="38">
-        <f ca="1">-(J97)</f>
-        <v>-111.5796190565959</v>
-      </c>
-    </row>
-    <row r="245" spans="2:10">
-      <c r="B245" s="20" t="s">
+    <row r="277" spans="2:10">
+      <c r="B277" s="35"/>
+    </row>
+    <row r="278" spans="2:10">
+      <c r="B278" s="35" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="279" spans="2:10">
+      <c r="B279" s="47" t="s">
+        <v>69</v>
+      </c>
+      <c r="F279" s="61">
+        <f>E281</f>
+        <v>0</v>
+      </c>
+      <c r="G279" s="61">
+        <f ca="1">F281</f>
+        <v>0</v>
+      </c>
+      <c r="H279" s="61">
+        <f ca="1">G281</f>
+        <v>0</v>
+      </c>
+      <c r="I279" s="61">
+        <f ca="1">H281</f>
+        <v>0</v>
+      </c>
+      <c r="J279" s="61">
+        <f ca="1">I281</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="280" spans="2:10">
+      <c r="B280" s="90" t="s">
+        <v>70</v>
+      </c>
+      <c r="F280" s="61">
+        <f ca="1">-MIN(F291,F279)</f>
+        <v>0</v>
+      </c>
+      <c r="G280" s="61">
+        <f ca="1">-MIN(G291,G279)</f>
+        <v>0</v>
+      </c>
+      <c r="H280" s="61">
+        <f ca="1">-MIN(H291,H279)</f>
+        <v>0</v>
+      </c>
+      <c r="I280" s="61">
+        <f ca="1">-MIN(I291,I279)</f>
+        <v>0</v>
+      </c>
+      <c r="J280" s="61">
+        <f ca="1">-MIN(J291,J279)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="281" spans="2:10">
+      <c r="B281" s="47" t="s">
+        <v>71</v>
+      </c>
+      <c r="D281" s="61">
+        <f>D68</f>
+        <v>0</v>
+      </c>
+      <c r="E281" s="61">
+        <f>E68</f>
+        <v>0</v>
+      </c>
+      <c r="F281" s="61">
+        <f ca="1">SUM(F279:F280)</f>
+        <v>0</v>
+      </c>
+      <c r="G281" s="61">
+        <f ca="1">SUM(G279:G280)</f>
+        <v>0</v>
+      </c>
+      <c r="H281" s="61">
+        <f ca="1">SUM(H279:H280)</f>
+        <v>0</v>
+      </c>
+      <c r="I281" s="61">
+        <f ca="1">SUM(I279:I280)</f>
+        <v>0</v>
+      </c>
+      <c r="J281" s="61">
+        <f ca="1">SUM(J279:J280)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="282" spans="2:10">
+      <c r="B282" s="47"/>
+    </row>
+    <row r="283" spans="2:10">
+      <c r="B283" s="47" t="s">
+        <v>131</v>
+      </c>
+      <c r="F283" s="61">
+        <f ca="1">F56+F57</f>
+        <v>2302.3613077130967</v>
+      </c>
+      <c r="G283" s="61">
+        <f ca="1">G56+G57</f>
+        <v>2504.2076685576972</v>
+      </c>
+      <c r="H283" s="61">
+        <f ca="1">H56+H57</f>
+        <v>2723.2769199691488</v>
+      </c>
+      <c r="I283" s="61">
+        <f ca="1">I56+I57</f>
+        <v>2955.6086881064875</v>
+      </c>
+      <c r="J283" s="61">
+        <f ca="1">J56+J57</f>
+        <v>3207.1740406716021</v>
+      </c>
+    </row>
+    <row r="284" spans="2:10">
+      <c r="B284" s="47" t="s">
+        <v>132</v>
+      </c>
+      <c r="F284" s="17" t="str">
+        <f ca="1">IF(F281&gt;F283,"OVERDRAWN","OK")</f>
+        <v>OK</v>
+      </c>
+      <c r="G284" s="17" t="str">
+        <f ca="1">IF(G281&gt;G283,"OVERDRAWN","OK")</f>
+        <v>OK</v>
+      </c>
+      <c r="H284" s="17" t="str">
+        <f ca="1">IF(H281&gt;H283,"OVERDRAWN","OK")</f>
+        <v>OK</v>
+      </c>
+      <c r="I284" s="17" t="str">
+        <f ca="1">IF(I281&gt;I283,"OVERDRAWN","OK")</f>
+        <v>OK</v>
+      </c>
+      <c r="J284" s="17" t="str">
+        <f ca="1">IF(J281&gt;J283,"OVERDRAWN","OK")</f>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="285" spans="2:10">
+      <c r="B285" s="20"/>
+    </row>
+    <row r="286" spans="2:10">
+      <c r="B286" s="107" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="287" spans="2:10">
+      <c r="B287" s="47" t="s">
+        <v>69</v>
+      </c>
+      <c r="F287" s="61">
+        <f>E55</f>
+        <v>3404.9000000000005</v>
+      </c>
+      <c r="G287" s="61">
+        <f ca="1">F55</f>
+        <v>3189.5957777555664</v>
+      </c>
+      <c r="H287" s="61">
+        <f ca="1">G55</f>
+        <v>3812.9487021781251</v>
+      </c>
+      <c r="I287" s="61">
+        <f ca="1">H55</f>
+        <v>4305.6786696801646</v>
+      </c>
+      <c r="J287" s="61">
+        <f ca="1">I55</f>
+        <v>5922.7837196953105</v>
+      </c>
+    </row>
+    <row r="288" spans="2:10">
+      <c r="B288" s="47" t="s">
+        <v>134</v>
+      </c>
+      <c r="F288" s="96">
+        <v>250</v>
+      </c>
+      <c r="G288" s="96">
+        <v>250</v>
+      </c>
+      <c r="H288" s="96">
+        <v>250</v>
+      </c>
+      <c r="I288" s="96">
+        <v>250</v>
+      </c>
+      <c r="J288" s="96">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="289" spans="2:10">
+      <c r="B289" s="47" t="s">
+        <v>135</v>
+      </c>
+      <c r="F289" s="61">
+        <f>F287-F288</f>
+        <v>3154.9000000000005</v>
+      </c>
+      <c r="G289" s="61">
+        <f ca="1">G287-G288</f>
+        <v>2939.5957777555664</v>
+      </c>
+      <c r="H289" s="61">
+        <f ca="1">H287-H288</f>
+        <v>3562.9487021781251</v>
+      </c>
+      <c r="I289" s="61">
+        <f ca="1">I287-I288</f>
+        <v>4055.6786696801646</v>
+      </c>
+      <c r="J289" s="61">
+        <f ca="1">J287-J288</f>
+        <v>5672.7837196953105</v>
+      </c>
+    </row>
+    <row r="290" spans="2:10">
+      <c r="B290" s="47" t="s">
+        <v>136</v>
+      </c>
+      <c r="F290" s="61">
+        <f ca="1">SUM(F258,F262,F264:F268)</f>
+        <v>-215.30422224509539</v>
+      </c>
+      <c r="G290" s="61">
+        <f ca="1">SUM(G258,G262,G264:G268)</f>
+        <v>623.3529244395786</v>
+      </c>
+      <c r="H290" s="61">
+        <f ca="1">SUM(H258,H262,H264:H268)</f>
+        <v>492.72996739478549</v>
+      </c>
+      <c r="I290" s="61">
+        <f ca="1">SUM(I258,I262,I264:I268)</f>
+        <v>1617.1050500772194</v>
+      </c>
+      <c r="J290" s="61">
+        <f ca="1">SUM(J258,J262,J264:J268)</f>
+        <v>1340.4967041473542</v>
+      </c>
+    </row>
+    <row r="291" spans="2:10">
+      <c r="B291" s="108" t="s">
+        <v>137</v>
+      </c>
+      <c r="F291" s="61">
+        <f ca="1">SUM(F289:F290)</f>
+        <v>2939.5957777549052</v>
+      </c>
+      <c r="G291" s="61">
+        <f ca="1">SUM(G289:G290)</f>
+        <v>3562.948702195145</v>
+      </c>
+      <c r="H291" s="61">
+        <f ca="1">SUM(H289:H290)</f>
+        <v>4055.6786695729106</v>
+      </c>
+      <c r="I291" s="61">
+        <f ca="1">SUM(I289:I290)</f>
+        <v>5672.7837197573845</v>
+      </c>
+      <c r="J291" s="61">
+        <f ca="1">SUM(J289:J290)</f>
+        <v>7013.2804238426652</v>
+      </c>
+    </row>
+    <row r="292" spans="2:10">
+      <c r="B292" s="20"/>
+    </row>
+    <row r="293" spans="2:10">
+      <c r="B293" s="47" t="s">
+        <v>138</v>
+      </c>
+      <c r="F293" s="100">
+        <v>0.02</v>
+      </c>
+      <c r="G293" s="100">
+        <v>0.02</v>
+      </c>
+      <c r="H293" s="100">
+        <v>0.02</v>
+      </c>
+      <c r="I293" s="100">
+        <v>0.02</v>
+      </c>
+      <c r="J293" s="100">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="294" spans="2:10">
+      <c r="B294" s="47" t="s">
+        <v>139</v>
+      </c>
+      <c r="F294" s="41">
+        <f ca="1">IF($C$10="OFF",F293*AVERAGE(F279,F281),0)</f>
+        <v>0</v>
+      </c>
+      <c r="G294" s="41">
+        <f ca="1">IF($C$10="OFF",G293*AVERAGE(G279,G281),0)</f>
+        <v>0</v>
+      </c>
+      <c r="H294" s="41">
+        <f ca="1">IF($C$10="OFF",H293*AVERAGE(H279,H281),0)</f>
+        <v>0</v>
+      </c>
+      <c r="I294" s="41">
+        <f ca="1">IF($C$10="OFF",I293*AVERAGE(I279,I281),0)</f>
+        <v>0</v>
+      </c>
+      <c r="J294" s="41">
+        <f ca="1">IF($C$10="OFF",J293*AVERAGE(J279,J281),0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="296" spans="2:10">
+      <c r="B296" s="72" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="297" spans="2:10">
+      <c r="B297" s="47" t="s">
+        <v>69</v>
+      </c>
+      <c r="F297" s="61">
+        <f>E299</f>
+        <v>3404.9000000000005</v>
+      </c>
+      <c r="G297" s="61">
+        <f ca="1">F299</f>
+        <v>3189.5957777516192</v>
+      </c>
+      <c r="H297" s="61">
+        <f ca="1">G299</f>
+        <v>3812.9487022550061</v>
+      </c>
+      <c r="I297" s="61">
+        <f ca="1">H299</f>
+        <v>4305.6786693188533</v>
+      </c>
+      <c r="J297" s="61">
+        <f ca="1">I299</f>
+        <v>5922.7837197867511</v>
+      </c>
+    </row>
+    <row r="298" spans="2:10">
+      <c r="B298" s="109" t="s">
+        <v>141</v>
+      </c>
+      <c r="F298" s="61">
+        <f ca="1">F299-F297</f>
+        <v>-215.30422224838139</v>
+      </c>
+      <c r="G298" s="61">
+        <f ca="1">G299-G297</f>
+        <v>623.35292450338693</v>
+      </c>
+      <c r="H298" s="61">
+        <f ca="1">H299-H297</f>
+        <v>492.7299670638472</v>
+      </c>
+      <c r="I298" s="61">
+        <f ca="1">I299-I297</f>
+        <v>1617.1050504678979</v>
+      </c>
+      <c r="J298" s="61">
+        <f ca="1">J299-J297</f>
+        <v>1340.4967062680444</v>
+      </c>
+    </row>
+    <row r="299" spans="2:10">
+      <c r="B299" s="47" t="s">
+        <v>71</v>
+      </c>
+      <c r="D299" s="61">
+        <f t="shared" ref="D299:J299" si="74">D55</f>
+        <v>1923.8999999999999</v>
+      </c>
+      <c r="E299" s="61">
+        <f t="shared" si="74"/>
+        <v>3404.9000000000005</v>
+      </c>
+      <c r="F299" s="61">
+        <f t="shared" ca="1" si="74"/>
+        <v>3189.5957777555664</v>
+      </c>
+      <c r="G299" s="61">
+        <f t="shared" ca="1" si="74"/>
+        <v>3812.9487021781251</v>
+      </c>
+      <c r="H299" s="61">
+        <f t="shared" ca="1" si="74"/>
+        <v>4305.6786696801646</v>
+      </c>
+      <c r="I299" s="61">
+        <f t="shared" ca="1" si="74"/>
+        <v>5922.7837196953105</v>
+      </c>
+      <c r="J299" s="61">
+        <f t="shared" ca="1" si="74"/>
+        <v>7263.2804234677933</v>
+      </c>
+    </row>
+    <row r="300" spans="2:10">
+      <c r="B300" s="47"/>
+    </row>
+    <row r="301" spans="2:10">
+      <c r="B301" s="47" t="s">
+        <v>245</v>
+      </c>
+      <c r="D301" s="110"/>
+      <c r="E301" s="111">
+        <f>E302/E299</f>
+        <v>3.1718993215659783E-2</v>
+      </c>
+      <c r="F301" s="112">
+        <f>E301</f>
+        <v>3.1718993215659783E-2</v>
+      </c>
+      <c r="G301" s="112">
+        <f>F301</f>
+        <v>3.1718993215659783E-2</v>
+      </c>
+      <c r="H301" s="112">
+        <f>G301</f>
+        <v>3.1718993215659783E-2</v>
+      </c>
+      <c r="I301" s="112">
+        <f>H301</f>
+        <v>3.1718993215659783E-2</v>
+      </c>
+      <c r="J301" s="112">
+        <f>I301</f>
+        <v>3.1718993215659783E-2</v>
+      </c>
+    </row>
+    <row r="302" spans="2:10">
+      <c r="B302" s="47" t="s">
+        <v>17</v>
+      </c>
+      <c r="C302" s="61">
+        <f>C23</f>
+        <v>142.69999999999999</v>
+      </c>
+      <c r="D302" s="61">
+        <f>D23</f>
         <v>43</v>
       </c>
-      <c r="E245" s="61"/>
-      <c r="F245" s="38">
-        <f ca="1">-(F105)</f>
-        <v>-88.587236447043324</v>
-      </c>
-      <c r="G245" s="38">
-        <f ca="1">-(G105)</f>
-        <v>-116.64840557546313</v>
-      </c>
-      <c r="H245" s="38">
-        <f ca="1">-(H105)</f>
-        <v>-125.18110470486226</v>
-      </c>
-      <c r="I245" s="38">
-        <f ca="1">-(I105)</f>
-        <v>-130.89575081316048</v>
-      </c>
-      <c r="J245" s="38">
-        <f ca="1">-(J105)</f>
-        <v>-139.98573350851871</v>
-      </c>
-    </row>
-    <row r="246" spans="2:10">
-      <c r="B246" s="20" t="s">
-        <v>50</v>
-      </c>
-      <c r="F246" s="38">
-        <f ca="1">F113</f>
-        <v>42.273024525303981</v>
-      </c>
-      <c r="G246" s="38">
-        <f ca="1">G113</f>
-        <v>61.451291909195675</v>
-      </c>
-      <c r="H246" s="38">
-        <f ca="1">H113</f>
-        <v>65.946384511510246</v>
-      </c>
-      <c r="I246" s="38">
-        <f ca="1">I113</f>
-        <v>68.956904753311619</v>
-      </c>
-      <c r="J246" s="38">
-        <f ca="1">J113</f>
-        <v>73.745578694513711</v>
-      </c>
-    </row>
-    <row r="247" spans="2:10">
-      <c r="B247" s="20" t="s">
-        <v>79</v>
-      </c>
-      <c r="F247" s="38">
-        <f ca="1">F121</f>
-        <v>140.34652469380626</v>
-      </c>
-      <c r="G247" s="38">
-        <f ca="1">G121</f>
-        <v>337.68594551876868</v>
-      </c>
-      <c r="H247" s="38">
-        <f ca="1">H121</f>
-        <v>372.12991196168286</v>
-      </c>
-      <c r="I247" s="38">
-        <f ca="1">I121</f>
-        <v>402.04623821742553</v>
-      </c>
-      <c r="J247" s="38">
-        <f ca="1">J121</f>
-        <v>442.25086203916908</v>
-      </c>
-    </row>
-    <row r="248" spans="2:10">
-      <c r="B248" s="20" t="s">
-        <v>45</v>
-      </c>
-      <c r="F248" s="38">
-        <f>-(F163)</f>
-        <v>0</v>
-      </c>
-      <c r="G248" s="38">
-        <f>-(G163)</f>
-        <v>0</v>
-      </c>
-      <c r="H248" s="38">
-        <f>-(H163)</f>
-        <v>0</v>
-      </c>
-      <c r="I248" s="38">
-        <f>-(I163)</f>
-        <v>0</v>
-      </c>
-      <c r="J248" s="38">
-        <f>-(J163)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="249" spans="2:10">
-      <c r="B249" s="37" t="s">
-        <v>94</v>
-      </c>
-      <c r="F249" s="38">
-        <f>-(F168)</f>
-        <v>0</v>
-      </c>
-      <c r="G249" s="38">
-        <f>-(G168)</f>
-        <v>0</v>
-      </c>
-      <c r="H249" s="38">
-        <f>-(H168)</f>
-        <v>0</v>
-      </c>
-      <c r="I249" s="38">
-        <f>-(I168)</f>
-        <v>0</v>
-      </c>
-      <c r="J249" s="38">
-        <f>-(J168)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="250" spans="2:10">
-      <c r="B250" s="37" t="s">
-        <v>48</v>
-      </c>
-      <c r="F250" s="38">
-        <f>-(F173)</f>
-        <v>0</v>
-      </c>
-      <c r="G250" s="38">
-        <f>-(G173)</f>
-        <v>0</v>
-      </c>
-      <c r="H250" s="38">
-        <f>-(H173)</f>
-        <v>0</v>
-      </c>
-      <c r="I250" s="38">
-        <f>-(I173)</f>
-        <v>0</v>
-      </c>
-      <c r="J250" s="38">
-        <f>-(J173)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="251" spans="2:10">
-      <c r="B251" s="20" t="s">
-        <v>95</v>
-      </c>
-      <c r="F251" s="38">
-        <f>F178</f>
-        <v>0</v>
-      </c>
-      <c r="G251" s="38">
-        <f>G178</f>
-        <v>0</v>
-      </c>
-      <c r="H251" s="38">
-        <f>H178</f>
-        <v>0</v>
-      </c>
-      <c r="I251" s="38">
-        <f>I178</f>
-        <v>0</v>
-      </c>
-      <c r="J251" s="38">
-        <f>J178</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="252" spans="2:10">
-      <c r="B252" s="20" t="s">
-        <v>121</v>
-      </c>
-      <c r="F252" s="38">
-        <f>F188</f>
-        <v>0</v>
-      </c>
-      <c r="G252" s="38">
-        <f>G188</f>
-        <v>0</v>
-      </c>
-      <c r="H252" s="38">
-        <f>H188</f>
-        <v>0</v>
-      </c>
-      <c r="I252" s="38">
-        <f>I188</f>
-        <v>0</v>
-      </c>
-      <c r="J252" s="38">
-        <f>J188</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="253" spans="2:10">
-      <c r="B253" s="35" t="s">
-        <v>122</v>
-      </c>
-      <c r="F253" s="105">
-        <f ca="1">SUM(F241:F252)</f>
-        <v>4512.3182621385949</v>
-      </c>
-      <c r="G253" s="105">
-        <f ca="1">SUM(G241:G252)</f>
-        <v>5232.6342712359628</v>
-      </c>
-      <c r="H253" s="105">
-        <f ca="1">SUM(H241:H252)</f>
-        <v>5499.8083956519386</v>
-      </c>
-      <c r="I253" s="105">
-        <f ca="1">SUM(I241:I252)</f>
-        <v>6539.7893861238044</v>
-      </c>
-      <c r="J253" s="105">
-        <f ca="1">SUM(J241:J252)</f>
-        <v>7267.3106865729005</v>
-      </c>
-    </row>
-    <row r="254" spans="2:10">
-      <c r="B254" s="20"/>
-    </row>
-    <row r="255" spans="2:10">
-      <c r="B255" s="20" t="s">
-        <v>123</v>
-      </c>
-      <c r="F255" s="61">
-        <f ca="1">-(F143)</f>
-        <v>-1589.1003450000001</v>
-      </c>
-      <c r="G255" s="61">
-        <f ca="1">-(G143)</f>
-        <v>-1697.1418863922606</v>
-      </c>
-      <c r="H255" s="61">
-        <f ca="1">-(H143)</f>
-        <v>-1736.8288338324423</v>
-      </c>
-      <c r="I255" s="61">
-        <f ca="1">-(I143)</f>
-        <v>-1667.9070547121073</v>
-      </c>
-      <c r="J255" s="61">
-        <f ca="1">-(J143)</f>
-        <v>-1701.2651958063495</v>
-      </c>
-    </row>
-    <row r="256" spans="2:10">
-      <c r="B256" s="20" t="s">
-        <v>124</v>
-      </c>
-      <c r="F256" s="61">
-        <f>-(F131)</f>
-        <v>0</v>
-      </c>
-      <c r="G256" s="61">
-        <f>-(G131)</f>
-        <v>0</v>
-      </c>
-      <c r="H256" s="61">
-        <f>-(H131)</f>
-        <v>0</v>
-      </c>
-      <c r="I256" s="61">
-        <f>-(I131)</f>
-        <v>0</v>
-      </c>
-      <c r="J256" s="61">
-        <f>-(J131)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="257" spans="2:10">
-      <c r="B257" s="35" t="s">
-        <v>125</v>
-      </c>
-      <c r="F257" s="106">
-        <f ca="1">SUM(F255:F256)</f>
-        <v>-1589.1003450000001</v>
-      </c>
-      <c r="G257" s="106">
-        <f ca="1">SUM(G255:G256)</f>
-        <v>-1697.1418863922606</v>
-      </c>
-      <c r="H257" s="106">
-        <f ca="1">SUM(H255:H256)</f>
-        <v>-1736.8288338324423</v>
-      </c>
-      <c r="I257" s="106">
-        <f ca="1">SUM(I255:I256)</f>
-        <v>-1667.9070547121073</v>
-      </c>
-      <c r="J257" s="106">
-        <f ca="1">SUM(J255:J256)</f>
-        <v>-1701.2651958063495</v>
-      </c>
-    </row>
-    <row r="258" spans="2:10">
-      <c r="B258" s="20"/>
-    </row>
-    <row r="259" spans="2:10">
-      <c r="B259" s="20" t="s">
-        <v>53</v>
-      </c>
-      <c r="F259" s="61">
-        <f>F187</f>
-        <v>-400</v>
-      </c>
-      <c r="G259" s="61">
-        <f>G187</f>
-        <v>0</v>
-      </c>
-      <c r="H259" s="61">
-        <f>H187</f>
-        <v>-350</v>
-      </c>
-      <c r="I259" s="61">
-        <f>I187</f>
-        <v>0</v>
-      </c>
-      <c r="J259" s="61">
-        <f>J187</f>
-        <v>-750</v>
-      </c>
-    </row>
-    <row r="260" spans="2:10">
-      <c r="B260" s="20" t="s">
-        <v>117</v>
-      </c>
-      <c r="F260" s="61">
-        <f ca="1">F225</f>
-        <v>-1186.7388060503572</v>
-      </c>
-      <c r="G260" s="61">
-        <f ca="1">G225</f>
-        <v>-1360.3561270707901</v>
-      </c>
-      <c r="H260" s="61">
-        <f ca="1">H225</f>
-        <v>-1368.4662610913774</v>
-      </c>
-      <c r="I260" s="61">
-        <f ca="1">I225</f>
-        <v>-1702.9939480011442</v>
-      </c>
-      <c r="J260" s="61">
-        <f ca="1">J225</f>
-        <v>-1923.7654532858633</v>
-      </c>
-    </row>
-    <row r="261" spans="2:10">
-      <c r="B261" s="37" t="s">
-        <v>126</v>
-      </c>
-      <c r="F261" s="61">
-        <f>F203</f>
-        <v>164.06666666666666</v>
-      </c>
-      <c r="G261" s="61">
-        <f>G203</f>
-        <v>164.06666666666666</v>
-      </c>
-      <c r="H261" s="61">
-        <f>H203</f>
-        <v>164.06666666666666</v>
-      </c>
-      <c r="I261" s="61">
-        <f>I203</f>
-        <v>164.06666666666666</v>
-      </c>
-      <c r="J261" s="61">
-        <f>J203</f>
-        <v>164.06666666666666</v>
-      </c>
-    </row>
-    <row r="262" spans="2:10">
-      <c r="B262" s="37" t="s">
-        <v>127</v>
-      </c>
-      <c r="F262" s="41">
-        <f>F213</f>
-        <v>-1715.85</v>
-      </c>
-      <c r="G262" s="41">
-        <f>G213</f>
-        <v>-1715.85</v>
-      </c>
-      <c r="H262" s="41">
-        <f>H213</f>
-        <v>-1715.85</v>
-      </c>
-      <c r="I262" s="41">
-        <f>I213</f>
-        <v>-1715.85</v>
-      </c>
-      <c r="J262" s="41">
-        <f>J213</f>
-        <v>-1715.85</v>
-      </c>
-    </row>
-    <row r="263" spans="2:10">
-      <c r="B263" s="37" t="s">
-        <v>59</v>
-      </c>
-      <c r="F263" s="61">
-        <f>F234</f>
-        <v>0</v>
-      </c>
-      <c r="G263" s="61">
-        <f>G234</f>
-        <v>0</v>
-      </c>
-      <c r="H263" s="61">
-        <f>H234</f>
-        <v>0</v>
-      </c>
-      <c r="I263" s="61">
-        <f>I234</f>
-        <v>0</v>
-      </c>
-      <c r="J263" s="61">
-        <f>J234</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="264" spans="2:10">
-      <c r="B264" s="20" t="s">
-        <v>52</v>
-      </c>
-      <c r="F264" s="38">
-        <f ca="1">F275</f>
-        <v>0</v>
-      </c>
-      <c r="G264" s="38">
-        <f ca="1">G275</f>
-        <v>0</v>
-      </c>
-      <c r="H264" s="38">
-        <f ca="1">H275</f>
-        <v>0</v>
-      </c>
-      <c r="I264" s="38">
-        <f ca="1">I275</f>
-        <v>0</v>
-      </c>
-      <c r="J264" s="38">
-        <f ca="1">J275</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="265" spans="2:10">
-      <c r="B265" s="35" t="s">
-        <v>128</v>
-      </c>
-      <c r="F265" s="106">
-        <f ca="1">SUM(F259:F264)</f>
-        <v>-3138.5221393836905</v>
-      </c>
-      <c r="G265" s="106">
-        <f ca="1">SUM(G259:G264)</f>
-        <v>-2912.1394604041234</v>
-      </c>
-      <c r="H265" s="106">
-        <f ca="1">SUM(H259:H264)</f>
-        <v>-3270.2495944247107</v>
-      </c>
-      <c r="I265" s="106">
-        <f ca="1">SUM(I259:I264)</f>
-        <v>-3254.7772813344773</v>
-      </c>
-      <c r="J265" s="106">
-        <f ca="1">SUM(J259:J264)</f>
-        <v>-4225.5487866191961</v>
-      </c>
-    </row>
-    <row r="267" spans="2:10">
-      <c r="B267" s="44" t="s">
-        <v>129</v>
-      </c>
-      <c r="F267" s="106">
-        <f ca="1">F253+F257+F265</f>
-        <v>-215.30422224509539</v>
-      </c>
-      <c r="G267" s="106">
-        <f ca="1">G253+G257+G265</f>
-        <v>623.3529244395786</v>
-      </c>
-      <c r="H267" s="106">
-        <f ca="1">H253+H257+H265</f>
-        <v>492.72996739478549</v>
-      </c>
-      <c r="I267" s="106">
-        <f ca="1">I253+I257+I265</f>
-        <v>1617.1050500772199</v>
-      </c>
-      <c r="J267" s="106">
-        <f ca="1">J253+J257+J265</f>
-        <v>1340.4967041473546</v>
-      </c>
-    </row>
-    <row r="269" spans="2:10">
-      <c r="B269" s="22" t="s">
-        <v>130</v>
-      </c>
-      <c r="C269" s="24"/>
-      <c r="D269" s="24"/>
-      <c r="E269" s="24"/>
-      <c r="F269" s="24"/>
-      <c r="G269" s="24"/>
-      <c r="H269" s="24"/>
-      <c r="I269" s="24"/>
-      <c r="J269" s="24"/>
-    </row>
-    <row r="270" spans="2:10">
-      <c r="B270" s="64" t="str">
+      <c r="E302" s="61">
+        <f>E23</f>
+        <v>108</v>
+      </c>
+      <c r="F302" s="113">
+        <f ca="1">IF($C$10="OFF",AVERAGE(F297,F299)*F301,0)</f>
+        <v>104.58538341766295</v>
+      </c>
+      <c r="G302" s="113">
+        <f ca="1">IF($C$10="OFF",AVERAGE(G297,G299)*G301,0)</f>
+        <v>111.0568304256237</v>
+      </c>
+      <c r="H302" s="113">
+        <f ca="1">IF($C$10="OFF",AVERAGE(H297,H299)*H301,0)</f>
+        <v>128.75734326544074</v>
+      </c>
+      <c r="I302" s="113">
+        <f ca="1">IF($C$10="OFF",AVERAGE(I297,I299)*I301,0)</f>
+        <v>162.21826456188575</v>
+      </c>
+      <c r="J302" s="113">
+        <f ca="1">IF($C$10="OFF",AVERAGE(J297,J299)*J301,0)</f>
+        <v>209.12433955057281</v>
+      </c>
+    </row>
+    <row r="304" spans="2:10">
+      <c r="B304" s="22" t="s">
+        <v>142</v>
+      </c>
+      <c r="C304" s="22"/>
+      <c r="D304" s="22"/>
+      <c r="E304" s="22"/>
+      <c r="F304" s="22"/>
+      <c r="G304" s="22"/>
+      <c r="H304" s="22"/>
+      <c r="I304" s="22"/>
+      <c r="J304" s="22"/>
+    </row>
+    <row r="305" spans="2:10">
+      <c r="B305" s="64" t="str">
         <f>B13</f>
         <v xml:space="preserve">Fiscal year  </v>
       </c>
-      <c r="C270" s="57"/>
-      <c r="D270" s="57">
-        <f>D13</f>
+      <c r="C305" s="57"/>
+      <c r="D305" s="57">
+        <f t="shared" ref="D305:J306" si="75">D13</f>
         <v>2015</v>
       </c>
-      <c r="E270" s="57">
-        <f>E13</f>
+      <c r="E305" s="57">
+        <f t="shared" si="75"/>
         <v>2016</v>
       </c>
-      <c r="F270" s="58">
-        <f>F13</f>
+      <c r="F305" s="58">
+        <f t="shared" si="75"/>
         <v>2017</v>
       </c>
-      <c r="G270" s="58">
-        <f>G13</f>
+      <c r="G305" s="58">
+        <f t="shared" si="75"/>
         <v>2018</v>
       </c>
-      <c r="H270" s="58">
-        <f>H13</f>
+      <c r="H305" s="58">
+        <f t="shared" si="75"/>
         <v>2019</v>
       </c>
-      <c r="I270" s="58">
-        <f>I13</f>
+      <c r="I305" s="58">
+        <f t="shared" si="75"/>
         <v>2020</v>
       </c>
-      <c r="J270" s="58">
-        <f>J13</f>
+      <c r="J305" s="58">
+        <f t="shared" si="75"/>
         <v>2021</v>
       </c>
     </row>
-    <row r="271" spans="2:10">
-      <c r="B271" s="24" t="str">
+    <row r="306" spans="2:10">
+      <c r="B306" s="24" t="str">
         <f>B14</f>
         <v>Fiscal year end date</v>
       </c>
-      <c r="C271" s="59"/>
-      <c r="D271" s="59">
-        <f>D14</f>
+      <c r="C306" s="59"/>
+      <c r="D306" s="59">
+        <f t="shared" si="75"/>
         <v>42274</v>
       </c>
-      <c r="E271" s="59">
-        <f>E14</f>
+      <c r="E306" s="59">
+        <f t="shared" si="75"/>
         <v>42645</v>
       </c>
-      <c r="F271" s="59">
-        <f>F14</f>
+      <c r="F306" s="59">
+        <f t="shared" si="75"/>
         <v>43039</v>
       </c>
-      <c r="G271" s="59">
-        <f>G14</f>
+      <c r="G306" s="59">
+        <f t="shared" si="75"/>
         <v>43404</v>
       </c>
-      <c r="H271" s="59">
-        <f>H14</f>
+      <c r="H306" s="59">
+        <f t="shared" si="75"/>
         <v>43769</v>
       </c>
-      <c r="I271" s="59">
-        <f>I14</f>
+      <c r="I306" s="59">
+        <f t="shared" si="75"/>
         <v>44135</v>
       </c>
-      <c r="J271" s="59">
-        <f>J14</f>
+      <c r="J306" s="59">
+        <f t="shared" si="75"/>
         <v>44500</v>
       </c>
     </row>
-    <row r="272" spans="2:10">
-      <c r="B272" s="35"/>
-    </row>
-    <row r="273" spans="2:10">
-      <c r="B273" s="35" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="274" spans="2:10">
-      <c r="B274" s="47" t="s">
+    <row r="308" spans="2:10">
+      <c r="B308" s="35" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="309" spans="2:10">
+      <c r="B309" s="20" t="s">
         <v>69</v>
       </c>
-      <c r="F274" s="61">
-        <f>E276</f>
-        <v>0</v>
-      </c>
-      <c r="G274" s="61">
-        <f ca="1">F276</f>
-        <v>0</v>
-      </c>
-      <c r="H274" s="61">
-        <f ca="1">G276</f>
-        <v>0</v>
-      </c>
-      <c r="I274" s="61">
-        <f ca="1">H276</f>
-        <v>0</v>
-      </c>
-      <c r="J274" s="61">
-        <f ca="1">I276</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="275" spans="2:10">
-      <c r="B275" s="90" t="s">
-        <v>70</v>
-      </c>
-      <c r="F275" s="61">
-        <f ca="1">-MIN(F286,F274)</f>
-        <v>0</v>
-      </c>
-      <c r="G275" s="61">
-        <f ca="1">-MIN(G286,G274)</f>
-        <v>0</v>
-      </c>
-      <c r="H275" s="61">
-        <f ca="1">-MIN(H286,H274)</f>
-        <v>0</v>
-      </c>
-      <c r="I275" s="61">
-        <f ca="1">-MIN(I286,I274)</f>
-        <v>0</v>
-      </c>
-      <c r="J275" s="61">
-        <f ca="1">-MIN(J286,J274)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="276" spans="2:10">
-      <c r="B276" s="47" t="s">
+      <c r="F309" s="56">
+        <f>E312</f>
+        <v>1455.4</v>
+      </c>
+      <c r="G309" s="56">
+        <f>F312</f>
+        <v>1429.3877363200977</v>
+      </c>
+      <c r="H309" s="56">
+        <f>G312</f>
+        <v>1406.8151108127447</v>
+      </c>
+      <c r="I309" s="56">
+        <f>H312</f>
+        <v>1386.8393360274765</v>
+      </c>
+      <c r="J309" s="56">
+        <f>I312</f>
+        <v>1369.161659226354</v>
+      </c>
+    </row>
+    <row r="310" spans="2:10">
+      <c r="B310" s="109" t="s">
+        <v>143</v>
+      </c>
+      <c r="F310" s="219">
+        <f>F212/F316</f>
+        <v>2.7502198939387785</v>
+      </c>
+      <c r="G310" s="219">
+        <f>G212/G316</f>
+        <v>2.3865544534179484</v>
+      </c>
+      <c r="H310" s="219">
+        <f>H212/H316</f>
+        <v>2.1119950915203085</v>
+      </c>
+      <c r="I310" s="219">
+        <f>I212/I316</f>
+        <v>1.869022204885229</v>
+      </c>
+      <c r="J310" s="219">
+        <f>J212/J316</f>
+        <v>1.6540019512258666</v>
+      </c>
+    </row>
+    <row r="311" spans="2:10">
+      <c r="B311" s="109" t="s">
+        <v>144</v>
+      </c>
+      <c r="F311" s="61">
+        <f>F221/F316</f>
+        <v>-28.762483573841038</v>
+      </c>
+      <c r="G311" s="61">
+        <f>G221/G316</f>
+        <v>-24.959179960771152</v>
+      </c>
+      <c r="H311" s="61">
+        <f>H221/H316</f>
+        <v>-22.087769876788631</v>
+      </c>
+      <c r="I311" s="61">
+        <f>I221/I316</f>
+        <v>-19.546699006007639</v>
+      </c>
+      <c r="J311" s="61">
+        <f>J221/J316</f>
+        <v>-17.297963722130657</v>
+      </c>
+    </row>
+    <row r="312" spans="2:10">
+      <c r="B312" s="20" t="s">
         <v>71</v>
       </c>
-      <c r="D276" s="61">
-        <f>D68</f>
-        <v>0</v>
-      </c>
-      <c r="E276" s="61">
-        <f>E68</f>
-        <v>0</v>
-      </c>
-      <c r="F276" s="61">
-        <f ca="1">SUM(F274:F275)</f>
-        <v>0</v>
-      </c>
-      <c r="G276" s="61">
-        <f ca="1">SUM(G274:G275)</f>
-        <v>0</v>
-      </c>
-      <c r="H276" s="61">
-        <f ca="1">SUM(H274:H275)</f>
-        <v>0</v>
-      </c>
-      <c r="I276" s="61">
-        <f ca="1">SUM(I274:I275)</f>
-        <v>0</v>
-      </c>
-      <c r="J276" s="61">
-        <f ca="1">SUM(J274:J275)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="277" spans="2:10">
-      <c r="B277" s="47"/>
-    </row>
-    <row r="278" spans="2:10">
-      <c r="B278" s="47" t="s">
-        <v>131</v>
-      </c>
-      <c r="F278" s="61">
-        <f ca="1">F56+F57</f>
-        <v>2302.3613077130967</v>
-      </c>
-      <c r="G278" s="61">
-        <f ca="1">G56+G57</f>
-        <v>2504.2076685576972</v>
-      </c>
-      <c r="H278" s="61">
-        <f ca="1">H56+H57</f>
-        <v>2723.2769199691488</v>
-      </c>
-      <c r="I278" s="61">
-        <f ca="1">I56+I57</f>
-        <v>2955.6086881064875</v>
-      </c>
-      <c r="J278" s="61">
-        <f ca="1">J56+J57</f>
-        <v>3207.1740406716021</v>
-      </c>
-    </row>
-    <row r="279" spans="2:10">
-      <c r="B279" s="47" t="s">
-        <v>132</v>
-      </c>
-      <c r="F279" s="17" t="str">
-        <f ca="1">IF(F276&gt;F278,"OVERDRAWN","OK")</f>
-        <v>OK</v>
-      </c>
-      <c r="G279" s="17" t="str">
-        <f ca="1">IF(G276&gt;G278,"OVERDRAWN","OK")</f>
-        <v>OK</v>
-      </c>
-      <c r="H279" s="17" t="str">
-        <f ca="1">IF(H276&gt;H278,"OVERDRAWN","OK")</f>
-        <v>OK</v>
-      </c>
-      <c r="I279" s="17" t="str">
-        <f ca="1">IF(I276&gt;I278,"OVERDRAWN","OK")</f>
-        <v>OK</v>
-      </c>
-      <c r="J279" s="17" t="str">
-        <f ca="1">IF(J276&gt;J278,"OVERDRAWN","OK")</f>
-        <v>OK</v>
-      </c>
-    </row>
-    <row r="280" spans="2:10">
-      <c r="B280" s="20"/>
-    </row>
-    <row r="281" spans="2:10">
-      <c r="B281" s="107" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="282" spans="2:10">
-      <c r="B282" s="47" t="s">
-        <v>69</v>
-      </c>
-      <c r="F282" s="61">
-        <f>E55</f>
-        <v>3404.9000000000005</v>
-      </c>
-      <c r="G282" s="61">
-        <f ca="1">F55</f>
-        <v>3189.5957777555664</v>
-      </c>
-      <c r="H282" s="61">
-        <f ca="1">G55</f>
-        <v>3812.9487021781251</v>
-      </c>
-      <c r="I282" s="61">
-        <f ca="1">H55</f>
-        <v>4305.6786696801646</v>
-      </c>
-      <c r="J282" s="61">
-        <f ca="1">I55</f>
-        <v>5922.7837196953105</v>
-      </c>
-    </row>
-    <row r="283" spans="2:10">
-      <c r="B283" s="47" t="s">
-        <v>134</v>
-      </c>
-      <c r="F283" s="96">
-        <v>250</v>
-      </c>
-      <c r="G283" s="96">
-        <v>250</v>
-      </c>
-      <c r="H283" s="96">
-        <v>250</v>
-      </c>
-      <c r="I283" s="96">
-        <v>250</v>
-      </c>
-      <c r="J283" s="96">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="284" spans="2:10">
-      <c r="B284" s="47" t="s">
-        <v>135</v>
-      </c>
-      <c r="F284" s="61">
-        <f>F282-F283</f>
-        <v>3154.9000000000005</v>
-      </c>
-      <c r="G284" s="61">
-        <f ca="1">G282-G283</f>
-        <v>2939.5957777555664</v>
-      </c>
-      <c r="H284" s="61">
-        <f ca="1">H282-H283</f>
-        <v>3562.9487021781251</v>
-      </c>
-      <c r="I284" s="61">
-        <f ca="1">I282-I283</f>
-        <v>4055.6786696801646</v>
-      </c>
-      <c r="J284" s="61">
-        <f ca="1">J282-J283</f>
-        <v>5672.7837196953105</v>
-      </c>
-    </row>
-    <row r="285" spans="2:10">
-      <c r="B285" s="47" t="s">
-        <v>136</v>
-      </c>
-      <c r="F285" s="61">
-        <f ca="1">SUM(F253,F257,F259:F263)</f>
-        <v>-215.30422224509539</v>
-      </c>
-      <c r="G285" s="61">
-        <f ca="1">SUM(G253,G257,G259:G263)</f>
-        <v>623.3529244395786</v>
-      </c>
-      <c r="H285" s="61">
-        <f ca="1">SUM(H253,H257,H259:H263)</f>
-        <v>492.72996739478549</v>
-      </c>
-      <c r="I285" s="61">
-        <f ca="1">SUM(I253,I257,I259:I263)</f>
-        <v>1617.1050500772194</v>
-      </c>
-      <c r="J285" s="61">
-        <f ca="1">SUM(J253,J257,J259:J263)</f>
-        <v>1340.4967041473542</v>
-      </c>
-    </row>
-    <row r="286" spans="2:10">
-      <c r="B286" s="108" t="s">
-        <v>137</v>
-      </c>
-      <c r="F286" s="61">
-        <f ca="1">SUM(F284:F285)</f>
-        <v>2939.5957777549052</v>
-      </c>
-      <c r="G286" s="61">
-        <f ca="1">SUM(G284:G285)</f>
-        <v>3562.948702195145</v>
-      </c>
-      <c r="H286" s="61">
-        <f ca="1">SUM(H284:H285)</f>
-        <v>4055.6786695729106</v>
-      </c>
-      <c r="I286" s="61">
-        <f ca="1">SUM(I284:I285)</f>
-        <v>5672.7837197573845</v>
-      </c>
-      <c r="J286" s="61">
-        <f ca="1">SUM(J284:J285)</f>
-        <v>7013.2804238426652</v>
-      </c>
-    </row>
-    <row r="287" spans="2:10">
-      <c r="B287" s="20"/>
-    </row>
-    <row r="288" spans="2:10">
-      <c r="B288" s="47" t="s">
-        <v>138</v>
-      </c>
-      <c r="F288" s="100">
-        <v>0.02</v>
-      </c>
-      <c r="G288" s="100">
-        <v>0.02</v>
-      </c>
-      <c r="H288" s="100">
-        <v>0.02</v>
-      </c>
-      <c r="I288" s="100">
-        <v>0.02</v>
-      </c>
-      <c r="J288" s="100">
-        <v>0.02</v>
-      </c>
-    </row>
-    <row r="289" spans="2:10">
-      <c r="B289" s="47" t="s">
-        <v>139</v>
-      </c>
-      <c r="F289" s="41">
-        <f ca="1">IF($C$10="OFF",F288*AVERAGE(F274,F276),0)</f>
-        <v>0</v>
-      </c>
-      <c r="G289" s="41">
-        <f ca="1">IF($C$10="OFF",G288*AVERAGE(G274,G276),0)</f>
-        <v>0</v>
-      </c>
-      <c r="H289" s="41">
-        <f ca="1">IF($C$10="OFF",H288*AVERAGE(H274,H276),0)</f>
-        <v>0</v>
-      </c>
-      <c r="I289" s="41">
-        <f ca="1">IF($C$10="OFF",I288*AVERAGE(I274,I276),0)</f>
-        <v>0</v>
-      </c>
-      <c r="J289" s="41">
-        <f ca="1">IF($C$10="OFF",J288*AVERAGE(J274,J276),0)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="291" spans="2:10">
-      <c r="B291" s="72" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="292" spans="2:10">
-      <c r="B292" s="47" t="s">
-        <v>69</v>
-      </c>
-      <c r="F292" s="61">
-        <f>E294</f>
-        <v>3404.9000000000005</v>
-      </c>
-      <c r="G292" s="61">
-        <f ca="1">F294</f>
-        <v>3189.5957777516192</v>
-      </c>
-      <c r="H292" s="61">
-        <f ca="1">G294</f>
-        <v>3812.9487022550061</v>
-      </c>
-      <c r="I292" s="61">
-        <f ca="1">H294</f>
-        <v>4305.6786693188533</v>
-      </c>
-      <c r="J292" s="61">
-        <f ca="1">I294</f>
-        <v>5922.7837197867511</v>
-      </c>
-    </row>
-    <row r="293" spans="2:10">
-      <c r="B293" s="109" t="s">
-        <v>141</v>
-      </c>
-      <c r="F293" s="61">
-        <f ca="1">F294-F292</f>
-        <v>-215.30422224838139</v>
-      </c>
-      <c r="G293" s="61">
-        <f ca="1">G294-G292</f>
-        <v>623.35292450338693</v>
-      </c>
-      <c r="H293" s="61">
-        <f ca="1">H294-H292</f>
-        <v>492.7299670638472</v>
-      </c>
-      <c r="I293" s="61">
-        <f ca="1">I294-I292</f>
-        <v>1617.1050504678979</v>
-      </c>
-      <c r="J293" s="61">
-        <f ca="1">J294-J292</f>
-        <v>1340.4967062680444</v>
-      </c>
-    </row>
-    <row r="294" spans="2:10">
-      <c r="B294" s="47" t="s">
-        <v>71</v>
-      </c>
-      <c r="D294" s="61">
-        <f>D55</f>
-        <v>1923.8999999999999</v>
-      </c>
-      <c r="E294" s="61">
-        <f>E55</f>
-        <v>3404.9000000000005</v>
-      </c>
-      <c r="F294" s="61">
-        <f ca="1">F55</f>
-        <v>3189.5957777555664</v>
-      </c>
-      <c r="G294" s="61">
-        <f ca="1">G55</f>
-        <v>3812.9487021781251</v>
-      </c>
-      <c r="H294" s="61">
-        <f ca="1">H55</f>
-        <v>4305.6786696801646</v>
-      </c>
-      <c r="I294" s="61">
-        <f ca="1">I55</f>
-        <v>5922.7837196953105</v>
-      </c>
-      <c r="J294" s="61">
-        <f ca="1">J55</f>
-        <v>7263.2804234677933</v>
-      </c>
-    </row>
-    <row r="295" spans="2:10">
-      <c r="B295" s="47"/>
-    </row>
-    <row r="296" spans="2:10">
-      <c r="B296" s="47" t="s">
-        <v>245</v>
-      </c>
-      <c r="D296" s="110"/>
-      <c r="E296" s="111">
-        <f>E297/E294</f>
-        <v>3.1718993215659783E-2</v>
-      </c>
-      <c r="F296" s="112">
-        <f>E296</f>
-        <v>3.1718993215659783E-2</v>
-      </c>
-      <c r="G296" s="112">
-        <f>F296</f>
-        <v>3.1718993215659783E-2</v>
-      </c>
-      <c r="H296" s="112">
-        <f>G296</f>
-        <v>3.1718993215659783E-2</v>
-      </c>
-      <c r="I296" s="112">
-        <f>H296</f>
-        <v>3.1718993215659783E-2</v>
-      </c>
-      <c r="J296" s="112">
-        <f>I296</f>
-        <v>3.1718993215659783E-2</v>
-      </c>
-    </row>
-    <row r="297" spans="2:10">
-      <c r="B297" s="47" t="s">
-        <v>17</v>
-      </c>
-      <c r="C297" s="61">
-        <f>C23</f>
-        <v>142.69999999999999</v>
-      </c>
-      <c r="D297" s="61">
-        <f>D23</f>
-        <v>43</v>
-      </c>
-      <c r="E297" s="61">
-        <f>E23</f>
-        <v>108</v>
-      </c>
-      <c r="F297" s="113">
-        <f ca="1">IF($C$10="OFF",AVERAGE(F292,F294)*F296,0)</f>
-        <v>104.58538341766295</v>
-      </c>
-      <c r="G297" s="113">
-        <f ca="1">IF($C$10="OFF",AVERAGE(G292,G294)*G296,0)</f>
-        <v>111.0568304256237</v>
-      </c>
-      <c r="H297" s="113">
-        <f ca="1">IF($C$10="OFF",AVERAGE(H292,H294)*H296,0)</f>
-        <v>128.75734326544074</v>
-      </c>
-      <c r="I297" s="113">
-        <f ca="1">IF($C$10="OFF",AVERAGE(I292,I294)*I296,0)</f>
-        <v>162.21826456188575</v>
-      </c>
-      <c r="J297" s="113">
-        <f ca="1">IF($C$10="OFF",AVERAGE(J292,J294)*J296,0)</f>
-        <v>209.12433955057281</v>
-      </c>
-    </row>
-    <row r="299" spans="2:10">
-      <c r="B299" s="22" t="s">
-        <v>142</v>
-      </c>
-      <c r="C299" s="22"/>
-      <c r="D299" s="22"/>
-      <c r="E299" s="22"/>
-      <c r="F299" s="22"/>
-      <c r="G299" s="22"/>
-      <c r="H299" s="22"/>
-      <c r="I299" s="22"/>
-      <c r="J299" s="22"/>
-    </row>
-    <row r="300" spans="2:10">
-      <c r="B300" s="64" t="str">
-        <f>B13</f>
-        <v xml:space="preserve">Fiscal year  </v>
-      </c>
-      <c r="C300" s="57"/>
-      <c r="D300" s="57">
-        <f>D13</f>
-        <v>2015</v>
-      </c>
-      <c r="E300" s="57">
-        <f>E13</f>
-        <v>2016</v>
-      </c>
-      <c r="F300" s="58">
-        <f>F13</f>
-        <v>2017</v>
-      </c>
-      <c r="G300" s="58">
-        <f>G13</f>
-        <v>2018</v>
-      </c>
-      <c r="H300" s="58">
-        <f>H13</f>
-        <v>2019</v>
-      </c>
-      <c r="I300" s="58">
-        <f>I13</f>
-        <v>2020</v>
-      </c>
-      <c r="J300" s="58">
-        <f>J13</f>
-        <v>2021</v>
-      </c>
-    </row>
-    <row r="301" spans="2:10">
-      <c r="B301" s="24" t="str">
-        <f>B14</f>
-        <v>Fiscal year end date</v>
-      </c>
-      <c r="C301" s="59"/>
-      <c r="D301" s="59">
-        <f>D14</f>
-        <v>42274</v>
-      </c>
-      <c r="E301" s="59">
-        <f>E14</f>
-        <v>42645</v>
-      </c>
-      <c r="F301" s="59">
-        <f>F14</f>
-        <v>43039</v>
-      </c>
-      <c r="G301" s="59">
-        <f>G14</f>
-        <v>43404</v>
-      </c>
-      <c r="H301" s="59">
-        <f>H14</f>
-        <v>43769</v>
-      </c>
-      <c r="I301" s="59">
-        <f>I14</f>
-        <v>44135</v>
-      </c>
-      <c r="J301" s="59">
-        <f>J14</f>
-        <v>44500</v>
-      </c>
-    </row>
-    <row r="303" spans="2:10">
-      <c r="B303" s="35" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="304" spans="2:10">
-      <c r="B304" s="20" t="s">
-        <v>69</v>
-      </c>
-      <c r="F304" s="56">
-        <f>E307</f>
+      <c r="E312" s="40">
         <v>1455.4</v>
       </c>
-      <c r="G304" s="56">
-        <f>F307</f>
+      <c r="F312" s="56">
+        <f>SUM(F309:F311)</f>
         <v>1429.3877363200977</v>
       </c>
-      <c r="H304" s="56">
-        <f>G307</f>
+      <c r="G312" s="56">
+        <f>SUM(G309:G311)</f>
         <v>1406.8151108127447</v>
       </c>
-      <c r="I304" s="56">
-        <f>H307</f>
+      <c r="H312" s="56">
+        <f>SUM(H309:H311)</f>
         <v>1386.8393360274765</v>
       </c>
-      <c r="J304" s="56">
-        <f>I307</f>
+      <c r="I312" s="56">
+        <f>SUM(I309:I311)</f>
         <v>1369.161659226354</v>
       </c>
-    </row>
-    <row r="305" spans="2:10">
-      <c r="B305" s="109" t="s">
-        <v>143</v>
-      </c>
-      <c r="F305" s="219">
-        <f>F207/F311</f>
-        <v>2.7502198939387785</v>
-      </c>
-      <c r="G305" s="219">
-        <f>G207/G311</f>
-        <v>2.3865544534179484</v>
-      </c>
-      <c r="H305" s="219">
-        <f>H207/H311</f>
-        <v>2.1119950915203085</v>
-      </c>
-      <c r="I305" s="219">
-        <f>I207/I311</f>
-        <v>1.869022204885229</v>
-      </c>
-      <c r="J305" s="219">
-        <f>J207/J311</f>
-        <v>1.6540019512258666</v>
-      </c>
-    </row>
-    <row r="306" spans="2:10">
-      <c r="B306" s="109" t="s">
-        <v>144</v>
-      </c>
-      <c r="F306" s="61">
-        <f>F216/F311</f>
-        <v>-28.762483573841038</v>
-      </c>
-      <c r="G306" s="61">
-        <f>G216/G311</f>
-        <v>-24.959179960771152</v>
-      </c>
-      <c r="H306" s="61">
-        <f>H216/H311</f>
-        <v>-22.087769876788631</v>
-      </c>
-      <c r="I306" s="61">
-        <f>I216/I311</f>
-        <v>-19.546699006007639</v>
-      </c>
-      <c r="J306" s="61">
-        <f>J216/J311</f>
-        <v>-17.297963722130657</v>
-      </c>
-    </row>
-    <row r="307" spans="2:10">
-      <c r="B307" s="20" t="s">
-        <v>71</v>
-      </c>
-      <c r="E307" s="40">
-        <v>1455.4</v>
-      </c>
-      <c r="F307" s="56">
-        <f>SUM(F304:F306)</f>
-        <v>1429.3877363200977</v>
-      </c>
-      <c r="G307" s="56">
-        <f>SUM(G304:G306)</f>
-        <v>1406.8151108127447</v>
-      </c>
-      <c r="H307" s="56">
-        <f>SUM(H304:H306)</f>
-        <v>1386.8393360274765</v>
-      </c>
-      <c r="I307" s="56">
-        <f>SUM(I304:I306)</f>
-        <v>1369.161659226354</v>
-      </c>
-      <c r="J307" s="56">
-        <f>SUM(J304:J306)</f>
+      <c r="J312" s="56">
+        <f>SUM(J309:J311)</f>
         <v>1353.5176974554493</v>
       </c>
     </row>
-    <row r="308" spans="2:10">
-      <c r="B308" s="35"/>
-    </row>
-    <row r="309" spans="2:10">
-      <c r="B309" s="47" t="s">
+    <row r="313" spans="2:10">
+      <c r="B313" s="35"/>
+    </row>
+    <row r="314" spans="2:10">
+      <c r="B314" s="47" t="s">
         <v>145</v>
       </c>
-      <c r="C309" s="43">
+      <c r="C314" s="43">
         <f>C37</f>
         <v>1.3549760859595097</v>
       </c>
-      <c r="D309" s="43">
+      <c r="D314" s="43">
         <f>D37</f>
         <v>1.8219902206951242</v>
       </c>
-      <c r="E309" s="43">
+      <c r="E314" s="43">
         <f>E37</f>
         <v>1.8952714064707075</v>
       </c>
-      <c r="F309" s="17">
+      <c r="F314" s="17">
         <v>2.1</v>
       </c>
-      <c r="G309" s="17">
+      <c r="G314" s="17">
         <v>2.42</v>
       </c>
-      <c r="H309" s="114">
-        <f>G309*(1+H310)</f>
+      <c r="H314" s="114">
+        <f>G314*(1+H315)</f>
         <v>2.7345999999999995</v>
       </c>
-      <c r="I309" s="114">
-        <f>H309*(1+I310)</f>
+      <c r="I314" s="114">
+        <f>H314*(1+I315)</f>
         <v>3.0900979999999989</v>
       </c>
-      <c r="J309" s="114">
-        <f>I309*(1+J310)</f>
+      <c r="J314" s="114">
+        <f>I314*(1+J315)</f>
         <v>3.4918107399999982</v>
       </c>
     </row>
-    <row r="310" spans="2:10">
-      <c r="B310" s="47" t="s">
+    <row r="315" spans="2:10">
+      <c r="B315" s="47" t="s">
         <v>146</v>
       </c>
-      <c r="D310" s="14">
-        <f>D309/C309-1</f>
+      <c r="D315" s="14">
+        <f>D314/C314-1</f>
         <v>0.34466596095303337</v>
       </c>
-      <c r="E310" s="14">
-        <f>E309/D309-1</f>
+      <c r="E315" s="14">
+        <f>E314/D314-1</f>
         <v>4.0220405654880498E-2</v>
       </c>
-      <c r="F310" s="14">
-        <f>F309/E309-1</f>
+      <c r="F315" s="14">
+        <f>F314/E314-1</f>
         <v>0.10802072612414348</v>
       </c>
-      <c r="G310" s="14">
-        <f>G309/F309-1</f>
+      <c r="G315" s="14">
+        <f>G314/F314-1</f>
         <v>0.15238095238095228</v>
       </c>
-      <c r="H310" s="115">
+      <c r="H315" s="115">
         <v>0.13</v>
       </c>
-      <c r="I310" s="115">
+      <c r="I315" s="115">
         <v>0.13</v>
       </c>
-      <c r="J310" s="115">
+      <c r="J315" s="115">
         <v>0.13</v>
       </c>
     </row>
-    <row r="311" spans="2:10">
-      <c r="B311" s="47" t="s">
+    <row r="316" spans="2:10">
+      <c r="B316" s="47" t="s">
         <v>147</v>
       </c>
-      <c r="E311" s="6">
+      <c r="E316" s="6">
         <f>C7</f>
         <v>53.84</v>
       </c>
-      <c r="F311" s="116">
-        <f>E311*(1+F310)</f>
+      <c r="F316" s="116">
+        <f>E316*(1+F315)</f>
         <v>59.655835894523889</v>
       </c>
-      <c r="G311" s="116">
-        <f>F311*(1+G310)</f>
+      <c r="G316" s="116">
+        <f>F316*(1+G315)</f>
         <v>68.746248983213235</v>
       </c>
-      <c r="H311" s="116">
-        <f>G311*(1+H310)</f>
+      <c r="H316" s="116">
+        <f>G316*(1+H315)</f>
         <v>77.68326135103095</v>
       </c>
-      <c r="I311" s="116">
-        <f>H311*(1+I310)</f>
+      <c r="I316" s="116">
+        <f>H316*(1+I315)</f>
         <v>87.782085326664969</v>
       </c>
-      <c r="J311" s="116">
-        <f>I311*(1+J310)</f>
+      <c r="J316" s="116">
+        <f>I316*(1+J315)</f>
         <v>99.193756419131404</v>
       </c>
     </row>
-    <row r="313" spans="2:10">
-      <c r="B313" s="22" t="s">
+    <row r="318" spans="2:10">
+      <c r="B318" s="22" t="s">
         <v>148</v>
       </c>
-      <c r="C313" s="22"/>
-      <c r="D313" s="22"/>
-      <c r="E313" s="22"/>
-      <c r="F313" s="22"/>
-      <c r="G313" s="22"/>
-      <c r="H313" s="22"/>
-      <c r="I313" s="22"/>
-      <c r="J313" s="22"/>
-    </row>
-    <row r="314" spans="2:10">
-      <c r="B314" s="44"/>
-    </row>
-    <row r="315" spans="2:10" ht="15" thickBot="1">
-      <c r="B315" s="117" t="s">
+      <c r="C318" s="22"/>
+      <c r="D318" s="22"/>
+      <c r="E318" s="22"/>
+      <c r="F318" s="22"/>
+      <c r="G318" s="22"/>
+      <c r="H318" s="22"/>
+      <c r="I318" s="22"/>
+      <c r="J318" s="22"/>
+    </row>
+    <row r="319" spans="2:10">
+      <c r="B319" s="44"/>
+    </row>
+    <row r="320" spans="2:10" ht="15" thickBot="1">
+      <c r="B320" s="117" t="s">
         <v>251</v>
       </c>
-      <c r="C315" s="117"/>
-      <c r="D315" s="118"/>
-      <c r="E315" s="118"/>
-      <c r="F315" s="118"/>
-      <c r="G315" s="118"/>
-      <c r="H315" s="118"/>
-    </row>
-    <row r="316" spans="2:10">
-      <c r="D316" s="119" t="s">
+      <c r="C320" s="117"/>
+      <c r="D320" s="118"/>
+      <c r="E320" s="118"/>
+      <c r="F320" s="118"/>
+      <c r="G320" s="118"/>
+      <c r="H320" s="118"/>
+    </row>
+    <row r="321" spans="2:10">
+      <c r="D321" s="119" t="s">
         <v>149</v>
       </c>
-      <c r="E316" s="119"/>
-      <c r="F316" s="119"/>
-      <c r="G316" s="119"/>
-      <c r="H316" s="119"/>
-    </row>
-    <row r="317" spans="2:10" ht="15" thickBot="1">
-      <c r="C317" s="120">
+      <c r="E321" s="119"/>
+      <c r="F321" s="119"/>
+      <c r="G321" s="119"/>
+      <c r="H321" s="119"/>
+    </row>
+    <row r="322" spans="2:10" ht="15" thickBot="1">
+      <c r="C322" s="120">
         <f ca="1">F37</f>
         <v>2.1550369571150054</v>
       </c>
-      <c r="D317" s="121">
-        <f>E317-0.02</f>
+      <c r="D322" s="121">
+        <f>E322-0.02</f>
         <v>2.4999999999999998E-2</v>
       </c>
-      <c r="E317" s="121">
-        <f>F317-0.02</f>
+      <c r="E322" s="121">
+        <f>F322-0.02</f>
         <v>4.4999999999999998E-2</v>
       </c>
-      <c r="F317" s="121">
+      <c r="F322" s="121">
         <v>6.5000000000000002E-2</v>
       </c>
-      <c r="G317" s="121">
-        <f>F317+0.02</f>
+      <c r="G322" s="121">
+        <f>F322+0.02</f>
         <v>8.5000000000000006E-2</v>
       </c>
-      <c r="H317" s="121">
-        <f>G317+0.02</f>
+      <c r="H322" s="121">
+        <f>G322+0.02</f>
         <v>0.10500000000000001</v>
       </c>
     </row>
-    <row r="318" spans="2:10">
-      <c r="B318" s="122" t="s">
+    <row r="323" spans="2:10">
+      <c r="B323" s="122" t="s">
         <v>150</v>
       </c>
-      <c r="C318" s="123">
-        <f>C320-0.01</f>
+      <c r="C323" s="123">
+        <f>C325-0.01</f>
         <v>0.59799999999999998</v>
       </c>
-      <c r="D318" s="124">
-        <f t="dataTable" ref="D318:H323" dt2D="1" dtr="1" r1="F40" r2="F41" ca="1"/>
+      <c r="D323" s="124">
+        <f t="dataTable" ref="D323:H328" dt2D="1" dtr="1" r1="F40" r2="F41" ca="1"/>
         <v>1.9741767639857857</v>
       </c>
-      <c r="E318" s="124">
+      <c r="E323" s="124">
         <v>2.0105114885629649</v>
       </c>
-      <c r="F318" s="124">
+      <c r="F323" s="124">
         <v>2.0468462131441059</v>
       </c>
-      <c r="G318" s="124">
+      <c r="G323" s="124">
         <v>2.0831809377252473</v>
       </c>
-      <c r="H318" s="124">
+      <c r="H323" s="124">
         <v>2.1195156623063904</v>
       </c>
     </row>
-    <row r="319" spans="2:10">
-      <c r="B319" s="122" t="s">
+    <row r="324" spans="2:10">
+      <c r="B324" s="122" t="s">
         <v>151</v>
       </c>
-      <c r="C319" s="123">
-        <f>C320-0.005</f>
+      <c r="C324" s="123">
+        <f>C325-0.005</f>
         <v>0.60299999999999998</v>
       </c>
-      <c r="D319" s="124">
+      <c r="D324" s="124">
         <v>2.0262403849090567</v>
       </c>
-      <c r="E319" s="124">
+      <c r="E324" s="124">
         <v>2.0635909850178225</v>
       </c>
-      <c r="F319" s="124">
+      <c r="F324" s="124">
         <v>2.1009415851292017</v>
       </c>
-      <c r="G319" s="124">
+      <c r="G324" s="124">
         <v>2.1382921852405805</v>
       </c>
-      <c r="H319" s="124">
+      <c r="H324" s="124">
         <v>2.1756427853519602</v>
       </c>
     </row>
-    <row r="320" spans="2:10">
-      <c r="B320" s="122" t="s">
+    <row r="325" spans="2:10">
+      <c r="B325" s="122" t="s">
         <v>152</v>
       </c>
-      <c r="C320" s="123">
+      <c r="C325" s="123">
         <v>0.60799999999999998</v>
       </c>
-      <c r="D320" s="124">
+      <c r="D325" s="124">
         <v>2.078304005833767</v>
       </c>
-      <c r="E320" s="124">
+      <c r="E325" s="124">
         <v>2.1166704814726818</v>
       </c>
-      <c r="F320" s="124">
+      <c r="F325" s="124">
         <v>2.1550369571142967</v>
       </c>
-      <c r="G320" s="124">
+      <c r="G325" s="124">
         <v>2.1934034327559133</v>
       </c>
-      <c r="H320" s="124">
+      <c r="H325" s="124">
         <v>2.2317699083975295</v>
       </c>
     </row>
-    <row r="321" spans="2:10">
-      <c r="B321" s="122"/>
-      <c r="C321" s="123">
-        <f>C320+0.005</f>
+    <row r="326" spans="2:10">
+      <c r="B326" s="122"/>
+      <c r="C326" s="123">
+        <f>C325+0.005</f>
         <v>0.61299999999999999</v>
       </c>
-      <c r="D321" s="124">
+      <c r="D326" s="124">
         <v>2.1303676267584764</v>
       </c>
-      <c r="E321" s="124">
+      <c r="E326" s="124">
         <v>2.1697499779275398</v>
       </c>
-      <c r="F321" s="124">
+      <c r="F326" s="124">
         <v>2.2091323290993925</v>
       </c>
-      <c r="G321" s="124">
+      <c r="G326" s="124">
         <v>2.2485146802712448</v>
       </c>
-      <c r="H321" s="124">
+      <c r="H326" s="124">
         <v>2.2878970314430989</v>
       </c>
     </row>
-    <row r="322" spans="2:10">
-      <c r="C322" s="123">
-        <f t="shared" ref="C322:C323" si="64">C321+0.005</f>
+    <row r="327" spans="2:10">
+      <c r="C327" s="123">
+        <f t="shared" ref="C327:C328" si="76">C326+0.005</f>
         <v>0.61799999999999999</v>
       </c>
-      <c r="D322" s="124">
+      <c r="D327" s="124">
         <v>2.1824312476831853</v>
       </c>
-      <c r="E322" s="124">
+      <c r="E327" s="124">
         <v>2.2228294743823991</v>
       </c>
-      <c r="F322" s="124">
+      <c r="F327" s="124">
         <v>2.2632277010844879</v>
       </c>
-      <c r="G322" s="124">
+      <c r="G327" s="124">
         <v>2.303625927786578</v>
       </c>
-      <c r="H322" s="124">
+      <c r="H327" s="124">
         <v>2.3440241544886677</v>
       </c>
     </row>
-    <row r="323" spans="2:10">
-      <c r="C323" s="123">
-        <f t="shared" si="64"/>
+    <row r="328" spans="2:10">
+      <c r="C328" s="123">
+        <f t="shared" si="76"/>
         <v>0.623</v>
       </c>
-      <c r="D323" s="124">
+      <c r="D328" s="124">
         <v>2.2344948686078951</v>
       </c>
-      <c r="E323" s="124">
+      <c r="E328" s="124">
         <v>2.275908970837258</v>
       </c>
-      <c r="F323" s="124">
+      <c r="F328" s="124">
         <v>2.3173230730695837</v>
       </c>
-      <c r="G323" s="124">
+      <c r="G328" s="124">
         <v>2.35873717530191</v>
       </c>
-      <c r="H323" s="124">
+      <c r="H328" s="124">
         <v>2.4001512775342366</v>
       </c>
     </row>
-    <row r="325" spans="2:10">
-      <c r="B325" s="22" t="s">
+    <row r="330" spans="2:10">
+      <c r="B330" s="22" t="s">
         <v>153</v>
       </c>
-      <c r="C325" s="22"/>
-      <c r="D325" s="22"/>
-      <c r="E325" s="22"/>
-      <c r="F325" s="22"/>
-      <c r="G325" s="22"/>
-      <c r="H325" s="22"/>
-      <c r="I325" s="22"/>
-      <c r="J325" s="22"/>
-    </row>
-    <row r="326" spans="2:10">
-      <c r="B326" s="64" t="s">
+      <c r="C330" s="22"/>
+      <c r="D330" s="22"/>
+      <c r="E330" s="22"/>
+      <c r="F330" s="22"/>
+      <c r="G330" s="22"/>
+      <c r="H330" s="22"/>
+      <c r="I330" s="22"/>
+      <c r="J330" s="22"/>
+    </row>
+    <row r="331" spans="2:10">
+      <c r="B331" s="64" t="s">
         <v>9</v>
       </c>
-      <c r="C326" s="57"/>
-      <c r="D326" s="57">
+      <c r="C331" s="57"/>
+      <c r="D331" s="57">
         <v>2012</v>
       </c>
-      <c r="E326" s="57">
+      <c r="E331" s="57">
         <v>2013</v>
       </c>
-      <c r="F326" s="58">
+      <c r="F331" s="58">
         <v>2014</v>
       </c>
-      <c r="G326" s="58">
+      <c r="G331" s="58">
         <v>2015</v>
       </c>
-      <c r="H326" s="58">
+      <c r="H331" s="58">
         <v>2016</v>
       </c>
-      <c r="I326" s="58">
+      <c r="I331" s="58">
         <v>2017</v>
       </c>
-      <c r="J326" s="58">
+      <c r="J331" s="58">
         <v>2018</v>
       </c>
     </row>
-    <row r="327" spans="2:10">
-      <c r="B327" s="24" t="s">
+    <row r="332" spans="2:10">
+      <c r="B332" s="24" t="s">
         <v>10</v>
       </c>
-      <c r="C327" s="59"/>
-      <c r="D327" s="59">
+      <c r="C332" s="59"/>
+      <c r="D332" s="59">
         <v>41181</v>
       </c>
-      <c r="E327" s="59">
+      <c r="E332" s="59">
         <v>41545</v>
       </c>
-      <c r="F327" s="59">
+      <c r="F332" s="59">
         <v>41912</v>
       </c>
-      <c r="G327" s="59">
+      <c r="G332" s="59">
         <v>42277</v>
       </c>
-      <c r="H327" s="59">
+      <c r="H332" s="59">
         <v>42643</v>
       </c>
-      <c r="I327" s="59">
+      <c r="I332" s="59">
         <v>43008</v>
       </c>
-      <c r="J327" s="59">
+      <c r="J332" s="59">
         <v>43373</v>
       </c>
     </row>
-    <row r="328" spans="2:10" ht="15" thickBot="1"/>
-    <row r="329" spans="2:10" ht="15" thickBot="1">
-      <c r="B329" s="126" t="s">
+    <row r="333" spans="2:10" ht="15" thickBot="1"/>
+    <row r="334" spans="2:10" ht="15" thickBot="1">
+      <c r="B334" s="126" t="s">
         <v>154</v>
       </c>
-      <c r="C329" s="18"/>
-      <c r="D329" s="18"/>
-      <c r="E329" s="127" t="s">
+      <c r="C334" s="18"/>
+      <c r="D334" s="18"/>
+      <c r="E334" s="127" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="330" spans="2:10">
-      <c r="F330" s="20"/>
-      <c r="G330" s="20"/>
-      <c r="H330" s="20"/>
-      <c r="I330" s="20"/>
-      <c r="J330" s="20"/>
-    </row>
-    <row r="331" spans="2:10">
-      <c r="B331" s="47" t="s">
+    <row r="335" spans="2:10">
+      <c r="F335" s="20"/>
+      <c r="G335" s="20"/>
+      <c r="H335" s="20"/>
+      <c r="I335" s="20"/>
+      <c r="J335" s="20"/>
+    </row>
+    <row r="336" spans="2:10">
+      <c r="B336" s="47" t="s">
         <v>29</v>
       </c>
-      <c r="F331" s="93">
-        <f t="shared" ref="F331:J334" ca="1" si="65">OFFSET(F$336,MATCH($E$329,$B$337:$B$339,0)+MATCH($B331,$B$336:$B$351,0)-1,0)</f>
+      <c r="F336" s="93">
+        <f ca="1">OFFSET(F$341,MATCH($E$334,$B$342:$B$344,0)+MATCH($B336,$B$341:$B$356,0)-1,0)</f>
         <v>6.5000000000000002E-2</v>
       </c>
-      <c r="G331" s="93">
-        <f t="shared" ca="1" si="65"/>
+      <c r="G336" s="93">
+        <f ca="1">OFFSET(G$341,MATCH($E$334,$B$342:$B$344,0)+MATCH($B336,$B$341:$B$356,0)-1,0)</f>
         <v>0.10199999999999999</v>
       </c>
-      <c r="H331" s="93">
-        <f t="shared" ca="1" si="65"/>
+      <c r="H336" s="93">
+        <f ca="1">OFFSET(H$341,MATCH($E$334,$B$342:$B$344,0)+MATCH($B336,$B$341:$B$356,0)-1,0)</f>
         <v>0.10199999999999999</v>
       </c>
-      <c r="I331" s="93">
-        <f t="shared" ca="1" si="65"/>
+      <c r="I336" s="93">
+        <f ca="1">OFFSET(I$341,MATCH($E$334,$B$342:$B$344,0)+MATCH($B336,$B$341:$B$356,0)-1,0)</f>
         <v>0.1</v>
       </c>
-      <c r="J331" s="93">
-        <f t="shared" ca="1" si="65"/>
+      <c r="J336" s="93">
+        <f ca="1">OFFSET(J$341,MATCH($E$334,$B$342:$B$344,0)+MATCH($B336,$B$341:$B$356,0)-1,0)</f>
         <v>0.1</v>
       </c>
     </row>
-    <row r="332" spans="2:10">
-      <c r="B332" s="47" t="s">
+    <row r="337" spans="2:10">
+      <c r="B337" s="47" t="s">
         <v>31</v>
       </c>
-      <c r="F332" s="93">
-        <f t="shared" ca="1" si="65"/>
+      <c r="F337" s="93">
+        <f ca="1">OFFSET(F$341,MATCH($E$334,$B$342:$B$344,0)+MATCH($B337,$B$341:$B$356,0)-1,0)</f>
         <v>0.60799999999999998</v>
       </c>
-      <c r="G332" s="93">
-        <f t="shared" ca="1" si="65"/>
+      <c r="G337" s="93">
+        <f ca="1">OFFSET(G$341,MATCH($E$334,$B$342:$B$344,0)+MATCH($B337,$B$341:$B$356,0)-1,0)</f>
         <v>0.61599999999999999</v>
       </c>
-      <c r="H332" s="93">
-        <f t="shared" ca="1" si="65"/>
+      <c r="H337" s="93">
+        <f ca="1">OFFSET(H$341,MATCH($E$334,$B$342:$B$344,0)+MATCH($B337,$B$341:$B$356,0)-1,0)</f>
         <v>0.624</v>
       </c>
-      <c r="I332" s="93">
-        <f t="shared" ca="1" si="65"/>
+      <c r="I337" s="93">
+        <f ca="1">OFFSET(I$341,MATCH($E$334,$B$342:$B$344,0)+MATCH($B337,$B$341:$B$356,0)-1,0)</f>
         <v>0.63200000000000001</v>
       </c>
-      <c r="J332" s="93">
-        <f t="shared" ca="1" si="65"/>
+      <c r="J337" s="93">
+        <f ca="1">OFFSET(J$341,MATCH($E$334,$B$342:$B$344,0)+MATCH($B337,$B$341:$B$356,0)-1,0)</f>
         <v>0.64</v>
       </c>
     </row>
-    <row r="333" spans="2:10">
-      <c r="B333" s="51" t="s">
+    <row r="338" spans="2:10">
+      <c r="B338" s="51" t="s">
         <v>32</v>
       </c>
-      <c r="F333" s="93">
-        <f t="shared" ca="1" si="65"/>
-        <v>0</v>
-      </c>
-      <c r="G333" s="93">
-        <f t="shared" ca="1" si="65"/>
-        <v>0</v>
-      </c>
-      <c r="H333" s="93">
-        <f t="shared" ca="1" si="65"/>
-        <v>0</v>
-      </c>
-      <c r="I333" s="93">
-        <f t="shared" ca="1" si="65"/>
-        <v>0</v>
-      </c>
-      <c r="J333" s="93">
-        <f t="shared" ca="1" si="65"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="334" spans="2:10">
-      <c r="B334" s="47" t="s">
+      <c r="F338" s="93">
+        <f ca="1">OFFSET(F$341,MATCH($E$334,$B$342:$B$344,0)+MATCH($B338,$B$341:$B$356,0)-1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="G338" s="93">
+        <f ca="1">OFFSET(G$341,MATCH($E$334,$B$342:$B$344,0)+MATCH($B338,$B$341:$B$356,0)-1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="H338" s="93">
+        <f ca="1">OFFSET(H$341,MATCH($E$334,$B$342:$B$344,0)+MATCH($B338,$B$341:$B$356,0)-1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="I338" s="93">
+        <f ca="1">OFFSET(I$341,MATCH($E$334,$B$342:$B$344,0)+MATCH($B338,$B$341:$B$356,0)-1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="J338" s="93">
+        <f ca="1">OFFSET(J$341,MATCH($E$334,$B$342:$B$344,0)+MATCH($B338,$B$341:$B$356,0)-1,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="339" spans="2:10">
+      <c r="B339" s="47" t="s">
         <v>33</v>
       </c>
-      <c r="F334" s="93">
-        <f t="shared" ca="1" si="65"/>
+      <c r="F339" s="93">
+        <f ca="1">OFFSET(F$341,MATCH($E$334,$B$342:$B$344,0)+MATCH($B339,$B$341:$B$356,0)-1,0)</f>
         <v>0.42</v>
       </c>
-      <c r="G334" s="93">
-        <f t="shared" ca="1" si="65"/>
+      <c r="G339" s="93">
+        <f ca="1">OFFSET(G$341,MATCH($E$334,$B$342:$B$344,0)+MATCH($B339,$B$341:$B$356,0)-1,0)</f>
         <v>0.41899999999999998</v>
       </c>
-      <c r="H334" s="93">
-        <f t="shared" ca="1" si="65"/>
+      <c r="H339" s="93">
+        <f ca="1">OFFSET(H$341,MATCH($E$334,$B$342:$B$344,0)+MATCH($B339,$B$341:$B$356,0)-1,0)</f>
         <v>0.44500000000000001</v>
       </c>
-      <c r="I334" s="93">
-        <f t="shared" ca="1" si="65"/>
+      <c r="I339" s="93">
+        <f ca="1">OFFSET(I$341,MATCH($E$334,$B$342:$B$344,0)+MATCH($B339,$B$341:$B$356,0)-1,0)</f>
         <v>0.42799999999999999</v>
       </c>
-      <c r="J334" s="93">
-        <f t="shared" ca="1" si="65"/>
+      <c r="J339" s="93">
+        <f ca="1">OFFSET(J$341,MATCH($E$334,$B$342:$B$344,0)+MATCH($B339,$B$341:$B$356,0)-1,0)</f>
         <v>0.43099999999999999</v>
       </c>
     </row>
-    <row r="336" spans="2:10">
-      <c r="B336" s="108" t="s">
+    <row r="341" spans="2:10">
+      <c r="B341" s="108" t="s">
         <v>29</v>
-      </c>
-    </row>
-    <row r="337" spans="2:10">
-      <c r="B337" s="128" t="s">
-        <v>156</v>
-      </c>
-      <c r="F337" s="62">
-        <v>0.11</v>
-      </c>
-      <c r="G337" s="62">
-        <v>0.11</v>
-      </c>
-      <c r="H337" s="62">
-        <v>0.11</v>
-      </c>
-      <c r="I337" s="62">
-        <v>0.11</v>
-      </c>
-      <c r="J337" s="62">
-        <v>0.11</v>
-      </c>
-    </row>
-    <row r="338" spans="2:10">
-      <c r="B338" s="128" t="s">
-        <v>155</v>
-      </c>
-      <c r="F338" s="62">
-        <v>6.5000000000000002E-2</v>
-      </c>
-      <c r="G338" s="62">
-        <v>0.10199999999999999</v>
-      </c>
-      <c r="H338" s="62">
-        <v>0.10199999999999999</v>
-      </c>
-      <c r="I338" s="62">
-        <v>0.1</v>
-      </c>
-      <c r="J338" s="62">
-        <v>0.1</v>
-      </c>
-    </row>
-    <row r="339" spans="2:10">
-      <c r="B339" s="128" t="s">
-        <v>157</v>
-      </c>
-      <c r="F339" s="62">
-        <v>7.0000000000000007E-2</v>
-      </c>
-      <c r="G339" s="62">
-        <v>7.0000000000000007E-2</v>
-      </c>
-      <c r="H339" s="62">
-        <v>7.0000000000000007E-2</v>
-      </c>
-      <c r="I339" s="62">
-        <v>7.0000000000000007E-2</v>
-      </c>
-      <c r="J339" s="62">
-        <v>7.0000000000000007E-2</v>
-      </c>
-    </row>
-    <row r="340" spans="2:10">
-      <c r="B340" s="108" t="s">
-        <v>31</v>
-      </c>
-      <c r="F340" s="129"/>
-      <c r="G340" s="129"/>
-      <c r="H340" s="129"/>
-      <c r="I340" s="129"/>
-      <c r="J340" s="129"/>
-    </row>
-    <row r="341" spans="2:10">
-      <c r="B341" s="128" t="s">
-        <v>156</v>
-      </c>
-      <c r="F341" s="62">
-        <v>0.62</v>
-      </c>
-      <c r="G341" s="62">
-        <v>0.62</v>
-      </c>
-      <c r="H341" s="62">
-        <v>0.65</v>
-      </c>
-      <c r="I341" s="62">
-        <v>0.65</v>
-      </c>
-      <c r="J341" s="62">
-        <v>0.65</v>
       </c>
     </row>
     <row r="342" spans="2:10">
       <c r="B342" s="128" t="s">
-        <v>155</v>
-      </c>
-      <c r="F342" s="130">
-        <v>0.60799999999999998</v>
+        <v>156</v>
+      </c>
+      <c r="F342" s="62">
+        <v>0.11</v>
       </c>
       <c r="G342" s="62">
-        <f>F342+0.008</f>
-        <v>0.61599999999999999</v>
+        <v>0.11</v>
       </c>
       <c r="H342" s="62">
-        <f t="shared" ref="H342:J342" si="66">G342+0.008</f>
-        <v>0.624</v>
+        <v>0.11</v>
       </c>
       <c r="I342" s="62">
-        <f t="shared" si="66"/>
-        <v>0.63200000000000001</v>
+        <v>0.11</v>
       </c>
       <c r="J342" s="62">
-        <f t="shared" si="66"/>
-        <v>0.64</v>
+        <v>0.11</v>
       </c>
     </row>
     <row r="343" spans="2:10">
       <c r="B343" s="128" t="s">
+        <v>155</v>
+      </c>
+      <c r="F343" s="62">
+        <v>6.5000000000000002E-2</v>
+      </c>
+      <c r="G343" s="62">
+        <v>0.10199999999999999</v>
+      </c>
+      <c r="H343" s="62">
+        <v>0.10199999999999999</v>
+      </c>
+      <c r="I343" s="62">
+        <v>0.1</v>
+      </c>
+      <c r="J343" s="62">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="344" spans="2:10">
+      <c r="B344" s="128" t="s">
         <v>157</v>
       </c>
-      <c r="F343" s="62">
-        <v>0.61</v>
-      </c>
-      <c r="G343" s="62">
-        <v>0.61</v>
-      </c>
-      <c r="H343" s="62">
-        <v>0.61</v>
-      </c>
-      <c r="I343" s="62">
-        <v>0.61</v>
-      </c>
-      <c r="J343" s="62">
-        <v>0.61</v>
-      </c>
-    </row>
-    <row r="344" spans="2:10">
-      <c r="B344" s="131" t="s">
-        <v>32</v>
-      </c>
-      <c r="F344" s="129"/>
-      <c r="G344" s="129"/>
-      <c r="H344" s="129"/>
-      <c r="I344" s="129"/>
-      <c r="J344" s="129"/>
+      <c r="F344" s="62">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="G344" s="62">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="H344" s="62">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="I344" s="62">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="J344" s="62">
+        <v>7.0000000000000007E-2</v>
+      </c>
     </row>
     <row r="345" spans="2:10">
-      <c r="B345" s="128" t="s">
-        <v>156</v>
-      </c>
-      <c r="F345" s="62">
-        <v>0</v>
-      </c>
-      <c r="G345" s="62">
-        <f>F345</f>
-        <v>0</v>
-      </c>
-      <c r="H345" s="62">
-        <f t="shared" ref="H345:J345" si="67">G345</f>
-        <v>0</v>
-      </c>
-      <c r="I345" s="62">
-        <f t="shared" si="67"/>
-        <v>0</v>
-      </c>
-      <c r="J345" s="62">
-        <f t="shared" si="67"/>
-        <v>0</v>
-      </c>
+      <c r="B345" s="108" t="s">
+        <v>31</v>
+      </c>
+      <c r="F345" s="129"/>
+      <c r="G345" s="129"/>
+      <c r="H345" s="129"/>
+      <c r="I345" s="129"/>
+      <c r="J345" s="129"/>
     </row>
     <row r="346" spans="2:10">
       <c r="B346" s="128" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="F346" s="62">
-        <v>0</v>
+        <v>0.62</v>
       </c>
       <c r="G346" s="62">
-        <v>0</v>
+        <v>0.62</v>
       </c>
       <c r="H346" s="62">
-        <v>0</v>
+        <v>0.65</v>
       </c>
       <c r="I346" s="62">
-        <v>0</v>
+        <v>0.65</v>
       </c>
       <c r="J346" s="62">
-        <v>0</v>
+        <v>0.65</v>
       </c>
     </row>
     <row r="347" spans="2:10">
       <c r="B347" s="128" t="s">
+        <v>155</v>
+      </c>
+      <c r="F347" s="130">
+        <v>0.60799999999999998</v>
+      </c>
+      <c r="G347" s="62">
+        <f>F347+0.008</f>
+        <v>0.61599999999999999</v>
+      </c>
+      <c r="H347" s="62">
+        <f t="shared" ref="H347:J347" si="77">G347+0.008</f>
+        <v>0.624</v>
+      </c>
+      <c r="I347" s="62">
+        <f t="shared" si="77"/>
+        <v>0.63200000000000001</v>
+      </c>
+      <c r="J347" s="62">
+        <f t="shared" si="77"/>
+        <v>0.64</v>
+      </c>
+    </row>
+    <row r="348" spans="2:10">
+      <c r="B348" s="128" t="s">
         <v>157</v>
       </c>
-      <c r="F347" s="62">
-        <v>0</v>
-      </c>
-      <c r="G347" s="62">
-        <v>0</v>
-      </c>
-      <c r="H347" s="62">
-        <v>0</v>
-      </c>
-      <c r="I347" s="62">
-        <v>0</v>
-      </c>
-      <c r="J347" s="62">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="348" spans="2:10">
-      <c r="B348" s="108" t="s">
-        <v>33</v>
-      </c>
-      <c r="F348" s="129"/>
-      <c r="G348" s="129"/>
-      <c r="H348" s="129"/>
-      <c r="I348" s="129"/>
-      <c r="J348" s="129"/>
+      <c r="F348" s="62">
+        <v>0.61</v>
+      </c>
+      <c r="G348" s="62">
+        <v>0.61</v>
+      </c>
+      <c r="H348" s="62">
+        <v>0.61</v>
+      </c>
+      <c r="I348" s="62">
+        <v>0.61</v>
+      </c>
+      <c r="J348" s="62">
+        <v>0.61</v>
+      </c>
     </row>
     <row r="349" spans="2:10">
-      <c r="B349" s="128" t="s">
-        <v>156</v>
-      </c>
-      <c r="F349" s="62">
-        <v>0.41</v>
-      </c>
-      <c r="G349" s="62">
-        <v>0.41</v>
-      </c>
-      <c r="H349" s="62">
-        <v>0.41</v>
-      </c>
-      <c r="I349" s="62">
-        <v>0.41</v>
-      </c>
-      <c r="J349" s="62">
-        <v>0.41</v>
-      </c>
+      <c r="B349" s="131" t="s">
+        <v>32</v>
+      </c>
+      <c r="F349" s="129"/>
+      <c r="G349" s="129"/>
+      <c r="H349" s="129"/>
+      <c r="I349" s="129"/>
+      <c r="J349" s="129"/>
     </row>
     <row r="350" spans="2:10">
       <c r="B350" s="128" t="s">
-        <v>155</v>
-      </c>
-      <c r="F350" s="130">
-        <v>0.42</v>
-      </c>
-      <c r="G350" s="130">
-        <v>0.41899999999999998</v>
-      </c>
-      <c r="H350" s="130">
-        <v>0.44500000000000001</v>
-      </c>
-      <c r="I350" s="130">
-        <v>0.42799999999999999</v>
-      </c>
-      <c r="J350" s="130">
-        <v>0.43099999999999999</v>
+        <v>156</v>
+      </c>
+      <c r="F350" s="62">
+        <v>0</v>
+      </c>
+      <c r="G350" s="62">
+        <f>F350</f>
+        <v>0</v>
+      </c>
+      <c r="H350" s="62">
+        <f t="shared" ref="H350:J350" si="78">G350</f>
+        <v>0</v>
+      </c>
+      <c r="I350" s="62">
+        <f t="shared" si="78"/>
+        <v>0</v>
+      </c>
+      <c r="J350" s="62">
+        <f t="shared" si="78"/>
+        <v>0</v>
       </c>
     </row>
     <row r="351" spans="2:10">
       <c r="B351" s="128" t="s">
+        <v>155</v>
+      </c>
+      <c r="F351" s="62">
+        <v>0</v>
+      </c>
+      <c r="G351" s="62">
+        <v>0</v>
+      </c>
+      <c r="H351" s="62">
+        <v>0</v>
+      </c>
+      <c r="I351" s="62">
+        <v>0</v>
+      </c>
+      <c r="J351" s="62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="352" spans="2:10">
+      <c r="B352" s="128" t="s">
         <v>157</v>
       </c>
-      <c r="F351" s="130">
+      <c r="F352" s="62">
+        <v>0</v>
+      </c>
+      <c r="G352" s="62">
+        <v>0</v>
+      </c>
+      <c r="H352" s="62">
+        <v>0</v>
+      </c>
+      <c r="I352" s="62">
+        <v>0</v>
+      </c>
+      <c r="J352" s="62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="353" spans="2:10">
+      <c r="B353" s="108" t="s">
+        <v>33</v>
+      </c>
+      <c r="F353" s="129"/>
+      <c r="G353" s="129"/>
+      <c r="H353" s="129"/>
+      <c r="I353" s="129"/>
+      <c r="J353" s="129"/>
+    </row>
+    <row r="354" spans="2:10">
+      <c r="B354" s="128" t="s">
+        <v>156</v>
+      </c>
+      <c r="F354" s="62">
+        <v>0.41</v>
+      </c>
+      <c r="G354" s="62">
+        <v>0.41</v>
+      </c>
+      <c r="H354" s="62">
+        <v>0.41</v>
+      </c>
+      <c r="I354" s="62">
+        <v>0.41</v>
+      </c>
+      <c r="J354" s="62">
+        <v>0.41</v>
+      </c>
+    </row>
+    <row r="355" spans="2:10">
+      <c r="B355" s="128" t="s">
+        <v>155</v>
+      </c>
+      <c r="F355" s="130">
+        <v>0.42</v>
+      </c>
+      <c r="G355" s="130">
+        <v>0.41899999999999998</v>
+      </c>
+      <c r="H355" s="130">
+        <v>0.44500000000000001</v>
+      </c>
+      <c r="I355" s="130">
+        <v>0.42799999999999999</v>
+      </c>
+      <c r="J355" s="130">
+        <v>0.43099999999999999</v>
+      </c>
+    </row>
+    <row r="356" spans="2:10">
+      <c r="B356" s="128" t="s">
+        <v>157</v>
+      </c>
+      <c r="F356" s="130">
         <v>0.43</v>
       </c>
-      <c r="G351" s="130">
+      <c r="G356" s="130">
         <v>0.43</v>
       </c>
-      <c r="H351" s="130">
+      <c r="H356" s="130">
         <v>0.43</v>
       </c>
-      <c r="I351" s="130">
+      <c r="I356" s="130">
         <v>0.43</v>
       </c>
-      <c r="J351" s="130">
+      <c r="J356" s="130">
         <v>0.43</v>
       </c>
     </row>
-    <row r="354" spans="2:2">
-      <c r="B354" s="147"/>
+    <row r="359" spans="2:10">
+      <c r="B359" s="147"/>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="D318:H323">
+  <conditionalFormatting sqref="D323:H328">
     <cfRule type="cellIs" dxfId="3" priority="1" operator="lessThan">
       <formula>2.16</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="3">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E329">
-      <formula1>$B$337:$B$339</formula1>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E334">
+      <formula1>$B$342:$B$344</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B3">
       <formula1>"$ bns except per share, $ mm except per share,$ in thousands except per share"</formula1>
@@ -12321,23 +12466,23 @@
         <v>120</v>
       </c>
       <c r="F19" s="133">
-        <f ca="1">'Financial Statement Model'!F242</f>
+        <f ca="1">'Financial Statement Model'!F247</f>
         <v>1102.0749071230769</v>
       </c>
       <c r="G19" s="133">
-        <f ca="1">'Financial Statement Model'!G242</f>
+        <f ca="1">'Financial Statement Model'!G247</f>
         <v>1171.3886895991541</v>
       </c>
       <c r="H19" s="133">
-        <f ca="1">'Financial Statement Model'!H242</f>
+        <f ca="1">'Financial Statement Model'!H247</f>
         <v>1362.1216253743319</v>
       </c>
       <c r="I19" s="133">
-        <f ca="1">'Financial Statement Model'!I242</f>
+        <f ca="1">'Financial Statement Model'!I247</f>
         <v>1477.1209965052913</v>
       </c>
       <c r="J19" s="133">
-        <f ca="1">'Financial Statement Model'!J242</f>
+        <f ca="1">'Financial Statement Model'!J247</f>
         <v>1565.0386762257147</v>
       </c>
     </row>
@@ -12346,23 +12491,23 @@
         <v>37</v>
       </c>
       <c r="F20" s="133">
-        <f ca="1">'Financial Statement Model'!F243</f>
+        <f ca="1">'Financial Statement Model'!F248</f>
         <v>240.8319628560927</v>
       </c>
       <c r="G20" s="133">
-        <f ca="1">'Financial Statement Model'!G243</f>
+        <f ca="1">'Financial Statement Model'!G248</f>
         <v>262.45523266395764</v>
       </c>
       <c r="H20" s="133">
-        <f ca="1">'Financial Statement Model'!H243</f>
+        <f ca="1">'Financial Statement Model'!H248</f>
         <v>295.70893164489956</v>
       </c>
       <c r="I20" s="133">
-        <f ca="1">'Financial Statement Model'!I243</f>
+        <f ca="1">'Financial Statement Model'!I248</f>
         <v>315.37483623419502</v>
       </c>
       <c r="J20" s="133">
-        <f ca="1">'Financial Statement Model'!J243</f>
+        <f ca="1">'Financial Statement Model'!J248</f>
         <v>344.73322237107175</v>
       </c>
     </row>
@@ -12371,23 +12516,23 @@
         <v>42</v>
       </c>
       <c r="F21" s="133">
-        <f ca="1">'Financial Statement Model'!F244</f>
+        <f ca="1">'Financial Statement Model'!F249</f>
         <v>-66.474071266053215</v>
       </c>
       <c r="G21" s="133">
-        <f ca="1">'Financial Statement Model'!G244</f>
+        <f ca="1">'Financial Statement Model'!G249</f>
         <v>-85.197955269137424</v>
       </c>
       <c r="H21" s="133">
-        <f ca="1">'Financial Statement Model'!H244</f>
+        <f ca="1">'Financial Statement Model'!H249</f>
         <v>-93.888146706589623</v>
       </c>
       <c r="I21" s="133">
-        <f ca="1">'Financial Statement Model'!I244</f>
+        <f ca="1">'Financial Statement Model'!I249</f>
         <v>-101.43601732417812</v>
       </c>
       <c r="J21" s="133">
-        <f ca="1">'Financial Statement Model'!J244</f>
+        <f ca="1">'Financial Statement Model'!J249</f>
         <v>-111.5796190565959</v>
       </c>
     </row>
@@ -12396,23 +12541,23 @@
         <v>43</v>
       </c>
       <c r="F22" s="133">
-        <f ca="1">'Financial Statement Model'!F245</f>
+        <f ca="1">'Financial Statement Model'!F250</f>
         <v>-88.587236447043324</v>
       </c>
       <c r="G22" s="133">
-        <f ca="1">'Financial Statement Model'!G245</f>
+        <f ca="1">'Financial Statement Model'!G250</f>
         <v>-116.64840557546313</v>
       </c>
       <c r="H22" s="133">
-        <f ca="1">'Financial Statement Model'!H245</f>
+        <f ca="1">'Financial Statement Model'!H250</f>
         <v>-125.18110470486226</v>
       </c>
       <c r="I22" s="133">
-        <f ca="1">'Financial Statement Model'!I245</f>
+        <f ca="1">'Financial Statement Model'!I250</f>
         <v>-130.89575081316048</v>
       </c>
       <c r="J22" s="133">
-        <f ca="1">'Financial Statement Model'!J245</f>
+        <f ca="1">'Financial Statement Model'!J250</f>
         <v>-139.98573350851871</v>
       </c>
     </row>
@@ -12421,23 +12566,23 @@
         <v>50</v>
       </c>
       <c r="F23" s="133">
-        <f ca="1">'Financial Statement Model'!F246</f>
+        <f ca="1">'Financial Statement Model'!F251</f>
         <v>42.273024525303981</v>
       </c>
       <c r="G23" s="133">
-        <f ca="1">'Financial Statement Model'!G246</f>
+        <f ca="1">'Financial Statement Model'!G251</f>
         <v>61.451291909195675</v>
       </c>
       <c r="H23" s="133">
-        <f ca="1">'Financial Statement Model'!H246</f>
+        <f ca="1">'Financial Statement Model'!H251</f>
         <v>65.946384511510246</v>
       </c>
       <c r="I23" s="133">
-        <f ca="1">'Financial Statement Model'!I246</f>
+        <f ca="1">'Financial Statement Model'!I251</f>
         <v>68.956904753311619</v>
       </c>
       <c r="J23" s="133">
-        <f ca="1">'Financial Statement Model'!J246</f>
+        <f ca="1">'Financial Statement Model'!J251</f>
         <v>73.745578694513711</v>
       </c>
     </row>
@@ -12446,23 +12591,23 @@
         <v>79</v>
       </c>
       <c r="F24" s="133">
-        <f ca="1">'Financial Statement Model'!F247</f>
+        <f ca="1">'Financial Statement Model'!F252</f>
         <v>140.34652469380626</v>
       </c>
       <c r="G24" s="133">
-        <f ca="1">'Financial Statement Model'!G247</f>
+        <f ca="1">'Financial Statement Model'!G252</f>
         <v>337.68594551876868</v>
       </c>
       <c r="H24" s="133">
-        <f ca="1">'Financial Statement Model'!H247</f>
+        <f ca="1">'Financial Statement Model'!H252</f>
         <v>372.12991196168286</v>
       </c>
       <c r="I24" s="133">
-        <f ca="1">'Financial Statement Model'!I247</f>
+        <f ca="1">'Financial Statement Model'!I252</f>
         <v>402.04623821742553</v>
       </c>
       <c r="J24" s="133">
-        <f ca="1">'Financial Statement Model'!J247</f>
+        <f ca="1">'Financial Statement Model'!J252</f>
         <v>442.25086203916908</v>
       </c>
     </row>
@@ -12471,23 +12616,23 @@
         <v>45</v>
       </c>
       <c r="F25" s="133">
-        <f>'Financial Statement Model'!F248</f>
+        <f>'Financial Statement Model'!F253</f>
         <v>0</v>
       </c>
       <c r="G25" s="133">
-        <f>'Financial Statement Model'!G248</f>
+        <f>'Financial Statement Model'!G253</f>
         <v>0</v>
       </c>
       <c r="H25" s="133">
-        <f>'Financial Statement Model'!H248</f>
+        <f>'Financial Statement Model'!H253</f>
         <v>0</v>
       </c>
       <c r="I25" s="133">
-        <f>'Financial Statement Model'!I248</f>
+        <f>'Financial Statement Model'!I253</f>
         <v>0</v>
       </c>
       <c r="J25" s="133">
-        <f>'Financial Statement Model'!J248</f>
+        <f>'Financial Statement Model'!J253</f>
         <v>0</v>
       </c>
     </row>
@@ -12496,23 +12641,23 @@
         <v>94</v>
       </c>
       <c r="F26" s="133">
-        <f>'Financial Statement Model'!F249</f>
+        <f>'Financial Statement Model'!F254</f>
         <v>0</v>
       </c>
       <c r="G26" s="133">
-        <f>'Financial Statement Model'!G249</f>
+        <f>'Financial Statement Model'!G254</f>
         <v>0</v>
       </c>
       <c r="H26" s="133">
-        <f>'Financial Statement Model'!H249</f>
+        <f>'Financial Statement Model'!H254</f>
         <v>0</v>
       </c>
       <c r="I26" s="133">
-        <f>'Financial Statement Model'!I249</f>
+        <f>'Financial Statement Model'!I254</f>
         <v>0</v>
       </c>
       <c r="J26" s="133">
-        <f>'Financial Statement Model'!J249</f>
+        <f>'Financial Statement Model'!J254</f>
         <v>0</v>
       </c>
     </row>
@@ -12521,23 +12666,23 @@
         <v>48</v>
       </c>
       <c r="F27" s="133">
-        <f>'Financial Statement Model'!F250</f>
+        <f>'Financial Statement Model'!F255</f>
         <v>0</v>
       </c>
       <c r="G27" s="133">
-        <f>'Financial Statement Model'!G250</f>
+        <f>'Financial Statement Model'!G255</f>
         <v>0</v>
       </c>
       <c r="H27" s="133">
-        <f>'Financial Statement Model'!H250</f>
+        <f>'Financial Statement Model'!H255</f>
         <v>0</v>
       </c>
       <c r="I27" s="133">
-        <f>'Financial Statement Model'!I250</f>
+        <f>'Financial Statement Model'!I255</f>
         <v>0</v>
       </c>
       <c r="J27" s="133">
-        <f>'Financial Statement Model'!J250</f>
+        <f>'Financial Statement Model'!J255</f>
         <v>0</v>
       </c>
     </row>
@@ -12546,23 +12691,23 @@
         <v>95</v>
       </c>
       <c r="F28" s="133">
-        <f>'Financial Statement Model'!F251</f>
+        <f>'Financial Statement Model'!F256</f>
         <v>0</v>
       </c>
       <c r="G28" s="133">
-        <f>'Financial Statement Model'!G251</f>
+        <f>'Financial Statement Model'!G256</f>
         <v>0</v>
       </c>
       <c r="H28" s="133">
-        <f>'Financial Statement Model'!H251</f>
+        <f>'Financial Statement Model'!H256</f>
         <v>0</v>
       </c>
       <c r="I28" s="133">
-        <f>'Financial Statement Model'!I251</f>
+        <f>'Financial Statement Model'!I256</f>
         <v>0</v>
       </c>
       <c r="J28" s="133">
-        <f>'Financial Statement Model'!J251</f>
+        <f>'Financial Statement Model'!J256</f>
         <v>0</v>
       </c>
     </row>
@@ -12602,23 +12747,23 @@
       <c r="D30"/>
       <c r="E30"/>
       <c r="F30" s="133">
-        <f ca="1">'Financial Statement Model'!F255</f>
+        <f ca="1">'Financial Statement Model'!F260</f>
         <v>-1589.1003450000001</v>
       </c>
       <c r="G30" s="133">
-        <f ca="1">'Financial Statement Model'!G255</f>
+        <f ca="1">'Financial Statement Model'!G260</f>
         <v>-1697.1418863922606</v>
       </c>
       <c r="H30" s="133">
-        <f ca="1">'Financial Statement Model'!H255</f>
+        <f ca="1">'Financial Statement Model'!H260</f>
         <v>-1736.8288338324423</v>
       </c>
       <c r="I30" s="133">
-        <f ca="1">'Financial Statement Model'!I255</f>
+        <f ca="1">'Financial Statement Model'!I260</f>
         <v>-1667.9070547121073</v>
       </c>
       <c r="J30" s="133">
-        <f ca="1">'Financial Statement Model'!J255</f>
+        <f ca="1">'Financial Statement Model'!J260</f>
         <v>-1701.2651958063495</v>
       </c>
     </row>
@@ -12630,23 +12775,23 @@
       <c r="D31"/>
       <c r="E31"/>
       <c r="F31" s="133">
-        <f>'Financial Statement Model'!F256</f>
+        <f>'Financial Statement Model'!F261</f>
         <v>0</v>
       </c>
       <c r="G31" s="133">
-        <f>'Financial Statement Model'!G256</f>
+        <f>'Financial Statement Model'!G261</f>
         <v>0</v>
       </c>
       <c r="H31" s="133">
-        <f>'Financial Statement Model'!H256</f>
+        <f>'Financial Statement Model'!H261</f>
         <v>0</v>
       </c>
       <c r="I31" s="133">
-        <f>'Financial Statement Model'!I256</f>
+        <f>'Financial Statement Model'!I261</f>
         <v>0</v>
       </c>
       <c r="J31" s="133">
-        <f>'Financial Statement Model'!J256</f>
+        <f>'Financial Statement Model'!J261</f>
         <v>0</v>
       </c>
     </row>
